--- a/BOJ_roadmap.xlsx
+++ b/BOJ_roadmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Algorithm_study\Algorithm_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A8BFAD-761A-455B-AB66-CE17D56FF2D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6477B9C2-B5FC-4346-815D-40EE0B5D2B17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="3255" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30720" yWindow="1920" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1차BOJ" sheetId="1" r:id="rId1"/>
@@ -535,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -630,6 +630,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -849,20 +852,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="I117" sqref="I117"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="L124" sqref="L124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="16.09765625" customWidth="1"/>
     <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="34.625" customWidth="1"/>
-    <col min="5" max="32" width="3.375" customWidth="1"/>
+    <col min="4" max="4" width="34.59765625" customWidth="1"/>
+    <col min="5" max="32" width="3.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -896,7 +899,7 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
     </row>
-    <row r="2" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -986,7 +989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1020,7 +1023,7 @@
       <c r="AE3" s="14"/>
       <c r="AF3" s="14"/>
     </row>
-    <row r="4" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1060,7 +1063,7 @@
       <c r="AE4" s="19"/>
       <c r="AF4" s="21"/>
     </row>
-    <row r="5" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1100,7 +1103,7 @@
       <c r="AE5" s="23"/>
       <c r="AF5" s="25"/>
     </row>
-    <row r="6" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1140,7 +1143,7 @@
       <c r="AE6" s="23"/>
       <c r="AF6" s="25"/>
     </row>
-    <row r="7" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1180,7 +1183,7 @@
       <c r="AE7" s="23"/>
       <c r="AF7" s="25"/>
     </row>
-    <row r="8" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -1220,7 +1223,7 @@
       <c r="AE8" s="23"/>
       <c r="AF8" s="25"/>
     </row>
-    <row r="9" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1260,7 +1263,7 @@
       <c r="AE9" s="23"/>
       <c r="AF9" s="25"/>
     </row>
-    <row r="10" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -1300,7 +1303,7 @@
       <c r="AE10" s="23"/>
       <c r="AF10" s="25"/>
     </row>
-    <row r="11" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -1340,7 +1343,7 @@
       <c r="AE11" s="23"/>
       <c r="AF11" s="25"/>
     </row>
-    <row r="12" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -1380,7 +1383,7 @@
       <c r="AE12" s="23"/>
       <c r="AF12" s="25"/>
     </row>
-    <row r="13" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1420,7 +1423,7 @@
       <c r="AE13" s="23"/>
       <c r="AF13" s="25"/>
     </row>
-    <row r="14" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -1460,7 +1463,7 @@
       <c r="AE14" s="23"/>
       <c r="AF14" s="25"/>
     </row>
-    <row r="15" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1500,7 +1503,7 @@
       <c r="AE15" s="23"/>
       <c r="AF15" s="25"/>
     </row>
-    <row r="16" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1540,7 +1543,7 @@
       <c r="AE16" s="23"/>
       <c r="AF16" s="25"/>
     </row>
-    <row r="17" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1580,7 +1583,7 @@
       <c r="AE17" s="23"/>
       <c r="AF17" s="25"/>
     </row>
-    <row r="18" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1620,7 +1623,7 @@
       <c r="AE18" s="23"/>
       <c r="AF18" s="25"/>
     </row>
-    <row r="19" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1660,7 +1663,7 @@
       <c r="AE19" s="23"/>
       <c r="AF19" s="25"/>
     </row>
-    <row r="20" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1700,7 +1703,7 @@
       <c r="AE20" s="23"/>
       <c r="AF20" s="25"/>
     </row>
-    <row r="21" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -1740,7 +1743,7 @@
       <c r="AE21" s="23"/>
       <c r="AF21" s="25"/>
     </row>
-    <row r="22" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -1780,7 +1783,7 @@
       <c r="AE22" s="23"/>
       <c r="AF22" s="25"/>
     </row>
-    <row r="23" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -1820,7 +1823,7 @@
       <c r="AE23" s="23"/>
       <c r="AF23" s="25"/>
     </row>
-    <row r="24" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -1860,7 +1863,7 @@
       <c r="AE24" s="23"/>
       <c r="AF24" s="25"/>
     </row>
-    <row r="25" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -1900,7 +1903,7 @@
       <c r="AE25" s="23"/>
       <c r="AF25" s="25"/>
     </row>
-    <row r="26" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -1940,7 +1943,7 @@
       <c r="AE26" s="23"/>
       <c r="AF26" s="25"/>
     </row>
-    <row r="27" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -1980,7 +1983,7 @@
       <c r="AE27" s="23"/>
       <c r="AF27" s="25"/>
     </row>
-    <row r="28" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -2020,7 +2023,7 @@
       <c r="AE28" s="23"/>
       <c r="AF28" s="25"/>
     </row>
-    <row r="29" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -2060,7 +2063,7 @@
       <c r="AE29" s="23"/>
       <c r="AF29" s="25"/>
     </row>
-    <row r="30" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -2100,7 +2103,7 @@
       <c r="AE30" s="23"/>
       <c r="AF30" s="25"/>
     </row>
-    <row r="31" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -2140,7 +2143,7 @@
       <c r="AE31" s="23"/>
       <c r="AF31" s="25"/>
     </row>
-    <row r="32" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -2180,7 +2183,7 @@
       <c r="AE32" s="23"/>
       <c r="AF32" s="25"/>
     </row>
-    <row r="33" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="26">
         <v>30</v>
       </c>
@@ -2220,7 +2223,7 @@
       <c r="AE33" s="23"/>
       <c r="AF33" s="25"/>
     </row>
-    <row r="34" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26">
         <v>31</v>
       </c>
@@ -2260,7 +2263,7 @@
       <c r="AE34" s="23"/>
       <c r="AF34" s="25"/>
     </row>
-    <row r="35" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="26">
         <v>32</v>
       </c>
@@ -2300,7 +2303,7 @@
       <c r="AE35" s="23"/>
       <c r="AF35" s="25"/>
     </row>
-    <row r="36" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26">
         <v>33</v>
       </c>
@@ -2340,7 +2343,7 @@
       <c r="AE36" s="23"/>
       <c r="AF36" s="25"/>
     </row>
-    <row r="37" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>34</v>
       </c>
@@ -2380,7 +2383,7 @@
       <c r="AE37" s="23"/>
       <c r="AF37" s="25"/>
     </row>
-    <row r="38" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>35</v>
       </c>
@@ -2420,7 +2423,7 @@
       <c r="AE38" s="28"/>
       <c r="AF38" s="30"/>
     </row>
-    <row r="39" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>36</v>
       </c>
@@ -2460,7 +2463,7 @@
       <c r="AE39" s="19"/>
       <c r="AF39" s="21"/>
     </row>
-    <row r="40" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>37</v>
       </c>
@@ -2500,7 +2503,7 @@
       <c r="AE40" s="23"/>
       <c r="AF40" s="25"/>
     </row>
-    <row r="41" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="26">
         <v>38</v>
       </c>
@@ -2540,7 +2543,7 @@
       <c r="AE41" s="23"/>
       <c r="AF41" s="25"/>
     </row>
-    <row r="42" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="26">
         <v>39</v>
       </c>
@@ -2580,7 +2583,7 @@
       <c r="AE42" s="23"/>
       <c r="AF42" s="25"/>
     </row>
-    <row r="43" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>40</v>
       </c>
@@ -2620,7 +2623,7 @@
       <c r="AE43" s="23"/>
       <c r="AF43" s="25"/>
     </row>
-    <row r="44" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>41</v>
       </c>
@@ -2660,7 +2663,7 @@
       <c r="AE44" s="23"/>
       <c r="AF44" s="25"/>
     </row>
-    <row r="45" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>42</v>
       </c>
@@ -2700,7 +2703,7 @@
       <c r="AE45" s="23"/>
       <c r="AF45" s="25"/>
     </row>
-    <row r="46" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26">
         <v>43</v>
       </c>
@@ -2740,7 +2743,7 @@
       <c r="AE46" s="23"/>
       <c r="AF46" s="25"/>
     </row>
-    <row r="47" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="26">
         <v>44</v>
       </c>
@@ -2780,7 +2783,7 @@
       <c r="AE47" s="23"/>
       <c r="AF47" s="25"/>
     </row>
-    <row r="48" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>45</v>
       </c>
@@ -2820,7 +2823,7 @@
       <c r="AE48" s="23"/>
       <c r="AF48" s="25"/>
     </row>
-    <row r="49" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>46</v>
       </c>
@@ -2860,7 +2863,7 @@
       <c r="AE49" s="23"/>
       <c r="AF49" s="25"/>
     </row>
-    <row r="50" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>47</v>
       </c>
@@ -2900,7 +2903,7 @@
       <c r="AE50" s="23"/>
       <c r="AF50" s="25"/>
     </row>
-    <row r="51" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>48</v>
       </c>
@@ -2940,7 +2943,7 @@
       <c r="AE51" s="23"/>
       <c r="AF51" s="25"/>
     </row>
-    <row r="52" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>49</v>
       </c>
@@ -2980,7 +2983,7 @@
       <c r="AE52" s="23"/>
       <c r="AF52" s="25"/>
     </row>
-    <row r="53" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="26">
         <v>50</v>
       </c>
@@ -3020,7 +3023,7 @@
       <c r="AE53" s="23"/>
       <c r="AF53" s="25"/>
     </row>
-    <row r="54" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="26">
         <v>51</v>
       </c>
@@ -3060,7 +3063,7 @@
       <c r="AE54" s="23"/>
       <c r="AF54" s="25"/>
     </row>
-    <row r="55" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26">
         <v>52</v>
       </c>
@@ -3100,7 +3103,7 @@
       <c r="AE55" s="23"/>
       <c r="AF55" s="25"/>
     </row>
-    <row r="56" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="26">
         <v>53</v>
       </c>
@@ -3140,7 +3143,7 @@
       <c r="AE56" s="23"/>
       <c r="AF56" s="25"/>
     </row>
-    <row r="57" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>54</v>
       </c>
@@ -3180,7 +3183,7 @@
       <c r="AE57" s="23"/>
       <c r="AF57" s="25"/>
     </row>
-    <row r="58" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>55</v>
       </c>
@@ -3220,7 +3223,7 @@
       <c r="AE58" s="23"/>
       <c r="AF58" s="25"/>
     </row>
-    <row r="59" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
         <v>56</v>
       </c>
@@ -3260,7 +3263,7 @@
       <c r="AE59" s="23"/>
       <c r="AF59" s="25"/>
     </row>
-    <row r="60" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>57</v>
       </c>
@@ -3300,7 +3303,7 @@
       <c r="AE60" s="23"/>
       <c r="AF60" s="25"/>
     </row>
-    <row r="61" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>58</v>
       </c>
@@ -3340,7 +3343,7 @@
       <c r="AE61" s="23"/>
       <c r="AF61" s="25"/>
     </row>
-    <row r="62" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="26">
         <v>59</v>
       </c>
@@ -3380,7 +3383,7 @@
       <c r="AE62" s="23"/>
       <c r="AF62" s="25"/>
     </row>
-    <row r="63" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="26">
         <v>60</v>
       </c>
@@ -3420,7 +3423,7 @@
       <c r="AE63" s="23"/>
       <c r="AF63" s="25"/>
     </row>
-    <row r="64" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>61</v>
       </c>
@@ -3460,7 +3463,7 @@
       <c r="AE64" s="23"/>
       <c r="AF64" s="25"/>
     </row>
-    <row r="65" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="26">
         <v>62</v>
       </c>
@@ -3500,7 +3503,7 @@
       <c r="AE65" s="23"/>
       <c r="AF65" s="25"/>
     </row>
-    <row r="66" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="26">
         <v>63</v>
       </c>
@@ -3540,7 +3543,7 @@
       <c r="AE66" s="23"/>
       <c r="AF66" s="25"/>
     </row>
-    <row r="67" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>64</v>
       </c>
@@ -3580,7 +3583,7 @@
       <c r="AE67" s="23"/>
       <c r="AF67" s="25"/>
     </row>
-    <row r="68" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>65</v>
       </c>
@@ -3620,7 +3623,7 @@
       <c r="AE68" s="23"/>
       <c r="AF68" s="25"/>
     </row>
-    <row r="69" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>66</v>
       </c>
@@ -3660,7 +3663,7 @@
       <c r="AE69" s="23"/>
       <c r="AF69" s="25"/>
     </row>
-    <row r="70" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>67</v>
       </c>
@@ -3700,7 +3703,7 @@
       <c r="AE70" s="23"/>
       <c r="AF70" s="25"/>
     </row>
-    <row r="71" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>68</v>
       </c>
@@ -3740,7 +3743,7 @@
       <c r="AE71" s="23"/>
       <c r="AF71" s="25"/>
     </row>
-    <row r="72" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>69</v>
       </c>
@@ -3780,7 +3783,7 @@
       <c r="AE72" s="23"/>
       <c r="AF72" s="25"/>
     </row>
-    <row r="73" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="26">
         <v>70</v>
       </c>
@@ -3820,7 +3823,7 @@
       <c r="AE73" s="28"/>
       <c r="AF73" s="30"/>
     </row>
-    <row r="74" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="26">
         <v>71</v>
       </c>
@@ -3860,7 +3863,7 @@
       <c r="AE74" s="19"/>
       <c r="AF74" s="21"/>
     </row>
-    <row r="75" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="26">
         <v>72</v>
       </c>
@@ -3900,7 +3903,7 @@
       <c r="AE75" s="23"/>
       <c r="AF75" s="25"/>
     </row>
-    <row r="76" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>73</v>
       </c>
@@ -3940,7 +3943,7 @@
       <c r="AE76" s="23"/>
       <c r="AF76" s="25"/>
     </row>
-    <row r="77" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>74</v>
       </c>
@@ -3980,7 +3983,7 @@
       <c r="AE77" s="23"/>
       <c r="AF77" s="25"/>
     </row>
-    <row r="78" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="26">
         <v>75</v>
       </c>
@@ -4020,7 +4023,7 @@
       <c r="AE78" s="23"/>
       <c r="AF78" s="25"/>
     </row>
-    <row r="79" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>76</v>
       </c>
@@ -4060,7 +4063,7 @@
       <c r="AE79" s="23"/>
       <c r="AF79" s="25"/>
     </row>
-    <row r="80" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>77</v>
       </c>
@@ -4100,7 +4103,7 @@
       <c r="AE80" s="23"/>
       <c r="AF80" s="25"/>
     </row>
-    <row r="81" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>78</v>
       </c>
@@ -4140,7 +4143,7 @@
       <c r="AE81" s="23"/>
       <c r="AF81" s="25"/>
     </row>
-    <row r="82" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>79</v>
       </c>
@@ -4180,7 +4183,7 @@
       <c r="AE82" s="23"/>
       <c r="AF82" s="25"/>
     </row>
-    <row r="83" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>80</v>
       </c>
@@ -4220,7 +4223,7 @@
       <c r="AE83" s="23"/>
       <c r="AF83" s="25"/>
     </row>
-    <row r="84" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>81</v>
       </c>
@@ -4260,7 +4263,7 @@
       <c r="AE84" s="23"/>
       <c r="AF84" s="25"/>
     </row>
-    <row r="85" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>82</v>
       </c>
@@ -4300,7 +4303,7 @@
       <c r="AE85" s="23"/>
       <c r="AF85" s="25"/>
     </row>
-    <row r="86" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>83</v>
       </c>
@@ -4340,7 +4343,7 @@
       <c r="AE86" s="23"/>
       <c r="AF86" s="25"/>
     </row>
-    <row r="87" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>84</v>
       </c>
@@ -4380,7 +4383,7 @@
       <c r="AE87" s="23"/>
       <c r="AF87" s="25"/>
     </row>
-    <row r="88" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="26">
         <v>85</v>
       </c>
@@ -4420,7 +4423,7 @@
       <c r="AE88" s="23"/>
       <c r="AF88" s="25"/>
     </row>
-    <row r="89" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="26">
         <v>86</v>
       </c>
@@ -4460,7 +4463,7 @@
       <c r="AE89" s="23"/>
       <c r="AF89" s="25"/>
     </row>
-    <row r="90" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="26">
         <v>87</v>
       </c>
@@ -4500,7 +4503,7 @@
       <c r="AE90" s="23"/>
       <c r="AF90" s="25"/>
     </row>
-    <row r="91" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>88</v>
       </c>
@@ -4540,7 +4543,7 @@
       <c r="AE91" s="23"/>
       <c r="AF91" s="25"/>
     </row>
-    <row r="92" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>89</v>
       </c>
@@ -4580,7 +4583,7 @@
       <c r="AE92" s="23"/>
       <c r="AF92" s="25"/>
     </row>
-    <row r="93" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>90</v>
       </c>
@@ -4620,7 +4623,7 @@
       <c r="AE93" s="23"/>
       <c r="AF93" s="25"/>
     </row>
-    <row r="94" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>91</v>
       </c>
@@ -4660,7 +4663,7 @@
       <c r="AE94" s="23"/>
       <c r="AF94" s="25"/>
     </row>
-    <row r="95" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="26">
         <v>92</v>
       </c>
@@ -4700,7 +4703,7 @@
       <c r="AE95" s="23"/>
       <c r="AF95" s="25"/>
     </row>
-    <row r="96" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>93</v>
       </c>
@@ -4740,7 +4743,7 @@
       <c r="AE96" s="23"/>
       <c r="AF96" s="25"/>
     </row>
-    <row r="97" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>94</v>
       </c>
@@ -4780,7 +4783,7 @@
       <c r="AE97" s="23"/>
       <c r="AF97" s="25"/>
     </row>
-    <row r="98" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>95</v>
       </c>
@@ -4820,7 +4823,7 @@
       <c r="AE98" s="23"/>
       <c r="AF98" s="25"/>
     </row>
-    <row r="99" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>96</v>
       </c>
@@ -4860,7 +4863,7 @@
       <c r="AE99" s="23"/>
       <c r="AF99" s="25"/>
     </row>
-    <row r="100" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="26">
         <v>97</v>
       </c>
@@ -4900,7 +4903,7 @@
       <c r="AE100" s="23"/>
       <c r="AF100" s="25"/>
     </row>
-    <row r="101" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="26">
         <v>98</v>
       </c>
@@ -4940,7 +4943,7 @@
       <c r="AE101" s="23"/>
       <c r="AF101" s="25"/>
     </row>
-    <row r="102" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>99</v>
       </c>
@@ -4980,7 +4983,7 @@
       <c r="AE102" s="23"/>
       <c r="AF102" s="25"/>
     </row>
-    <row r="103" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="26">
         <v>100</v>
       </c>
@@ -5020,7 +5023,7 @@
       <c r="AE103" s="23"/>
       <c r="AF103" s="25"/>
     </row>
-    <row r="104" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="26">
         <v>101</v>
       </c>
@@ -5060,7 +5063,7 @@
       <c r="AE104" s="23"/>
       <c r="AF104" s="25"/>
     </row>
-    <row r="105" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>102</v>
       </c>
@@ -5100,7 +5103,7 @@
       <c r="AE105" s="23"/>
       <c r="AF105" s="25"/>
     </row>
-    <row r="106" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>103</v>
       </c>
@@ -5140,7 +5143,7 @@
       <c r="AE106" s="23"/>
       <c r="AF106" s="25"/>
     </row>
-    <row r="107" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>104</v>
       </c>
@@ -5180,7 +5183,7 @@
       <c r="AE107" s="23"/>
       <c r="AF107" s="25"/>
     </row>
-    <row r="108" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>105</v>
       </c>
@@ -5220,7 +5223,7 @@
       <c r="AE108" s="28"/>
       <c r="AF108" s="30"/>
     </row>
-    <row r="109" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="26">
         <v>106</v>
       </c>
@@ -5260,7 +5263,7 @@
       <c r="AE109" s="19"/>
       <c r="AF109" s="21"/>
     </row>
-    <row r="110" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="26">
         <v>107</v>
       </c>
@@ -5300,7 +5303,7 @@
       <c r="AE110" s="23"/>
       <c r="AF110" s="25"/>
     </row>
-    <row r="111" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="26">
         <v>108</v>
       </c>
@@ -5340,7 +5343,7 @@
       <c r="AE111" s="23"/>
       <c r="AF111" s="25"/>
     </row>
-    <row r="112" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="26">
         <v>109</v>
       </c>
@@ -5380,7 +5383,7 @@
       <c r="AE112" s="23"/>
       <c r="AF112" s="25"/>
     </row>
-    <row r="113" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="26">
         <v>110</v>
       </c>
@@ -5420,7 +5423,7 @@
       <c r="AE113" s="23"/>
       <c r="AF113" s="25"/>
     </row>
-    <row r="114" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="26">
         <v>111</v>
       </c>
@@ -5460,7 +5463,7 @@
       <c r="AE114" s="23"/>
       <c r="AF114" s="25"/>
     </row>
-    <row r="115" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>112</v>
       </c>
@@ -5500,7 +5503,7 @@
       <c r="AE115" s="23"/>
       <c r="AF115" s="25"/>
     </row>
-    <row r="116" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>113</v>
       </c>
@@ -5540,7 +5543,7 @@
       <c r="AE116" s="23"/>
       <c r="AF116" s="25"/>
     </row>
-    <row r="117" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>114</v>
       </c>
@@ -5580,7 +5583,7 @@
       <c r="AE117" s="23"/>
       <c r="AF117" s="25"/>
     </row>
-    <row r="118" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="26">
         <v>115</v>
       </c>
@@ -5620,7 +5623,7 @@
       <c r="AE118" s="23"/>
       <c r="AF118" s="25"/>
     </row>
-    <row r="119" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="26">
         <v>116</v>
       </c>
@@ -5660,7 +5663,7 @@
       <c r="AE119" s="23"/>
       <c r="AF119" s="25"/>
     </row>
-    <row r="120" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>117</v>
       </c>
@@ -5700,7 +5703,7 @@
       <c r="AE120" s="23"/>
       <c r="AF120" s="25"/>
     </row>
-    <row r="121" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>118</v>
       </c>
@@ -5740,7 +5743,7 @@
       <c r="AE121" s="23"/>
       <c r="AF121" s="25"/>
     </row>
-    <row r="122" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>119</v>
       </c>
@@ -5780,7 +5783,7 @@
       <c r="AE122" s="23"/>
       <c r="AF122" s="25"/>
     </row>
-    <row r="123" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="26">
         <v>120</v>
       </c>
@@ -5820,7 +5823,7 @@
       <c r="AE123" s="23"/>
       <c r="AF123" s="25"/>
     </row>
-    <row r="124" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="26">
         <v>121</v>
       </c>
@@ -5838,7 +5841,7 @@
       <c r="I124" s="23"/>
       <c r="J124" s="23"/>
       <c r="K124" s="24"/>
-      <c r="L124" s="22"/>
+      <c r="L124" s="36"/>
       <c r="M124" s="23"/>
       <c r="N124" s="23"/>
       <c r="O124" s="23"/>
@@ -5860,7 +5863,7 @@
       <c r="AE124" s="23"/>
       <c r="AF124" s="25"/>
     </row>
-    <row r="125" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>122</v>
       </c>
@@ -5900,7 +5903,7 @@
       <c r="AE125" s="23"/>
       <c r="AF125" s="25"/>
     </row>
-    <row r="126" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>123</v>
       </c>
@@ -5940,7 +5943,7 @@
       <c r="AE126" s="23"/>
       <c r="AF126" s="25"/>
     </row>
-    <row r="127" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>124</v>
       </c>
@@ -5980,7 +5983,7 @@
       <c r="AE127" s="23"/>
       <c r="AF127" s="25"/>
     </row>
-    <row r="128" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="26">
         <v>125</v>
       </c>
@@ -6020,7 +6023,7 @@
       <c r="AE128" s="23"/>
       <c r="AF128" s="25"/>
     </row>
-    <row r="129" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>126</v>
       </c>
@@ -6060,7 +6063,7 @@
       <c r="AE129" s="23"/>
       <c r="AF129" s="25"/>
     </row>
-    <row r="130" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>127</v>
       </c>
@@ -6100,7 +6103,7 @@
       <c r="AE130" s="23"/>
       <c r="AF130" s="25"/>
     </row>
-    <row r="131" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>128</v>
       </c>
@@ -6140,7 +6143,7 @@
       <c r="AE131" s="23"/>
       <c r="AF131" s="25"/>
     </row>
-    <row r="132" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>129</v>
       </c>
@@ -6180,7 +6183,7 @@
       <c r="AE132" s="23"/>
       <c r="AF132" s="25"/>
     </row>
-    <row r="133" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>130</v>
       </c>
@@ -6220,7 +6223,7 @@
       <c r="AE133" s="23"/>
       <c r="AF133" s="25"/>
     </row>
-    <row r="134" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>131</v>
       </c>
@@ -6260,7 +6263,7 @@
       <c r="AE134" s="23"/>
       <c r="AF134" s="25"/>
     </row>
-    <row r="135" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>132</v>
       </c>
@@ -6300,7 +6303,7 @@
       <c r="AE135" s="23"/>
       <c r="AF135" s="25"/>
     </row>
-    <row r="136" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>133</v>
       </c>
@@ -6340,7 +6343,7 @@
       <c r="AE136" s="23"/>
       <c r="AF136" s="25"/>
     </row>
-    <row r="137" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="26">
         <v>134</v>
       </c>
@@ -6380,7 +6383,7 @@
       <c r="AE137" s="23"/>
       <c r="AF137" s="25"/>
     </row>
-    <row r="138" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>135</v>
       </c>
@@ -6420,7 +6423,7 @@
       <c r="AE138" s="23"/>
       <c r="AF138" s="25"/>
     </row>
-    <row r="139" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>136</v>
       </c>
@@ -6460,7 +6463,7 @@
       <c r="AE139" s="23"/>
       <c r="AF139" s="25"/>
     </row>
-    <row r="140" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>137</v>
       </c>
@@ -6500,7 +6503,7 @@
       <c r="AE140" s="23"/>
       <c r="AF140" s="25"/>
     </row>
-    <row r="141" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>138</v>
       </c>
@@ -6540,7 +6543,7 @@
       <c r="AE141" s="23"/>
       <c r="AF141" s="25"/>
     </row>
-    <row r="142" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>139</v>
       </c>
@@ -6580,7 +6583,7 @@
       <c r="AE142" s="23"/>
       <c r="AF142" s="25"/>
     </row>
-    <row r="143" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
         <v>140</v>
       </c>
@@ -6620,7 +6623,7 @@
       <c r="AE143" s="28"/>
       <c r="AF143" s="30"/>
     </row>
-    <row r="144" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>141</v>
       </c>
@@ -6660,7 +6663,7 @@
       <c r="AE144" s="19"/>
       <c r="AF144" s="21"/>
     </row>
-    <row r="145" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>142</v>
       </c>
@@ -6700,7 +6703,7 @@
       <c r="AE145" s="23"/>
       <c r="AF145" s="25"/>
     </row>
-    <row r="146" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="26">
         <v>143</v>
       </c>
@@ -6740,7 +6743,7 @@
       <c r="AE146" s="23"/>
       <c r="AF146" s="25"/>
     </row>
-    <row r="147" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
         <v>144</v>
       </c>
@@ -6780,7 +6783,7 @@
       <c r="AE147" s="23"/>
       <c r="AF147" s="25"/>
     </row>
-    <row r="148" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="26">
         <v>145</v>
       </c>
@@ -6820,7 +6823,7 @@
       <c r="AE148" s="23"/>
       <c r="AF148" s="25"/>
     </row>
-    <row r="149" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="32">
         <v>146</v>
       </c>
@@ -6860,7 +6863,7 @@
       <c r="AE149" s="23"/>
       <c r="AF149" s="25"/>
     </row>
-    <row r="150" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>147</v>
       </c>
@@ -6900,7 +6903,7 @@
       <c r="AE150" s="23"/>
       <c r="AF150" s="25"/>
     </row>
-    <row r="151" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>148</v>
       </c>
@@ -6940,7 +6943,7 @@
       <c r="AE151" s="23"/>
       <c r="AF151" s="25"/>
     </row>
-    <row r="152" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="26">
         <v>149</v>
       </c>
@@ -6980,7 +6983,7 @@
       <c r="AE152" s="23"/>
       <c r="AF152" s="25"/>
     </row>
-    <row r="153" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="32">
         <v>150</v>
       </c>
@@ -7020,7 +7023,7 @@
       <c r="AE153" s="23"/>
       <c r="AF153" s="25"/>
     </row>
-    <row r="154" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>151</v>
       </c>
@@ -7060,7 +7063,7 @@
       <c r="AE154" s="23"/>
       <c r="AF154" s="25"/>
     </row>
-    <row r="155" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>152</v>
       </c>
@@ -7100,7 +7103,7 @@
       <c r="AE155" s="23"/>
       <c r="AF155" s="25"/>
     </row>
-    <row r="156" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>153</v>
       </c>
@@ -7140,7 +7143,7 @@
       <c r="AE156" s="23"/>
       <c r="AF156" s="25"/>
     </row>
-    <row r="157" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="33">
         <v>154</v>
       </c>
@@ -7180,7 +7183,7 @@
       <c r="AE157" s="23"/>
       <c r="AF157" s="25"/>
     </row>
-    <row r="158" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>155</v>
       </c>
@@ -7216,7 +7219,7 @@
       <c r="AE158" s="23"/>
       <c r="AF158" s="25"/>
     </row>
-    <row r="159" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>156</v>
       </c>
@@ -7252,7 +7255,7 @@
       <c r="AE159" s="23"/>
       <c r="AF159" s="25"/>
     </row>
-    <row r="160" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="33">
         <v>157</v>
       </c>
@@ -7288,7 +7291,7 @@
       <c r="AE160" s="23"/>
       <c r="AF160" s="25"/>
     </row>
-    <row r="161" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>158</v>
       </c>
@@ -7324,7 +7327,7 @@
       <c r="AE161" s="23"/>
       <c r="AF161" s="25"/>
     </row>
-    <row r="162" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>159</v>
       </c>
@@ -7360,7 +7363,7 @@
       <c r="AE162" s="23"/>
       <c r="AF162" s="25"/>
     </row>
-    <row r="163" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="33">
         <v>160</v>
       </c>
@@ -7396,7 +7399,7 @@
       <c r="AE163" s="23"/>
       <c r="AF163" s="25"/>
     </row>
-    <row r="164" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>161</v>
       </c>
@@ -7432,7 +7435,7 @@
       <c r="AE164" s="23"/>
       <c r="AF164" s="25"/>
     </row>
-    <row r="165" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>162</v>
       </c>
@@ -7468,7 +7471,7 @@
       <c r="AE165" s="23"/>
       <c r="AF165" s="25"/>
     </row>
-    <row r="166" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="33">
         <v>163</v>
       </c>
@@ -7504,7 +7507,7 @@
       <c r="AE166" s="23"/>
       <c r="AF166" s="25"/>
     </row>
-    <row r="167" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>164</v>
       </c>
@@ -7540,7 +7543,7 @@
       <c r="AE167" s="23"/>
       <c r="AF167" s="25"/>
     </row>
-    <row r="168" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>165</v>
       </c>
@@ -7576,7 +7579,7 @@
       <c r="AE168" s="23"/>
       <c r="AF168" s="25"/>
     </row>
-    <row r="169" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="33">
         <v>166</v>
       </c>
@@ -7612,7 +7615,7 @@
       <c r="AE169" s="23"/>
       <c r="AF169" s="25"/>
     </row>
-    <row r="170" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>167</v>
       </c>
@@ -7648,7 +7651,7 @@
       <c r="AE170" s="23"/>
       <c r="AF170" s="25"/>
     </row>
-    <row r="171" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>168</v>
       </c>
@@ -7684,7 +7687,7 @@
       <c r="AE171" s="23"/>
       <c r="AF171" s="25"/>
     </row>
-    <row r="172" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="33">
         <v>169</v>
       </c>
@@ -7720,7 +7723,7 @@
       <c r="AE172" s="23"/>
       <c r="AF172" s="25"/>
     </row>
-    <row r="173" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>170</v>
       </c>
@@ -7756,7 +7759,7 @@
       <c r="AE173" s="23"/>
       <c r="AF173" s="25"/>
     </row>
-    <row r="174" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>1</v>
       </c>
@@ -7794,7 +7797,7 @@
       <c r="AE174" s="23"/>
       <c r="AF174" s="25"/>
     </row>
-    <row r="175" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="33">
         <v>2</v>
       </c>
@@ -7832,7 +7835,7 @@
       <c r="AE175" s="23"/>
       <c r="AF175" s="25"/>
     </row>
-    <row r="176" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>3</v>
       </c>
@@ -7870,7 +7873,7 @@
       <c r="AE176" s="23"/>
       <c r="AF176" s="25"/>
     </row>
-    <row r="177" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>4</v>
       </c>
@@ -7908,7 +7911,7 @@
       <c r="AE177" s="23"/>
       <c r="AF177" s="25"/>
     </row>
-    <row r="178" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5">
         <v>5</v>
       </c>
@@ -7946,7 +7949,7 @@
       <c r="AE178" s="23"/>
       <c r="AF178" s="25"/>
     </row>
-    <row r="179" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="33">
         <v>6</v>
       </c>
@@ -7984,7 +7987,7 @@
       <c r="AE179" s="23"/>
       <c r="AF179" s="25"/>
     </row>
-    <row r="180" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5">
         <v>7</v>
       </c>
@@ -8022,7 +8025,7 @@
       <c r="AE180" s="23"/>
       <c r="AF180" s="25"/>
     </row>
-    <row r="181" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
         <v>8</v>
       </c>
@@ -8060,7 +8063,7 @@
       <c r="AE181" s="23"/>
       <c r="AF181" s="25"/>
     </row>
-    <row r="182" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="5">
         <v>9</v>
       </c>
@@ -8098,7 +8101,7 @@
       <c r="AE182" s="23"/>
       <c r="AF182" s="25"/>
     </row>
-    <row r="183" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="33">
         <v>10</v>
       </c>
@@ -8136,7 +8139,7 @@
       <c r="AE183" s="23"/>
       <c r="AF183" s="25"/>
     </row>
-    <row r="184" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="5">
         <v>11</v>
       </c>
@@ -8174,7 +8177,7 @@
       <c r="AE184" s="23"/>
       <c r="AF184" s="25"/>
     </row>
-    <row r="185" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="5">
         <v>12</v>
       </c>
@@ -8212,7 +8215,7 @@
       <c r="AE185" s="23"/>
       <c r="AF185" s="25"/>
     </row>
-    <row r="186" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="5">
         <v>13</v>
       </c>
@@ -8250,7 +8253,7 @@
       <c r="AE186" s="23"/>
       <c r="AF186" s="25"/>
     </row>
-    <row r="187" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="33">
         <v>14</v>
       </c>
@@ -8288,7 +8291,7 @@
       <c r="AE187" s="23"/>
       <c r="AF187" s="25"/>
     </row>
-    <row r="188" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="5">
         <v>15</v>
       </c>
@@ -8326,7 +8329,7 @@
       <c r="AE188" s="23"/>
       <c r="AF188" s="25"/>
     </row>
-    <row r="189" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="5">
         <v>16</v>
       </c>
@@ -8364,7 +8367,7 @@
       <c r="AE189" s="23"/>
       <c r="AF189" s="25"/>
     </row>
-    <row r="190" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5">
         <v>17</v>
       </c>
@@ -8402,7 +8405,7 @@
       <c r="AE190" s="23"/>
       <c r="AF190" s="25"/>
     </row>
-    <row r="191" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="33">
         <v>18</v>
       </c>
@@ -8440,7 +8443,7 @@
       <c r="AE191" s="23"/>
       <c r="AF191" s="25"/>
     </row>
-    <row r="192" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="5">
         <v>19</v>
       </c>
@@ -8478,7 +8481,7 @@
       <c r="AE192" s="23"/>
       <c r="AF192" s="25"/>
     </row>
-    <row r="193" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="5">
         <v>20</v>
       </c>
@@ -8516,7 +8519,7 @@
       <c r="AE193" s="23"/>
       <c r="AF193" s="25"/>
     </row>
-    <row r="194" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="5">
         <v>21</v>
       </c>
@@ -8554,7 +8557,7 @@
       <c r="AE194" s="23"/>
       <c r="AF194" s="25"/>
     </row>
-    <row r="195" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="33">
         <v>22</v>
       </c>
@@ -8592,7 +8595,7 @@
       <c r="AE195" s="23"/>
       <c r="AF195" s="25"/>
     </row>
-    <row r="196" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="5">
         <v>23</v>
       </c>
@@ -8630,7 +8633,7 @@
       <c r="AE196" s="23"/>
       <c r="AF196" s="25"/>
     </row>
-    <row r="197" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
         <v>24</v>
       </c>
@@ -8668,7 +8671,7 @@
       <c r="AE197" s="23"/>
       <c r="AF197" s="25"/>
     </row>
-    <row r="198" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="5">
         <v>25</v>
       </c>
@@ -8706,7 +8709,7 @@
       <c r="AE198" s="23"/>
       <c r="AF198" s="25"/>
     </row>
-    <row r="199" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="33">
         <v>26</v>
       </c>
@@ -8744,7 +8747,7 @@
       <c r="AE199" s="23"/>
       <c r="AF199" s="25"/>
     </row>
-    <row r="200" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="5">
         <v>27</v>
       </c>
@@ -8782,7 +8785,7 @@
       <c r="AE200" s="23"/>
       <c r="AF200" s="25"/>
     </row>
-    <row r="201" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="5">
         <v>28</v>
       </c>
@@ -8820,7 +8823,7 @@
       <c r="AE201" s="23"/>
       <c r="AF201" s="25"/>
     </row>
-    <row r="202" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="5">
         <v>29</v>
       </c>
@@ -8858,7 +8861,7 @@
       <c r="AE202" s="23"/>
       <c r="AF202" s="25"/>
     </row>
-    <row r="203" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="33">
         <v>30</v>
       </c>
@@ -8896,7 +8899,7 @@
       <c r="AE203" s="28"/>
       <c r="AF203" s="30"/>
     </row>
-    <row r="204" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="5">
         <v>31</v>
       </c>
@@ -8934,7 +8937,7 @@
       <c r="AE204" s="19"/>
       <c r="AF204" s="21"/>
     </row>
-    <row r="205" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="5">
         <v>32</v>
       </c>
@@ -8972,7 +8975,7 @@
       <c r="AE205" s="23"/>
       <c r="AF205" s="25"/>
     </row>
-    <row r="206" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="5">
         <v>33</v>
       </c>
@@ -9010,7 +9013,7 @@
       <c r="AE206" s="23"/>
       <c r="AF206" s="25"/>
     </row>
-    <row r="207" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="33">
         <v>34</v>
       </c>
@@ -9048,7 +9051,7 @@
       <c r="AE207" s="23"/>
       <c r="AF207" s="25"/>
     </row>
-    <row r="208" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="5">
         <v>35</v>
       </c>
@@ -9086,7 +9089,7 @@
       <c r="AE208" s="23"/>
       <c r="AF208" s="25"/>
     </row>
-    <row r="209" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="5">
         <v>36</v>
       </c>
@@ -9124,7 +9127,7 @@
       <c r="AE209" s="23"/>
       <c r="AF209" s="25"/>
     </row>
-    <row r="210" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="5">
         <v>37</v>
       </c>
@@ -9162,7 +9165,7 @@
       <c r="AE210" s="23"/>
       <c r="AF210" s="25"/>
     </row>
-    <row r="211" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="33">
         <v>38</v>
       </c>
@@ -9200,7 +9203,7 @@
       <c r="AE211" s="23"/>
       <c r="AF211" s="25"/>
     </row>
-    <row r="212" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="5">
         <v>39</v>
       </c>
@@ -9238,7 +9241,7 @@
       <c r="AE212" s="23"/>
       <c r="AF212" s="25"/>
     </row>
-    <row r="213" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="5">
         <v>40</v>
       </c>
@@ -9276,7 +9279,7 @@
       <c r="AE213" s="23"/>
       <c r="AF213" s="25"/>
     </row>
-    <row r="214" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="5">
         <v>41</v>
       </c>
@@ -9314,7 +9317,7 @@
       <c r="AE214" s="23"/>
       <c r="AF214" s="25"/>
     </row>
-    <row r="215" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="33">
         <v>42</v>
       </c>
@@ -9352,7 +9355,7 @@
       <c r="AE215" s="23"/>
       <c r="AF215" s="25"/>
     </row>
-    <row r="216" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="5">
         <v>43</v>
       </c>
@@ -9390,7 +9393,7 @@
       <c r="AE216" s="23"/>
       <c r="AF216" s="25"/>
     </row>
-    <row r="217" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="5">
         <v>44</v>
       </c>
@@ -9428,7 +9431,7 @@
       <c r="AE217" s="23"/>
       <c r="AF217" s="25"/>
     </row>
-    <row r="218" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="5">
         <v>45</v>
       </c>
@@ -9466,7 +9469,7 @@
       <c r="AE218" s="23"/>
       <c r="AF218" s="25"/>
     </row>
-    <row r="219" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="33">
         <v>46</v>
       </c>
@@ -9504,7 +9507,7 @@
       <c r="AE219" s="23"/>
       <c r="AF219" s="25"/>
     </row>
-    <row r="220" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="5">
         <v>47</v>
       </c>
@@ -9542,7 +9545,7 @@
       <c r="AE220" s="23"/>
       <c r="AF220" s="25"/>
     </row>
-    <row r="221" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="5">
         <v>48</v>
       </c>
@@ -9580,7 +9583,7 @@
       <c r="AE221" s="23"/>
       <c r="AF221" s="25"/>
     </row>
-    <row r="222" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="5">
         <v>49</v>
       </c>
@@ -9618,7 +9621,7 @@
       <c r="AE222" s="23"/>
       <c r="AF222" s="25"/>
     </row>
-    <row r="223" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="33">
         <v>50</v>
       </c>
@@ -9656,7 +9659,7 @@
       <c r="AE223" s="23"/>
       <c r="AF223" s="25"/>
     </row>
-    <row r="224" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="5">
         <v>51</v>
       </c>
@@ -9694,7 +9697,7 @@
       <c r="AE224" s="23"/>
       <c r="AF224" s="25"/>
     </row>
-    <row r="225" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="5">
         <v>52</v>
       </c>
@@ -9732,7 +9735,7 @@
       <c r="AE225" s="23"/>
       <c r="AF225" s="25"/>
     </row>
-    <row r="226" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="5">
         <v>53</v>
       </c>
@@ -9770,7 +9773,7 @@
       <c r="AE226" s="23"/>
       <c r="AF226" s="25"/>
     </row>
-    <row r="227" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="33">
         <v>54</v>
       </c>
@@ -9808,7 +9811,7 @@
       <c r="AE227" s="23"/>
       <c r="AF227" s="25"/>
     </row>
-    <row r="228" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="5">
         <v>55</v>
       </c>
@@ -9846,7 +9849,7 @@
       <c r="AE228" s="23"/>
       <c r="AF228" s="25"/>
     </row>
-    <row r="229" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5">
         <v>56</v>
       </c>
@@ -9884,7 +9887,7 @@
       <c r="AE229" s="23"/>
       <c r="AF229" s="25"/>
     </row>
-    <row r="230" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5">
         <v>57</v>
       </c>
@@ -9922,7 +9925,7 @@
       <c r="AE230" s="23"/>
       <c r="AF230" s="25"/>
     </row>
-    <row r="231" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="33">
         <v>58</v>
       </c>
@@ -9960,7 +9963,7 @@
       <c r="AE231" s="23"/>
       <c r="AF231" s="25"/>
     </row>
-    <row r="232" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="5">
         <v>59</v>
       </c>
@@ -9998,7 +10001,7 @@
       <c r="AE232" s="23"/>
       <c r="AF232" s="25"/>
     </row>
-    <row r="233" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="5">
         <v>60</v>
       </c>
@@ -10036,7 +10039,7 @@
       <c r="AE233" s="23"/>
       <c r="AF233" s="25"/>
     </row>
-    <row r="234" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="5">
         <v>61</v>
       </c>
@@ -10074,7 +10077,7 @@
       <c r="AE234" s="23"/>
       <c r="AF234" s="25"/>
     </row>
-    <row r="235" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="33">
         <v>62</v>
       </c>
@@ -10112,7 +10115,7 @@
       <c r="AE235" s="23"/>
       <c r="AF235" s="25"/>
     </row>
-    <row r="236" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5">
         <v>63</v>
       </c>
@@ -10150,7 +10153,7 @@
       <c r="AE236" s="23"/>
       <c r="AF236" s="25"/>
     </row>
-    <row r="237" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5">
         <v>64</v>
       </c>
@@ -10188,7 +10191,7 @@
       <c r="AE237" s="23"/>
       <c r="AF237" s="25"/>
     </row>
-    <row r="238" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5">
         <v>65</v>
       </c>
@@ -10226,7 +10229,7 @@
       <c r="AE238" s="28"/>
       <c r="AF238" s="30"/>
     </row>
-    <row r="239" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="33">
         <v>66</v>
       </c>
@@ -10264,7 +10267,7 @@
       <c r="AE239" s="19"/>
       <c r="AF239" s="21"/>
     </row>
-    <row r="240" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="5">
         <v>67</v>
       </c>
@@ -10302,7 +10305,7 @@
       <c r="AE240" s="23"/>
       <c r="AF240" s="25"/>
     </row>
-    <row r="241" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="5">
         <v>68</v>
       </c>
@@ -10340,7 +10343,7 @@
       <c r="AE241" s="23"/>
       <c r="AF241" s="25"/>
     </row>
-    <row r="242" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="5">
         <v>69</v>
       </c>
@@ -10378,7 +10381,7 @@
       <c r="AE242" s="23"/>
       <c r="AF242" s="25"/>
     </row>
-    <row r="243" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="33">
         <v>70</v>
       </c>
@@ -10416,7 +10419,7 @@
       <c r="AE243" s="23"/>
       <c r="AF243" s="25"/>
     </row>
-    <row r="244" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="5">
         <v>71</v>
       </c>
@@ -10454,7 +10457,7 @@
       <c r="AE244" s="23"/>
       <c r="AF244" s="25"/>
     </row>
-    <row r="245" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="5">
         <v>72</v>
       </c>
@@ -10492,7 +10495,7 @@
       <c r="AE245" s="23"/>
       <c r="AF245" s="25"/>
     </row>
-    <row r="246" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="5">
         <v>73</v>
       </c>
@@ -10530,7 +10533,7 @@
       <c r="AE246" s="23"/>
       <c r="AF246" s="25"/>
     </row>
-    <row r="247" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="33">
         <v>74</v>
       </c>
@@ -10568,7 +10571,7 @@
       <c r="AE247" s="23"/>
       <c r="AF247" s="25"/>
     </row>
-    <row r="248" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="5">
         <v>75</v>
       </c>
@@ -10606,7 +10609,7 @@
       <c r="AE248" s="23"/>
       <c r="AF248" s="25"/>
     </row>
-    <row r="249" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="5">
         <v>76</v>
       </c>
@@ -10644,7 +10647,7 @@
       <c r="AE249" s="23"/>
       <c r="AF249" s="25"/>
     </row>
-    <row r="250" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5">
         <v>77</v>
       </c>
@@ -10682,7 +10685,7 @@
       <c r="AE250" s="23"/>
       <c r="AF250" s="25"/>
     </row>
-    <row r="251" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="33">
         <v>78</v>
       </c>
@@ -10720,7 +10723,7 @@
       <c r="AE251" s="23"/>
       <c r="AF251" s="25"/>
     </row>
-    <row r="252" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="5">
         <v>79</v>
       </c>
@@ -10758,7 +10761,7 @@
       <c r="AE252" s="23"/>
       <c r="AF252" s="25"/>
     </row>
-    <row r="253" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="5">
         <v>80</v>
       </c>
@@ -10796,7 +10799,7 @@
       <c r="AE253" s="23"/>
       <c r="AF253" s="25"/>
     </row>
-    <row r="254" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5">
         <v>81</v>
       </c>
@@ -10834,7 +10837,7 @@
       <c r="AE254" s="23"/>
       <c r="AF254" s="25"/>
     </row>
-    <row r="255" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="33">
         <v>82</v>
       </c>
@@ -10872,7 +10875,7 @@
       <c r="AE255" s="23"/>
       <c r="AF255" s="25"/>
     </row>
-    <row r="256" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5">
         <v>83</v>
       </c>
@@ -10910,7 +10913,7 @@
       <c r="AE256" s="23"/>
       <c r="AF256" s="25"/>
     </row>
-    <row r="257" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="5">
         <v>84</v>
       </c>
@@ -10948,7 +10951,7 @@
       <c r="AE257" s="23"/>
       <c r="AF257" s="25"/>
     </row>
-    <row r="258" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5">
         <v>85</v>
       </c>
@@ -10986,7 +10989,7 @@
       <c r="AE258" s="23"/>
       <c r="AF258" s="25"/>
     </row>
-    <row r="259" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="33">
         <v>86</v>
       </c>
@@ -11024,7 +11027,7 @@
       <c r="AE259" s="23"/>
       <c r="AF259" s="25"/>
     </row>
-    <row r="260" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="5">
         <v>87</v>
       </c>
@@ -11062,7 +11065,7 @@
       <c r="AE260" s="23"/>
       <c r="AF260" s="25"/>
     </row>
-    <row r="261" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5">
         <v>88</v>
       </c>
@@ -11100,7 +11103,7 @@
       <c r="AE261" s="23"/>
       <c r="AF261" s="25"/>
     </row>
-    <row r="262" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5">
         <v>89</v>
       </c>
@@ -11138,7 +11141,7 @@
       <c r="AE262" s="23"/>
       <c r="AF262" s="25"/>
     </row>
-    <row r="263" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="33">
         <v>90</v>
       </c>
@@ -11176,7 +11179,7 @@
       <c r="AE263" s="23"/>
       <c r="AF263" s="25"/>
     </row>
-    <row r="264" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="5">
         <v>91</v>
       </c>
@@ -11214,7 +11217,7 @@
       <c r="AE264" s="23"/>
       <c r="AF264" s="25"/>
     </row>
-    <row r="265" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="5">
         <v>92</v>
       </c>
@@ -11252,7 +11255,7 @@
       <c r="AE265" s="23"/>
       <c r="AF265" s="25"/>
     </row>
-    <row r="266" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="5">
         <v>93</v>
       </c>
@@ -11290,7 +11293,7 @@
       <c r="AE266" s="23"/>
       <c r="AF266" s="25"/>
     </row>
-    <row r="267" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="33">
         <v>94</v>
       </c>
@@ -11328,7 +11331,7 @@
       <c r="AE267" s="23"/>
       <c r="AF267" s="25"/>
     </row>
-    <row r="268" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="5">
         <v>95</v>
       </c>
@@ -11366,7 +11369,7 @@
       <c r="AE268" s="23"/>
       <c r="AF268" s="25"/>
     </row>
-    <row r="269" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="5">
         <v>96</v>
       </c>
@@ -11404,7 +11407,7 @@
       <c r="AE269" s="23"/>
       <c r="AF269" s="25"/>
     </row>
-    <row r="270" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="5">
         <v>97</v>
       </c>
@@ -11442,7 +11445,7 @@
       <c r="AE270" s="23"/>
       <c r="AF270" s="25"/>
     </row>
-    <row r="271" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="33">
         <v>98</v>
       </c>
@@ -11480,7 +11483,7 @@
       <c r="AE271" s="23"/>
       <c r="AF271" s="25"/>
     </row>
-    <row r="272" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="5">
         <v>99</v>
       </c>
@@ -11518,7 +11521,7 @@
       <c r="AE272" s="23"/>
       <c r="AF272" s="25"/>
     </row>
-    <row r="273" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="5">
         <v>100</v>
       </c>
@@ -11556,7 +11559,7 @@
       <c r="AE273" s="28"/>
       <c r="AF273" s="30"/>
     </row>
-    <row r="274" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="5">
         <v>101</v>
       </c>
@@ -11594,7 +11597,7 @@
       <c r="AE274" s="19"/>
       <c r="AF274" s="21"/>
     </row>
-    <row r="275" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="33">
         <v>102</v>
       </c>
@@ -11630,7 +11633,7 @@
       <c r="AE275" s="23"/>
       <c r="AF275" s="25"/>
     </row>
-    <row r="276" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="16"/>
@@ -11664,7 +11667,7 @@
       <c r="AE276" s="23"/>
       <c r="AF276" s="25"/>
     </row>
-    <row r="277" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="16"/>
@@ -11698,7 +11701,7 @@
       <c r="AE277" s="23"/>
       <c r="AF277" s="25"/>
     </row>
-    <row r="278" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="16"/>
@@ -11732,7 +11735,7 @@
       <c r="AE278" s="23"/>
       <c r="AF278" s="25"/>
     </row>
-    <row r="279" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="33"/>
       <c r="B279" s="5"/>
       <c r="C279" s="16"/>
@@ -11766,7 +11769,7 @@
       <c r="AE279" s="23"/>
       <c r="AF279" s="25"/>
     </row>
-    <row r="280" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="16"/>
@@ -11800,7 +11803,7 @@
       <c r="AE280" s="23"/>
       <c r="AF280" s="25"/>
     </row>
-    <row r="281" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="16"/>
@@ -11834,7 +11837,7 @@
       <c r="AE281" s="23"/>
       <c r="AF281" s="25"/>
     </row>
-    <row r="282" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="33"/>
       <c r="B282" s="5"/>
       <c r="C282" s="16"/>
@@ -11868,7 +11871,7 @@
       <c r="AE282" s="23"/>
       <c r="AF282" s="25"/>
     </row>
-    <row r="283" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="16"/>
@@ -11902,7 +11905,7 @@
       <c r="AE283" s="23"/>
       <c r="AF283" s="25"/>
     </row>
-    <row r="284" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="16"/>
@@ -11936,7 +11939,7 @@
       <c r="AE284" s="23"/>
       <c r="AF284" s="25"/>
     </row>
-    <row r="285" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="16"/>
@@ -11970,7 +11973,7 @@
       <c r="AE285" s="23"/>
       <c r="AF285" s="25"/>
     </row>
-    <row r="286" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="33"/>
       <c r="B286" s="5"/>
       <c r="C286" s="16"/>
@@ -12004,7 +12007,7 @@
       <c r="AE286" s="23"/>
       <c r="AF286" s="25"/>
     </row>
-    <row r="287" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="16"/>
@@ -12038,7 +12041,7 @@
       <c r="AE287" s="23"/>
       <c r="AF287" s="25"/>
     </row>
-    <row r="288" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="16"/>
@@ -12072,7 +12075,7 @@
       <c r="AE288" s="23"/>
       <c r="AF288" s="25"/>
     </row>
-    <row r="289" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="33"/>
       <c r="B289" s="5"/>
       <c r="C289" s="16"/>
@@ -12106,7 +12109,7 @@
       <c r="AE289" s="23"/>
       <c r="AF289" s="25"/>
     </row>
-    <row r="290" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="16"/>
@@ -12140,7 +12143,7 @@
       <c r="AE290" s="23"/>
       <c r="AF290" s="25"/>
     </row>
-    <row r="291" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="33"/>
       <c r="B291" s="5"/>
       <c r="C291" s="16"/>
@@ -12174,7 +12177,7 @@
       <c r="AE291" s="23"/>
       <c r="AF291" s="25"/>
     </row>
-    <row r="292" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="16"/>
@@ -12208,7 +12211,7 @@
       <c r="AE292" s="23"/>
       <c r="AF292" s="25"/>
     </row>
-    <row r="293" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="33"/>
       <c r="B293" s="5"/>
       <c r="C293" s="16"/>
@@ -12242,7 +12245,7 @@
       <c r="AE293" s="23"/>
       <c r="AF293" s="25"/>
     </row>
-    <row r="294" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="16"/>
@@ -12276,7 +12279,7 @@
       <c r="AE294" s="23"/>
       <c r="AF294" s="25"/>
     </row>
-    <row r="295" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="33"/>
       <c r="B295" s="5"/>
       <c r="C295" s="16"/>
@@ -12310,7 +12313,7 @@
       <c r="AE295" s="23"/>
       <c r="AF295" s="25"/>
     </row>
-    <row r="296" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="16"/>
@@ -12344,7 +12347,7 @@
       <c r="AE296" s="23"/>
       <c r="AF296" s="25"/>
     </row>
-    <row r="297" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="16"/>
@@ -12378,7 +12381,7 @@
       <c r="AE297" s="23"/>
       <c r="AF297" s="25"/>
     </row>
-    <row r="298" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="33"/>
       <c r="B298" s="5"/>
       <c r="C298" s="16"/>
@@ -12412,7 +12415,7 @@
       <c r="AE298" s="23"/>
       <c r="AF298" s="25"/>
     </row>
-    <row r="299" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="16"/>
@@ -12446,7 +12449,7 @@
       <c r="AE299" s="23"/>
       <c r="AF299" s="25"/>
     </row>
-    <row r="300" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="16"/>
@@ -12480,7 +12483,7 @@
       <c r="AE300" s="23"/>
       <c r="AF300" s="25"/>
     </row>
-    <row r="301" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="16"/>
@@ -12514,7 +12517,7 @@
       <c r="AE301" s="23"/>
       <c r="AF301" s="25"/>
     </row>
-    <row r="302" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="16"/>
@@ -12548,7 +12551,7 @@
       <c r="AE302" s="23"/>
       <c r="AF302" s="25"/>
     </row>
-    <row r="303" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="16"/>
@@ -12582,7 +12585,7 @@
       <c r="AE303" s="23"/>
       <c r="AF303" s="25"/>
     </row>
-    <row r="304" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="16"/>
@@ -12616,7 +12619,7 @@
       <c r="AE304" s="23"/>
       <c r="AF304" s="25"/>
     </row>
-    <row r="305" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="33"/>
       <c r="B305" s="5"/>
       <c r="C305" s="16"/>
@@ -12650,7 +12653,7 @@
       <c r="AE305" s="23"/>
       <c r="AF305" s="25"/>
     </row>
-    <row r="306" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="16"/>
@@ -12684,7 +12687,7 @@
       <c r="AE306" s="23"/>
       <c r="AF306" s="25"/>
     </row>
-    <row r="307" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="16"/>
@@ -12718,7 +12721,7 @@
       <c r="AE307" s="23"/>
       <c r="AF307" s="25"/>
     </row>
-    <row r="308" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="16"/>
@@ -12752,7 +12755,7 @@
       <c r="AE308" s="23"/>
       <c r="AF308" s="25"/>
     </row>
-    <row r="309" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="33"/>
       <c r="B309" s="5"/>
       <c r="C309" s="16"/>
@@ -12786,7 +12789,7 @@
       <c r="AE309" s="23"/>
       <c r="AF309" s="25"/>
     </row>
-    <row r="310" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="16"/>
@@ -12820,7 +12823,7 @@
       <c r="AE310" s="23"/>
       <c r="AF310" s="25"/>
     </row>
-    <row r="311" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="16"/>
@@ -12854,7 +12857,7 @@
       <c r="AE311" s="23"/>
       <c r="AF311" s="25"/>
     </row>
-    <row r="312" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="16"/>
@@ -12888,7 +12891,7 @@
       <c r="AE312" s="23"/>
       <c r="AF312" s="25"/>
     </row>
-    <row r="313" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="16"/>
@@ -12922,7 +12925,7 @@
       <c r="AE313" s="23"/>
       <c r="AF313" s="25"/>
     </row>
-    <row r="314" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="16"/>
@@ -12956,7 +12959,7 @@
       <c r="AE314" s="23"/>
       <c r="AF314" s="25"/>
     </row>
-    <row r="315" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="16"/>
@@ -12990,7 +12993,7 @@
       <c r="AE315" s="23"/>
       <c r="AF315" s="25"/>
     </row>
-    <row r="316" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="33"/>
       <c r="B316" s="5"/>
       <c r="C316" s="16"/>
@@ -13024,7 +13027,7 @@
       <c r="AE316" s="23"/>
       <c r="AF316" s="25"/>
     </row>
-    <row r="317" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="16"/>
@@ -13058,7 +13061,7 @@
       <c r="AE317" s="23"/>
       <c r="AF317" s="25"/>
     </row>
-    <row r="318" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="16"/>
@@ -13092,7 +13095,7 @@
       <c r="AE318" s="23"/>
       <c r="AF318" s="25"/>
     </row>
-    <row r="319" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="16"/>
@@ -13126,7 +13129,7 @@
       <c r="AE319" s="23"/>
       <c r="AF319" s="25"/>
     </row>
-    <row r="320" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="16"/>
@@ -13160,7 +13163,7 @@
       <c r="AE320" s="23"/>
       <c r="AF320" s="25"/>
     </row>
-    <row r="321" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="16"/>
@@ -13194,7 +13197,7 @@
       <c r="AE321" s="23"/>
       <c r="AF321" s="25"/>
     </row>
-    <row r="322" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="16"/>
@@ -13228,7 +13231,7 @@
       <c r="AE322" s="23"/>
       <c r="AF322" s="25"/>
     </row>
-    <row r="323" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="16"/>
@@ -13262,7 +13265,7 @@
       <c r="AE323" s="23"/>
       <c r="AF323" s="25"/>
     </row>
-    <row r="324" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="16"/>
@@ -13296,7 +13299,7 @@
       <c r="AE324" s="23"/>
       <c r="AF324" s="25"/>
     </row>
-    <row r="325" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="16"/>
@@ -13330,7 +13333,7 @@
       <c r="AE325" s="23"/>
       <c r="AF325" s="25"/>
     </row>
-    <row r="326" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="16"/>
@@ -13364,7 +13367,7 @@
       <c r="AE326" s="23"/>
       <c r="AF326" s="25"/>
     </row>
-    <row r="327" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="16"/>
@@ -13398,7 +13401,7 @@
       <c r="AE327" s="23"/>
       <c r="AF327" s="25"/>
     </row>
-    <row r="328" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="33"/>
       <c r="B328" s="5"/>
       <c r="C328" s="16"/>
@@ -13432,7 +13435,7 @@
       <c r="AE328" s="23"/>
       <c r="AF328" s="25"/>
     </row>
-    <row r="329" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="16"/>
@@ -13466,7 +13469,7 @@
       <c r="AE329" s="23"/>
       <c r="AF329" s="25"/>
     </row>
-    <row r="330" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="33"/>
       <c r="B330" s="5"/>
       <c r="C330" s="16"/>
@@ -13500,7 +13503,7 @@
       <c r="AE330" s="23"/>
       <c r="AF330" s="25"/>
     </row>
-    <row r="331" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="16"/>
@@ -13534,7 +13537,7 @@
       <c r="AE331" s="23"/>
       <c r="AF331" s="25"/>
     </row>
-    <row r="332" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="33"/>
       <c r="B332" s="5"/>
       <c r="C332" s="16"/>
@@ -13568,7 +13571,7 @@
       <c r="AE332" s="23"/>
       <c r="AF332" s="25"/>
     </row>
-    <row r="333" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="16"/>
@@ -13602,7 +13605,7 @@
       <c r="AE333" s="23"/>
       <c r="AF333" s="25"/>
     </row>
-    <row r="334" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="33"/>
       <c r="B334" s="5"/>
       <c r="C334" s="16"/>
@@ -13636,7 +13639,7 @@
       <c r="AE334" s="23"/>
       <c r="AF334" s="25"/>
     </row>
-    <row r="335" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="16"/>
@@ -13670,7 +13673,7 @@
       <c r="AE335" s="23"/>
       <c r="AF335" s="25"/>
     </row>
-    <row r="336" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="16"/>
@@ -13704,7 +13707,7 @@
       <c r="AE336" s="23"/>
       <c r="AF336" s="25"/>
     </row>
-    <row r="337" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="33"/>
       <c r="B337" s="5"/>
       <c r="C337" s="16"/>
@@ -13738,7 +13741,7 @@
       <c r="AE337" s="23"/>
       <c r="AF337" s="25"/>
     </row>
-    <row r="338" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="16"/>
@@ -13772,7 +13775,7 @@
       <c r="AE338" s="23"/>
       <c r="AF338" s="25"/>
     </row>
-    <row r="339" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="16"/>
@@ -13806,7 +13809,7 @@
       <c r="AE339" s="23"/>
       <c r="AF339" s="25"/>
     </row>
-    <row r="340" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="16"/>
@@ -13840,7 +13843,7 @@
       <c r="AE340" s="23"/>
       <c r="AF340" s="25"/>
     </row>
-    <row r="341" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="16"/>
@@ -13874,7 +13877,7 @@
       <c r="AE341" s="23"/>
       <c r="AF341" s="25"/>
     </row>
-    <row r="342" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="16"/>
@@ -13908,7 +13911,7 @@
       <c r="AE342" s="23"/>
       <c r="AF342" s="25"/>
     </row>
-    <row r="343" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="16"/>
@@ -13942,7 +13945,7 @@
       <c r="AE343" s="23"/>
       <c r="AF343" s="25"/>
     </row>
-    <row r="344" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="33"/>
       <c r="B344" s="5"/>
       <c r="C344" s="16"/>
@@ -13976,7 +13979,7 @@
       <c r="AE344" s="23"/>
       <c r="AF344" s="25"/>
     </row>
-    <row r="345" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="16"/>
@@ -14010,7 +14013,7 @@
       <c r="AE345" s="23"/>
       <c r="AF345" s="25"/>
     </row>
-    <row r="346" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="16"/>
@@ -14044,7 +14047,7 @@
       <c r="AE346" s="23"/>
       <c r="AF346" s="25"/>
     </row>
-    <row r="347" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="16"/>
@@ -14078,7 +14081,7 @@
       <c r="AE347" s="23"/>
       <c r="AF347" s="25"/>
     </row>
-    <row r="348" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="33"/>
       <c r="B348" s="5"/>
       <c r="C348" s="16"/>
@@ -14112,7 +14115,7 @@
       <c r="AE348" s="23"/>
       <c r="AF348" s="25"/>
     </row>
-    <row r="349" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="16"/>
@@ -14146,7 +14149,7 @@
       <c r="AE349" s="23"/>
       <c r="AF349" s="25"/>
     </row>
-    <row r="350" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="16"/>
@@ -14180,7 +14183,7 @@
       <c r="AE350" s="23"/>
       <c r="AF350" s="25"/>
     </row>
-    <row r="351" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="16"/>
@@ -14214,7 +14217,7 @@
       <c r="AE351" s="23"/>
       <c r="AF351" s="25"/>
     </row>
-    <row r="352" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="16"/>
@@ -14248,7 +14251,7 @@
       <c r="AE352" s="23"/>
       <c r="AF352" s="25"/>
     </row>
-    <row r="353" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="16"/>
@@ -14282,7 +14285,7 @@
       <c r="AE353" s="23"/>
       <c r="AF353" s="25"/>
     </row>
-    <row r="354" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="16"/>
@@ -14316,7 +14319,7 @@
       <c r="AE354" s="23"/>
       <c r="AF354" s="25"/>
     </row>
-    <row r="355" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="33"/>
       <c r="B355" s="5"/>
       <c r="C355" s="16"/>
@@ -14350,7 +14353,7 @@
       <c r="AE355" s="23"/>
       <c r="AF355" s="25"/>
     </row>
-    <row r="356" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="16"/>
@@ -14384,7 +14387,7 @@
       <c r="AE356" s="23"/>
       <c r="AF356" s="25"/>
     </row>
-    <row r="357" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="16"/>
@@ -14418,7 +14421,7 @@
       <c r="AE357" s="23"/>
       <c r="AF357" s="25"/>
     </row>
-    <row r="358" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="16"/>
@@ -14452,7 +14455,7 @@
       <c r="AE358" s="23"/>
       <c r="AF358" s="25"/>
     </row>
-    <row r="359" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="16"/>
@@ -14486,7 +14489,7 @@
       <c r="AE359" s="23"/>
       <c r="AF359" s="25"/>
     </row>
-    <row r="360" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="16"/>
@@ -14520,7 +14523,7 @@
       <c r="AE360" s="23"/>
       <c r="AF360" s="25"/>
     </row>
-    <row r="361" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="16"/>
@@ -14554,7 +14557,7 @@
       <c r="AE361" s="23"/>
       <c r="AF361" s="25"/>
     </row>
-    <row r="362" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="16"/>
@@ -14588,7 +14591,7 @@
       <c r="AE362" s="23"/>
       <c r="AF362" s="25"/>
     </row>
-    <row r="363" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="16"/>
@@ -14622,7 +14625,7 @@
       <c r="AE363" s="23"/>
       <c r="AF363" s="25"/>
     </row>
-    <row r="364" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="16"/>
@@ -14656,7 +14659,7 @@
       <c r="AE364" s="23"/>
       <c r="AF364" s="25"/>
     </row>
-    <row r="365" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="16"/>
@@ -14690,7 +14693,7 @@
       <c r="AE365" s="23"/>
       <c r="AF365" s="25"/>
     </row>
-    <row r="366" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="16"/>
@@ -14724,7 +14727,7 @@
       <c r="AE366" s="23"/>
       <c r="AF366" s="25"/>
     </row>
-    <row r="367" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="33"/>
       <c r="B367" s="5"/>
       <c r="C367" s="16"/>
@@ -14758,7 +14761,7 @@
       <c r="AE367" s="23"/>
       <c r="AF367" s="25"/>
     </row>
-    <row r="368" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="16"/>
@@ -14792,7 +14795,7 @@
       <c r="AE368" s="23"/>
       <c r="AF368" s="25"/>
     </row>
-    <row r="369" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="33"/>
       <c r="B369" s="5"/>
       <c r="C369" s="16"/>
@@ -14826,7 +14829,7 @@
       <c r="AE369" s="23"/>
       <c r="AF369" s="25"/>
     </row>
-    <row r="370" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="16"/>
@@ -14860,7 +14863,7 @@
       <c r="AE370" s="23"/>
       <c r="AF370" s="25"/>
     </row>
-    <row r="371" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="33"/>
       <c r="B371" s="5"/>
       <c r="C371" s="16"/>
@@ -14894,7 +14897,7 @@
       <c r="AE371" s="23"/>
       <c r="AF371" s="25"/>
     </row>
-    <row r="372" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="16"/>
@@ -14928,7 +14931,7 @@
       <c r="AE372" s="23"/>
       <c r="AF372" s="25"/>
     </row>
-    <row r="373" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="33"/>
       <c r="B373" s="5"/>
       <c r="C373" s="16"/>
@@ -14962,7 +14965,7 @@
       <c r="AE373" s="23"/>
       <c r="AF373" s="25"/>
     </row>
-    <row r="374" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="16"/>
@@ -14996,7 +14999,7 @@
       <c r="AE374" s="23"/>
       <c r="AF374" s="25"/>
     </row>
-    <row r="375" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="16"/>
@@ -15030,7 +15033,7 @@
       <c r="AE375" s="23"/>
       <c r="AF375" s="25"/>
     </row>
-    <row r="376" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="33"/>
       <c r="B376" s="5"/>
       <c r="C376" s="16"/>
@@ -15064,7 +15067,7 @@
       <c r="AE376" s="23"/>
       <c r="AF376" s="25"/>
     </row>
-    <row r="377" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="16"/>
@@ -15098,7 +15101,7 @@
       <c r="AE377" s="23"/>
       <c r="AF377" s="25"/>
     </row>
-    <row r="378" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="16"/>
@@ -15132,7 +15135,7 @@
       <c r="AE378" s="23"/>
       <c r="AF378" s="25"/>
     </row>
-    <row r="379" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="16"/>
@@ -15166,7 +15169,7 @@
       <c r="AE379" s="23"/>
       <c r="AF379" s="25"/>
     </row>
-    <row r="380" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="16"/>
@@ -15200,7 +15203,7 @@
       <c r="AE380" s="23"/>
       <c r="AF380" s="25"/>
     </row>
-    <row r="381" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="16"/>
@@ -15234,7 +15237,7 @@
       <c r="AE381" s="23"/>
       <c r="AF381" s="25"/>
     </row>
-    <row r="382" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="16"/>
@@ -15268,7 +15271,7 @@
       <c r="AE382" s="23"/>
       <c r="AF382" s="25"/>
     </row>
-    <row r="383" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="33"/>
       <c r="B383" s="5"/>
       <c r="C383" s="16"/>
@@ -15302,7 +15305,7 @@
       <c r="AE383" s="23"/>
       <c r="AF383" s="25"/>
     </row>
-    <row r="384" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="16"/>
@@ -15336,7 +15339,7 @@
       <c r="AE384" s="23"/>
       <c r="AF384" s="25"/>
     </row>
-    <row r="385" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="16"/>
@@ -15370,7 +15373,7 @@
       <c r="AE385" s="23"/>
       <c r="AF385" s="25"/>
     </row>
-    <row r="386" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="16"/>
@@ -15404,7 +15407,7 @@
       <c r="AE386" s="23"/>
       <c r="AF386" s="25"/>
     </row>
-    <row r="387" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="33"/>
       <c r="B387" s="5"/>
       <c r="C387" s="16"/>
@@ -15438,7 +15441,7 @@
       <c r="AE387" s="23"/>
       <c r="AF387" s="25"/>
     </row>
-    <row r="388" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="16"/>
@@ -15472,7 +15475,7 @@
       <c r="AE388" s="23"/>
       <c r="AF388" s="25"/>
     </row>
-    <row r="389" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="16"/>
@@ -15506,7 +15509,7 @@
       <c r="AE389" s="23"/>
       <c r="AF389" s="25"/>
     </row>
-    <row r="390" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="16"/>
@@ -15540,7 +15543,7 @@
       <c r="AE390" s="23"/>
       <c r="AF390" s="25"/>
     </row>
-    <row r="391" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="16"/>
@@ -15574,7 +15577,7 @@
       <c r="AE391" s="23"/>
       <c r="AF391" s="25"/>
     </row>
-    <row r="392" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="16"/>
@@ -15608,7 +15611,7 @@
       <c r="AE392" s="23"/>
       <c r="AF392" s="25"/>
     </row>
-    <row r="393" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="16"/>
@@ -15642,7 +15645,7 @@
       <c r="AE393" s="23"/>
       <c r="AF393" s="25"/>
     </row>
-    <row r="394" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="33"/>
       <c r="B394" s="5"/>
       <c r="C394" s="16"/>
@@ -15676,7 +15679,7 @@
       <c r="AE394" s="23"/>
       <c r="AF394" s="25"/>
     </row>
-    <row r="395" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="16"/>
@@ -15710,7 +15713,7 @@
       <c r="AE395" s="23"/>
       <c r="AF395" s="25"/>
     </row>
-    <row r="396" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="16"/>
@@ -15744,7 +15747,7 @@
       <c r="AE396" s="23"/>
       <c r="AF396" s="25"/>
     </row>
-    <row r="397" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="16"/>
@@ -15778,7 +15781,7 @@
       <c r="AE397" s="23"/>
       <c r="AF397" s="25"/>
     </row>
-    <row r="398" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="16"/>
@@ -15812,7 +15815,7 @@
       <c r="AE398" s="23"/>
       <c r="AF398" s="25"/>
     </row>
-    <row r="399" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="16"/>
@@ -15846,7 +15849,7 @@
       <c r="AE399" s="23"/>
       <c r="AF399" s="25"/>
     </row>
-    <row r="400" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="16"/>
@@ -15880,7 +15883,7 @@
       <c r="AE400" s="23"/>
       <c r="AF400" s="25"/>
     </row>
-    <row r="401" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="16"/>
@@ -15914,7 +15917,7 @@
       <c r="AE401" s="23"/>
       <c r="AF401" s="25"/>
     </row>
-    <row r="402" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="16"/>
@@ -15948,7 +15951,7 @@
       <c r="AE402" s="23"/>
       <c r="AF402" s="25"/>
     </row>
-    <row r="403" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="16"/>
@@ -15982,7 +15985,7 @@
       <c r="AE403" s="23"/>
       <c r="AF403" s="25"/>
     </row>
-    <row r="404" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="16"/>
@@ -16016,7 +16019,7 @@
       <c r="AE404" s="23"/>
       <c r="AF404" s="25"/>
     </row>
-    <row r="405" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="16"/>
@@ -16050,7 +16053,7 @@
       <c r="AE405" s="23"/>
       <c r="AF405" s="25"/>
     </row>
-    <row r="406" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="33"/>
       <c r="B406" s="5"/>
       <c r="C406" s="16"/>
@@ -16084,7 +16087,7 @@
       <c r="AE406" s="23"/>
       <c r="AF406" s="25"/>
     </row>
-    <row r="407" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="16"/>
@@ -16118,7 +16121,7 @@
       <c r="AE407" s="23"/>
       <c r="AF407" s="25"/>
     </row>
-    <row r="408" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="33"/>
       <c r="B408" s="5"/>
       <c r="C408" s="16"/>
@@ -16152,7 +16155,7 @@
       <c r="AE408" s="23"/>
       <c r="AF408" s="25"/>
     </row>
-    <row r="409" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="16"/>
@@ -16186,7 +16189,7 @@
       <c r="AE409" s="23"/>
       <c r="AF409" s="25"/>
     </row>
-    <row r="410" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="33"/>
       <c r="B410" s="5"/>
       <c r="C410" s="16"/>
@@ -16220,7 +16223,7 @@
       <c r="AE410" s="23"/>
       <c r="AF410" s="25"/>
     </row>
-    <row r="411" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="16"/>
@@ -16254,7 +16257,7 @@
       <c r="AE411" s="23"/>
       <c r="AF411" s="25"/>
     </row>
-    <row r="412" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="33"/>
       <c r="B412" s="5"/>
       <c r="C412" s="16"/>
@@ -16288,7 +16291,7 @@
       <c r="AE412" s="23"/>
       <c r="AF412" s="25"/>
     </row>
-    <row r="413" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="16"/>
@@ -16322,7 +16325,7 @@
       <c r="AE413" s="23"/>
       <c r="AF413" s="25"/>
     </row>
-    <row r="414" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="16"/>
@@ -16356,7 +16359,7 @@
       <c r="AE414" s="23"/>
       <c r="AF414" s="25"/>
     </row>
-    <row r="415" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="33"/>
       <c r="B415" s="5"/>
       <c r="C415" s="16"/>
@@ -16390,7 +16393,7 @@
       <c r="AE415" s="23"/>
       <c r="AF415" s="25"/>
     </row>
-    <row r="416" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="16"/>
@@ -16424,7 +16427,7 @@
       <c r="AE416" s="23"/>
       <c r="AF416" s="25"/>
     </row>
-    <row r="417" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="16"/>
@@ -16458,7 +16461,7 @@
       <c r="AE417" s="23"/>
       <c r="AF417" s="25"/>
     </row>
-    <row r="418" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="16"/>
@@ -16492,7 +16495,7 @@
       <c r="AE418" s="23"/>
       <c r="AF418" s="25"/>
     </row>
-    <row r="419" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="16"/>
@@ -16526,7 +16529,7 @@
       <c r="AE419" s="23"/>
       <c r="AF419" s="25"/>
     </row>
-    <row r="420" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="16"/>
@@ -16560,7 +16563,7 @@
       <c r="AE420" s="23"/>
       <c r="AF420" s="25"/>
     </row>
-    <row r="421" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="16"/>
@@ -16594,7 +16597,7 @@
       <c r="AE421" s="23"/>
       <c r="AF421" s="25"/>
     </row>
-    <row r="422" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="33"/>
       <c r="B422" s="5"/>
       <c r="C422" s="16"/>
@@ -16628,7 +16631,7 @@
       <c r="AE422" s="23"/>
       <c r="AF422" s="25"/>
     </row>
-    <row r="423" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="16"/>
@@ -16662,7 +16665,7 @@
       <c r="AE423" s="23"/>
       <c r="AF423" s="25"/>
     </row>
-    <row r="424" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="16"/>
@@ -16696,7 +16699,7 @@
       <c r="AE424" s="23"/>
       <c r="AF424" s="25"/>
     </row>
-    <row r="425" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="16"/>
@@ -16730,7 +16733,7 @@
       <c r="AE425" s="23"/>
       <c r="AF425" s="25"/>
     </row>
-    <row r="426" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="33"/>
       <c r="B426" s="5"/>
       <c r="C426" s="16"/>
@@ -16764,7 +16767,7 @@
       <c r="AE426" s="23"/>
       <c r="AF426" s="25"/>
     </row>
-    <row r="427" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="16"/>
@@ -16798,7 +16801,7 @@
       <c r="AE427" s="23"/>
       <c r="AF427" s="25"/>
     </row>
-    <row r="428" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="16"/>
@@ -16832,7 +16835,7 @@
       <c r="AE428" s="23"/>
       <c r="AF428" s="25"/>
     </row>
-    <row r="429" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="16"/>
@@ -16866,7 +16869,7 @@
       <c r="AE429" s="23"/>
       <c r="AF429" s="25"/>
     </row>
-    <row r="430" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="16"/>
@@ -16900,7 +16903,7 @@
       <c r="AE430" s="23"/>
       <c r="AF430" s="25"/>
     </row>
-    <row r="431" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="16"/>
@@ -16934,7 +16937,7 @@
       <c r="AE431" s="23"/>
       <c r="AF431" s="25"/>
     </row>
-    <row r="432" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="16"/>
@@ -16968,7 +16971,7 @@
       <c r="AE432" s="23"/>
       <c r="AF432" s="25"/>
     </row>
-    <row r="433" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="33"/>
       <c r="B433" s="5"/>
       <c r="C433" s="16"/>
@@ -17002,7 +17005,7 @@
       <c r="AE433" s="23"/>
       <c r="AF433" s="25"/>
     </row>
-    <row r="434" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="16"/>
@@ -17036,7 +17039,7 @@
       <c r="AE434" s="23"/>
       <c r="AF434" s="25"/>
     </row>
-    <row r="435" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="16"/>
@@ -17070,7 +17073,7 @@
       <c r="AE435" s="23"/>
       <c r="AF435" s="25"/>
     </row>
-    <row r="436" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="16"/>
@@ -17104,7 +17107,7 @@
       <c r="AE436" s="23"/>
       <c r="AF436" s="25"/>
     </row>
-    <row r="437" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="16"/>
@@ -17138,7 +17141,7 @@
       <c r="AE437" s="23"/>
       <c r="AF437" s="25"/>
     </row>
-    <row r="438" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="16"/>
@@ -17172,7 +17175,7 @@
       <c r="AE438" s="23"/>
       <c r="AF438" s="25"/>
     </row>
-    <row r="439" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="16"/>
@@ -17206,7 +17209,7 @@
       <c r="AE439" s="23"/>
       <c r="AF439" s="25"/>
     </row>
-    <row r="440" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="16"/>
@@ -17240,7 +17243,7 @@
       <c r="AE440" s="23"/>
       <c r="AF440" s="25"/>
     </row>
-    <row r="441" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="16"/>
@@ -17274,7 +17277,7 @@
       <c r="AE441" s="23"/>
       <c r="AF441" s="25"/>
     </row>
-    <row r="442" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="16"/>
@@ -17308,7 +17311,7 @@
       <c r="AE442" s="23"/>
       <c r="AF442" s="25"/>
     </row>
-    <row r="443" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="16"/>
@@ -17342,7 +17345,7 @@
       <c r="AE443" s="23"/>
       <c r="AF443" s="25"/>
     </row>
-    <row r="444" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="16"/>
@@ -17376,7 +17379,7 @@
       <c r="AE444" s="23"/>
       <c r="AF444" s="25"/>
     </row>
-    <row r="445" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="33"/>
       <c r="B445" s="5"/>
       <c r="C445" s="16"/>
@@ -17410,7 +17413,7 @@
       <c r="AE445" s="23"/>
       <c r="AF445" s="25"/>
     </row>
-    <row r="446" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="8"/>
       <c r="B446" s="8"/>
       <c r="C446" s="8"/>
@@ -17444,7 +17447,7 @@
       <c r="AE446" s="8"/>
       <c r="AF446" s="8"/>
     </row>
-    <row r="447" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="8"/>
       <c r="B447" s="8"/>
       <c r="C447" s="8"/>
@@ -17478,7 +17481,7 @@
       <c r="AE447" s="8"/>
       <c r="AF447" s="8"/>
     </row>
-    <row r="448" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="8"/>
       <c r="B448" s="8"/>
       <c r="C448" s="8"/>
@@ -17512,7 +17515,7 @@
       <c r="AE448" s="8"/>
       <c r="AF448" s="8"/>
     </row>
-    <row r="449" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="8"/>
       <c r="B449" s="8"/>
       <c r="C449" s="8"/>
@@ -17546,7 +17549,7 @@
       <c r="AE449" s="8"/>
       <c r="AF449" s="8"/>
     </row>
-    <row r="450" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="8"/>
       <c r="B450" s="8"/>
       <c r="C450" s="8"/>
@@ -17580,7 +17583,7 @@
       <c r="AE450" s="8"/>
       <c r="AF450" s="8"/>
     </row>
-    <row r="451" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="8"/>
       <c r="B451" s="8"/>
       <c r="C451" s="8"/>
@@ -17614,7 +17617,7 @@
       <c r="AE451" s="8"/>
       <c r="AF451" s="8"/>
     </row>
-    <row r="452" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="8"/>
       <c r="B452" s="8"/>
       <c r="C452" s="8"/>
@@ -17648,7 +17651,7 @@
       <c r="AE452" s="8"/>
       <c r="AF452" s="8"/>
     </row>
-    <row r="453" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="8"/>
       <c r="B453" s="8"/>
       <c r="C453" s="8"/>
@@ -17682,7 +17685,7 @@
       <c r="AE453" s="8"/>
       <c r="AF453" s="8"/>
     </row>
-    <row r="454" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="8"/>
       <c r="B454" s="8"/>
       <c r="C454" s="8"/>
@@ -17716,7 +17719,7 @@
       <c r="AE454" s="8"/>
       <c r="AF454" s="8"/>
     </row>
-    <row r="455" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="8"/>
       <c r="B455" s="8"/>
       <c r="C455" s="8"/>
@@ -17750,7 +17753,7 @@
       <c r="AE455" s="8"/>
       <c r="AF455" s="8"/>
     </row>
-    <row r="456" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="8"/>
       <c r="B456" s="8"/>
       <c r="C456" s="8"/>
@@ -17784,7 +17787,7 @@
       <c r="AE456" s="8"/>
       <c r="AF456" s="8"/>
     </row>
-    <row r="457" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="8"/>
       <c r="B457" s="8"/>
       <c r="C457" s="8"/>
@@ -17818,7 +17821,7 @@
       <c r="AE457" s="8"/>
       <c r="AF457" s="8"/>
     </row>
-    <row r="458" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="8"/>
       <c r="B458" s="8"/>
       <c r="C458" s="8"/>
@@ -17852,7 +17855,7 @@
       <c r="AE458" s="8"/>
       <c r="AF458" s="8"/>
     </row>
-    <row r="459" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="8"/>
       <c r="B459" s="8"/>
       <c r="C459" s="8"/>
@@ -17886,7 +17889,7 @@
       <c r="AE459" s="8"/>
       <c r="AF459" s="8"/>
     </row>
-    <row r="460" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="8"/>
       <c r="B460" s="8"/>
       <c r="C460" s="8"/>
@@ -17920,7 +17923,7 @@
       <c r="AE460" s="8"/>
       <c r="AF460" s="8"/>
     </row>
-    <row r="461" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="8"/>
       <c r="B461" s="8"/>
       <c r="C461" s="8"/>
@@ -17954,7 +17957,7 @@
       <c r="AE461" s="8"/>
       <c r="AF461" s="8"/>
     </row>
-    <row r="462" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="8"/>
       <c r="B462" s="8"/>
       <c r="C462" s="8"/>
@@ -17988,7 +17991,7 @@
       <c r="AE462" s="8"/>
       <c r="AF462" s="8"/>
     </row>
-    <row r="463" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="8"/>
       <c r="B463" s="8"/>
       <c r="C463" s="8"/>
@@ -18022,7 +18025,7 @@
       <c r="AE463" s="8"/>
       <c r="AF463" s="8"/>
     </row>
-    <row r="464" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="8"/>
       <c r="B464" s="8"/>
       <c r="C464" s="8"/>
@@ -18056,7 +18059,7 @@
       <c r="AE464" s="8"/>
       <c r="AF464" s="8"/>
     </row>
-    <row r="465" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="8"/>
       <c r="B465" s="8"/>
       <c r="C465" s="8"/>
@@ -18090,7 +18093,7 @@
       <c r="AE465" s="8"/>
       <c r="AF465" s="8"/>
     </row>
-    <row r="466" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="8"/>
       <c r="B466" s="8"/>
       <c r="C466" s="8"/>
@@ -18124,7 +18127,7 @@
       <c r="AE466" s="8"/>
       <c r="AF466" s="8"/>
     </row>
-    <row r="467" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="8"/>
       <c r="B467" s="8"/>
       <c r="C467" s="8"/>
@@ -18158,7 +18161,7 @@
       <c r="AE467" s="8"/>
       <c r="AF467" s="8"/>
     </row>
-    <row r="468" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="8"/>
       <c r="B468" s="8"/>
       <c r="C468" s="8"/>
@@ -18192,7 +18195,7 @@
       <c r="AE468" s="8"/>
       <c r="AF468" s="8"/>
     </row>
-    <row r="469" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="8"/>
       <c r="B469" s="8"/>
       <c r="C469" s="8"/>
@@ -18226,7 +18229,7 @@
       <c r="AE469" s="8"/>
       <c r="AF469" s="8"/>
     </row>
-    <row r="470" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="8"/>
       <c r="B470" s="8"/>
       <c r="C470" s="8"/>
@@ -18260,7 +18263,7 @@
       <c r="AE470" s="8"/>
       <c r="AF470" s="8"/>
     </row>
-    <row r="471" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="8"/>
       <c r="B471" s="8"/>
       <c r="C471" s="8"/>
@@ -18294,7 +18297,7 @@
       <c r="AE471" s="8"/>
       <c r="AF471" s="8"/>
     </row>
-    <row r="472" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="8"/>
       <c r="B472" s="8"/>
       <c r="C472" s="8"/>
@@ -18328,7 +18331,7 @@
       <c r="AE472" s="8"/>
       <c r="AF472" s="8"/>
     </row>
-    <row r="473" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="8"/>
       <c r="B473" s="8"/>
       <c r="C473" s="8"/>
@@ -18362,7 +18365,7 @@
       <c r="AE473" s="8"/>
       <c r="AF473" s="8"/>
     </row>
-    <row r="474" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="8"/>
       <c r="B474" s="8"/>
       <c r="C474" s="8"/>
@@ -18396,7 +18399,7 @@
       <c r="AE474" s="8"/>
       <c r="AF474" s="8"/>
     </row>
-    <row r="475" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="8"/>
       <c r="B475" s="8"/>
       <c r="C475" s="8"/>
@@ -18430,7 +18433,7 @@
       <c r="AE475" s="8"/>
       <c r="AF475" s="8"/>
     </row>
-    <row r="476" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="8"/>
       <c r="B476" s="8"/>
       <c r="C476" s="8"/>
@@ -18464,7 +18467,7 @@
       <c r="AE476" s="8"/>
       <c r="AF476" s="8"/>
     </row>
-    <row r="477" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="8"/>
       <c r="B477" s="8"/>
       <c r="C477" s="8"/>
@@ -18498,7 +18501,7 @@
       <c r="AE477" s="8"/>
       <c r="AF477" s="8"/>
     </row>
-    <row r="478" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="8"/>
       <c r="B478" s="8"/>
       <c r="C478" s="8"/>
@@ -18532,7 +18535,7 @@
       <c r="AE478" s="8"/>
       <c r="AF478" s="8"/>
     </row>
-    <row r="479" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="8"/>
       <c r="B479" s="8"/>
       <c r="C479" s="8"/>
@@ -18566,7 +18569,7 @@
       <c r="AE479" s="8"/>
       <c r="AF479" s="8"/>
     </row>
-    <row r="480" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="8"/>
       <c r="B480" s="8"/>
       <c r="C480" s="8"/>
@@ -18600,7 +18603,7 @@
       <c r="AE480" s="8"/>
       <c r="AF480" s="8"/>
     </row>
-    <row r="481" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="8"/>
       <c r="B481" s="8"/>
       <c r="C481" s="8"/>
@@ -18634,7 +18637,7 @@
       <c r="AE481" s="8"/>
       <c r="AF481" s="8"/>
     </row>
-    <row r="482" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="8"/>
       <c r="B482" s="8"/>
       <c r="C482" s="8"/>
@@ -18668,7 +18671,7 @@
       <c r="AE482" s="8"/>
       <c r="AF482" s="8"/>
     </row>
-    <row r="483" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="8"/>
       <c r="B483" s="8"/>
       <c r="C483" s="8"/>
@@ -18702,7 +18705,7 @@
       <c r="AE483" s="8"/>
       <c r="AF483" s="8"/>
     </row>
-    <row r="484" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="8"/>
       <c r="B484" s="8"/>
       <c r="C484" s="8"/>
@@ -18736,7 +18739,7 @@
       <c r="AE484" s="8"/>
       <c r="AF484" s="8"/>
     </row>
-    <row r="485" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="8"/>
       <c r="B485" s="8"/>
       <c r="C485" s="8"/>
@@ -18770,7 +18773,7 @@
       <c r="AE485" s="8"/>
       <c r="AF485" s="8"/>
     </row>
-    <row r="486" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="8"/>
       <c r="B486" s="8"/>
       <c r="C486" s="8"/>
@@ -18804,7 +18807,7 @@
       <c r="AE486" s="8"/>
       <c r="AF486" s="8"/>
     </row>
-    <row r="487" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="8"/>
       <c r="B487" s="8"/>
       <c r="C487" s="8"/>
@@ -18838,7 +18841,7 @@
       <c r="AE487" s="8"/>
       <c r="AF487" s="8"/>
     </row>
-    <row r="488" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="8"/>
       <c r="B488" s="8"/>
       <c r="C488" s="8"/>
@@ -18872,7 +18875,7 @@
       <c r="AE488" s="8"/>
       <c r="AF488" s="8"/>
     </row>
-    <row r="489" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="8"/>
       <c r="B489" s="8"/>
       <c r="C489" s="8"/>
@@ -18906,7 +18909,7 @@
       <c r="AE489" s="8"/>
       <c r="AF489" s="8"/>
     </row>
-    <row r="490" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="8"/>
       <c r="B490" s="8"/>
       <c r="C490" s="8"/>
@@ -18940,7 +18943,7 @@
       <c r="AE490" s="8"/>
       <c r="AF490" s="8"/>
     </row>
-    <row r="491" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="8"/>
       <c r="B491" s="8"/>
       <c r="C491" s="8"/>
@@ -18974,7 +18977,7 @@
       <c r="AE491" s="8"/>
       <c r="AF491" s="8"/>
     </row>
-    <row r="492" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="8"/>
       <c r="B492" s="8"/>
       <c r="C492" s="8"/>
@@ -19008,7 +19011,7 @@
       <c r="AE492" s="8"/>
       <c r="AF492" s="8"/>
     </row>
-    <row r="493" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="8"/>
       <c r="B493" s="8"/>
       <c r="C493" s="8"/>
@@ -19042,7 +19045,7 @@
       <c r="AE493" s="8"/>
       <c r="AF493" s="8"/>
     </row>
-    <row r="494" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="8"/>
       <c r="B494" s="8"/>
       <c r="C494" s="8"/>
@@ -19076,7 +19079,7 @@
       <c r="AE494" s="8"/>
       <c r="AF494" s="8"/>
     </row>
-    <row r="495" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="8"/>
       <c r="B495" s="8"/>
       <c r="C495" s="8"/>
@@ -19110,7 +19113,7 @@
       <c r="AE495" s="8"/>
       <c r="AF495" s="8"/>
     </row>
-    <row r="496" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="8"/>
       <c r="B496" s="8"/>
       <c r="C496" s="8"/>
@@ -19144,7 +19147,7 @@
       <c r="AE496" s="8"/>
       <c r="AF496" s="8"/>
     </row>
-    <row r="497" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="8"/>
       <c r="B497" s="8"/>
       <c r="C497" s="8"/>
@@ -19178,7 +19181,7 @@
       <c r="AE497" s="8"/>
       <c r="AF497" s="8"/>
     </row>
-    <row r="498" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="8"/>
       <c r="B498" s="8"/>
       <c r="C498" s="8"/>
@@ -19212,7 +19215,7 @@
       <c r="AE498" s="8"/>
       <c r="AF498" s="8"/>
     </row>
-    <row r="499" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="8"/>
       <c r="B499" s="8"/>
       <c r="C499" s="8"/>
@@ -19246,7 +19249,7 @@
       <c r="AE499" s="8"/>
       <c r="AF499" s="8"/>
     </row>
-    <row r="500" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="8"/>
       <c r="B500" s="8"/>
       <c r="C500" s="8"/>
@@ -19280,7 +19283,7 @@
       <c r="AE500" s="8"/>
       <c r="AF500" s="8"/>
     </row>
-    <row r="501" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="8"/>
       <c r="B501" s="8"/>
       <c r="C501" s="8"/>
@@ -19314,7 +19317,7 @@
       <c r="AE501" s="8"/>
       <c r="AF501" s="8"/>
     </row>
-    <row r="502" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="8"/>
       <c r="B502" s="8"/>
       <c r="C502" s="8"/>
@@ -19348,7 +19351,7 @@
       <c r="AE502" s="8"/>
       <c r="AF502" s="8"/>
     </row>
-    <row r="503" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="8"/>
       <c r="B503" s="8"/>
       <c r="C503" s="8"/>
@@ -19382,7 +19385,7 @@
       <c r="AE503" s="8"/>
       <c r="AF503" s="8"/>
     </row>
-    <row r="504" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="8"/>
       <c r="B504" s="8"/>
       <c r="C504" s="8"/>
@@ -19416,7 +19419,7 @@
       <c r="AE504" s="8"/>
       <c r="AF504" s="8"/>
     </row>
-    <row r="505" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="8"/>
       <c r="B505" s="8"/>
       <c r="C505" s="8"/>
@@ -19450,7 +19453,7 @@
       <c r="AE505" s="8"/>
       <c r="AF505" s="8"/>
     </row>
-    <row r="506" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="8"/>
       <c r="B506" s="8"/>
       <c r="C506" s="8"/>
@@ -19484,7 +19487,7 @@
       <c r="AE506" s="8"/>
       <c r="AF506" s="8"/>
     </row>
-    <row r="507" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="8"/>
       <c r="B507" s="8"/>
       <c r="C507" s="8"/>
@@ -19518,7 +19521,7 @@
       <c r="AE507" s="8"/>
       <c r="AF507" s="8"/>
     </row>
-    <row r="508" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="8"/>
       <c r="B508" s="8"/>
       <c r="C508" s="8"/>
@@ -19552,7 +19555,7 @@
       <c r="AE508" s="8"/>
       <c r="AF508" s="8"/>
     </row>
-    <row r="509" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="8"/>
       <c r="B509" s="8"/>
       <c r="C509" s="8"/>
@@ -19586,7 +19589,7 @@
       <c r="AE509" s="8"/>
       <c r="AF509" s="8"/>
     </row>
-    <row r="510" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="8"/>
       <c r="B510" s="8"/>
       <c r="C510" s="8"/>
@@ -19620,7 +19623,7 @@
       <c r="AE510" s="8"/>
       <c r="AF510" s="8"/>
     </row>
-    <row r="511" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="8"/>
       <c r="B511" s="8"/>
       <c r="C511" s="8"/>
@@ -19654,7 +19657,7 @@
       <c r="AE511" s="8"/>
       <c r="AF511" s="8"/>
     </row>
-    <row r="512" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="8"/>
       <c r="B512" s="8"/>
       <c r="C512" s="8"/>
@@ -19688,7 +19691,7 @@
       <c r="AE512" s="8"/>
       <c r="AF512" s="8"/>
     </row>
-    <row r="513" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="8"/>
       <c r="B513" s="8"/>
       <c r="C513" s="8"/>
@@ -19722,7 +19725,7 @@
       <c r="AE513" s="8"/>
       <c r="AF513" s="8"/>
     </row>
-    <row r="514" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="8"/>
       <c r="B514" s="8"/>
       <c r="C514" s="8"/>
@@ -19756,7 +19759,7 @@
       <c r="AE514" s="8"/>
       <c r="AF514" s="8"/>
     </row>
-    <row r="515" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="8"/>
       <c r="B515" s="8"/>
       <c r="C515" s="8"/>
@@ -19790,7 +19793,7 @@
       <c r="AE515" s="8"/>
       <c r="AF515" s="8"/>
     </row>
-    <row r="516" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="8"/>
       <c r="B516" s="8"/>
       <c r="C516" s="8"/>
@@ -19824,7 +19827,7 @@
       <c r="AE516" s="8"/>
       <c r="AF516" s="8"/>
     </row>
-    <row r="517" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="8"/>
       <c r="B517" s="8"/>
       <c r="C517" s="8"/>
@@ -19858,7 +19861,7 @@
       <c r="AE517" s="8"/>
       <c r="AF517" s="8"/>
     </row>
-    <row r="518" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="8"/>
       <c r="B518" s="8"/>
       <c r="C518" s="8"/>
@@ -19892,7 +19895,7 @@
       <c r="AE518" s="8"/>
       <c r="AF518" s="8"/>
     </row>
-    <row r="519" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="8"/>
       <c r="B519" s="8"/>
       <c r="C519" s="8"/>
@@ -19926,7 +19929,7 @@
       <c r="AE519" s="8"/>
       <c r="AF519" s="8"/>
     </row>
-    <row r="520" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="8"/>
       <c r="B520" s="8"/>
       <c r="C520" s="8"/>
@@ -19960,7 +19963,7 @@
       <c r="AE520" s="8"/>
       <c r="AF520" s="8"/>
     </row>
-    <row r="521" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="8"/>
       <c r="B521" s="8"/>
       <c r="C521" s="8"/>
@@ -19994,7 +19997,7 @@
       <c r="AE521" s="8"/>
       <c r="AF521" s="8"/>
     </row>
-    <row r="522" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="8"/>
       <c r="B522" s="8"/>
       <c r="C522" s="8"/>
@@ -20028,7 +20031,7 @@
       <c r="AE522" s="8"/>
       <c r="AF522" s="8"/>
     </row>
-    <row r="523" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="8"/>
       <c r="B523" s="8"/>
       <c r="C523" s="8"/>
@@ -20062,7 +20065,7 @@
       <c r="AE523" s="8"/>
       <c r="AF523" s="8"/>
     </row>
-    <row r="524" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="8"/>
       <c r="B524" s="8"/>
       <c r="C524" s="8"/>
@@ -20096,7 +20099,7 @@
       <c r="AE524" s="8"/>
       <c r="AF524" s="8"/>
     </row>
-    <row r="525" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="8"/>
       <c r="B525" s="8"/>
       <c r="C525" s="8"/>
@@ -20130,7 +20133,7 @@
       <c r="AE525" s="8"/>
       <c r="AF525" s="8"/>
     </row>
-    <row r="526" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="8"/>
       <c r="B526" s="8"/>
       <c r="C526" s="8"/>
@@ -20164,7 +20167,7 @@
       <c r="AE526" s="8"/>
       <c r="AF526" s="8"/>
     </row>
-    <row r="527" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="8"/>
       <c r="B527" s="8"/>
       <c r="C527" s="8"/>
@@ -20198,7 +20201,7 @@
       <c r="AE527" s="8"/>
       <c r="AF527" s="8"/>
     </row>
-    <row r="528" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="8"/>
       <c r="B528" s="8"/>
       <c r="C528" s="8"/>
@@ -20232,7 +20235,7 @@
       <c r="AE528" s="8"/>
       <c r="AF528" s="8"/>
     </row>
-    <row r="529" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="8"/>
       <c r="B529" s="8"/>
       <c r="C529" s="8"/>
@@ -20266,7 +20269,7 @@
       <c r="AE529" s="8"/>
       <c r="AF529" s="8"/>
     </row>
-    <row r="530" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="8"/>
       <c r="B530" s="8"/>
       <c r="C530" s="8"/>
@@ -20300,7 +20303,7 @@
       <c r="AE530" s="8"/>
       <c r="AF530" s="8"/>
     </row>
-    <row r="531" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="8"/>
       <c r="B531" s="8"/>
       <c r="C531" s="8"/>
@@ -20334,7 +20337,7 @@
       <c r="AE531" s="8"/>
       <c r="AF531" s="8"/>
     </row>
-    <row r="532" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="8"/>
       <c r="B532" s="8"/>
       <c r="C532" s="8"/>
@@ -20368,7 +20371,7 @@
       <c r="AE532" s="8"/>
       <c r="AF532" s="8"/>
     </row>
-    <row r="533" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="8"/>
       <c r="B533" s="8"/>
       <c r="C533" s="8"/>
@@ -20402,7 +20405,7 @@
       <c r="AE533" s="8"/>
       <c r="AF533" s="8"/>
     </row>
-    <row r="534" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="8"/>
       <c r="B534" s="8"/>
       <c r="C534" s="8"/>
@@ -20436,7 +20439,7 @@
       <c r="AE534" s="8"/>
       <c r="AF534" s="8"/>
     </row>
-    <row r="535" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="8"/>
       <c r="B535" s="8"/>
       <c r="C535" s="8"/>
@@ -20470,7 +20473,7 @@
       <c r="AE535" s="8"/>
       <c r="AF535" s="8"/>
     </row>
-    <row r="536" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="8"/>
       <c r="B536" s="8"/>
       <c r="C536" s="8"/>
@@ -20504,7 +20507,7 @@
       <c r="AE536" s="8"/>
       <c r="AF536" s="8"/>
     </row>
-    <row r="537" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="8"/>
       <c r="B537" s="8"/>
       <c r="C537" s="8"/>
@@ -20538,7 +20541,7 @@
       <c r="AE537" s="8"/>
       <c r="AF537" s="8"/>
     </row>
-    <row r="538" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="8"/>
       <c r="B538" s="8"/>
       <c r="C538" s="8"/>
@@ -20572,7 +20575,7 @@
       <c r="AE538" s="8"/>
       <c r="AF538" s="8"/>
     </row>
-    <row r="539" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="8"/>
       <c r="B539" s="8"/>
       <c r="C539" s="8"/>
@@ -20606,7 +20609,7 @@
       <c r="AE539" s="8"/>
       <c r="AF539" s="8"/>
     </row>
-    <row r="540" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="8"/>
       <c r="B540" s="8"/>
       <c r="C540" s="8"/>
@@ -20640,7 +20643,7 @@
       <c r="AE540" s="8"/>
       <c r="AF540" s="8"/>
     </row>
-    <row r="541" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="8"/>
       <c r="B541" s="8"/>
       <c r="C541" s="8"/>
@@ -20674,7 +20677,7 @@
       <c r="AE541" s="8"/>
       <c r="AF541" s="8"/>
     </row>
-    <row r="542" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="8"/>
       <c r="B542" s="8"/>
       <c r="C542" s="8"/>
@@ -20708,7 +20711,7 @@
       <c r="AE542" s="8"/>
       <c r="AF542" s="8"/>
     </row>
-    <row r="543" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="8"/>
       <c r="B543" s="8"/>
       <c r="C543" s="8"/>
@@ -20742,7 +20745,7 @@
       <c r="AE543" s="8"/>
       <c r="AF543" s="8"/>
     </row>
-    <row r="544" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="8"/>
       <c r="B544" s="8"/>
       <c r="C544" s="8"/>
@@ -20776,7 +20779,7 @@
       <c r="AE544" s="8"/>
       <c r="AF544" s="8"/>
     </row>
-    <row r="545" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="8"/>
       <c r="B545" s="8"/>
       <c r="C545" s="8"/>
@@ -20810,7 +20813,7 @@
       <c r="AE545" s="8"/>
       <c r="AF545" s="8"/>
     </row>
-    <row r="546" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="8"/>
       <c r="B546" s="8"/>
       <c r="C546" s="8"/>
@@ -20844,7 +20847,7 @@
       <c r="AE546" s="8"/>
       <c r="AF546" s="8"/>
     </row>
-    <row r="547" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="8"/>
       <c r="B547" s="8"/>
       <c r="C547" s="8"/>
@@ -20878,7 +20881,7 @@
       <c r="AE547" s="8"/>
       <c r="AF547" s="8"/>
     </row>
-    <row r="548" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="8"/>
       <c r="B548" s="8"/>
       <c r="C548" s="8"/>
@@ -20912,7 +20915,7 @@
       <c r="AE548" s="8"/>
       <c r="AF548" s="8"/>
     </row>
-    <row r="549" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="8"/>
       <c r="B549" s="8"/>
       <c r="C549" s="8"/>
@@ -20946,7 +20949,7 @@
       <c r="AE549" s="8"/>
       <c r="AF549" s="8"/>
     </row>
-    <row r="550" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="8"/>
       <c r="B550" s="8"/>
       <c r="C550" s="8"/>
@@ -20980,7 +20983,7 @@
       <c r="AE550" s="8"/>
       <c r="AF550" s="8"/>
     </row>
-    <row r="551" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="8"/>
       <c r="B551" s="8"/>
       <c r="C551" s="8"/>
@@ -21014,7 +21017,7 @@
       <c r="AE551" s="8"/>
       <c r="AF551" s="8"/>
     </row>
-    <row r="552" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="8"/>
       <c r="B552" s="8"/>
       <c r="C552" s="8"/>
@@ -21048,7 +21051,7 @@
       <c r="AE552" s="8"/>
       <c r="AF552" s="8"/>
     </row>
-    <row r="553" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="8"/>
       <c r="B553" s="8"/>
       <c r="C553" s="8"/>
@@ -21082,7 +21085,7 @@
       <c r="AE553" s="8"/>
       <c r="AF553" s="8"/>
     </row>
-    <row r="554" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="8"/>
       <c r="B554" s="8"/>
       <c r="C554" s="8"/>
@@ -21116,7 +21119,7 @@
       <c r="AE554" s="8"/>
       <c r="AF554" s="8"/>
     </row>
-    <row r="555" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="8"/>
       <c r="B555" s="8"/>
       <c r="C555" s="8"/>
@@ -21150,7 +21153,7 @@
       <c r="AE555" s="8"/>
       <c r="AF555" s="8"/>
     </row>
-    <row r="556" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="8"/>
       <c r="B556" s="8"/>
       <c r="C556" s="8"/>
@@ -21184,7 +21187,7 @@
       <c r="AE556" s="8"/>
       <c r="AF556" s="8"/>
     </row>
-    <row r="557" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="8"/>
       <c r="B557" s="8"/>
       <c r="C557" s="8"/>
@@ -21218,7 +21221,7 @@
       <c r="AE557" s="8"/>
       <c r="AF557" s="8"/>
     </row>
-    <row r="558" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="8"/>
       <c r="B558" s="8"/>
       <c r="C558" s="8"/>
@@ -21252,7 +21255,7 @@
       <c r="AE558" s="8"/>
       <c r="AF558" s="8"/>
     </row>
-    <row r="559" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="8"/>
       <c r="B559" s="8"/>
       <c r="C559" s="8"/>
@@ -21286,7 +21289,7 @@
       <c r="AE559" s="8"/>
       <c r="AF559" s="8"/>
     </row>
-    <row r="560" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="8"/>
       <c r="B560" s="8"/>
       <c r="C560" s="8"/>
@@ -21320,7 +21323,7 @@
       <c r="AE560" s="8"/>
       <c r="AF560" s="8"/>
     </row>
-    <row r="561" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="8"/>
       <c r="B561" s="8"/>
       <c r="C561" s="8"/>
@@ -21354,7 +21357,7 @@
       <c r="AE561" s="8"/>
       <c r="AF561" s="8"/>
     </row>
-    <row r="562" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="8"/>
       <c r="B562" s="8"/>
       <c r="C562" s="8"/>
@@ -21388,7 +21391,7 @@
       <c r="AE562" s="8"/>
       <c r="AF562" s="8"/>
     </row>
-    <row r="563" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="8"/>
       <c r="B563" s="8"/>
       <c r="C563" s="8"/>
@@ -21422,7 +21425,7 @@
       <c r="AE563" s="8"/>
       <c r="AF563" s="8"/>
     </row>
-    <row r="564" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="8"/>
       <c r="B564" s="8"/>
       <c r="C564" s="8"/>
@@ -21456,7 +21459,7 @@
       <c r="AE564" s="8"/>
       <c r="AF564" s="8"/>
     </row>
-    <row r="565" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="8"/>
       <c r="B565" s="8"/>
       <c r="C565" s="8"/>
@@ -21490,7 +21493,7 @@
       <c r="AE565" s="8"/>
       <c r="AF565" s="8"/>
     </row>
-    <row r="566" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="8"/>
       <c r="B566" s="8"/>
       <c r="C566" s="8"/>
@@ -21524,7 +21527,7 @@
       <c r="AE566" s="8"/>
       <c r="AF566" s="8"/>
     </row>
-    <row r="567" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="8"/>
       <c r="B567" s="8"/>
       <c r="C567" s="8"/>
@@ -21558,7 +21561,7 @@
       <c r="AE567" s="8"/>
       <c r="AF567" s="8"/>
     </row>
-    <row r="568" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="8"/>
       <c r="B568" s="8"/>
       <c r="C568" s="8"/>
@@ -21592,7 +21595,7 @@
       <c r="AE568" s="8"/>
       <c r="AF568" s="8"/>
     </row>
-    <row r="569" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="8"/>
       <c r="B569" s="8"/>
       <c r="C569" s="8"/>
@@ -21626,7 +21629,7 @@
       <c r="AE569" s="8"/>
       <c r="AF569" s="8"/>
     </row>
-    <row r="570" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="8"/>
       <c r="B570" s="8"/>
       <c r="C570" s="8"/>
@@ -21660,7 +21663,7 @@
       <c r="AE570" s="8"/>
       <c r="AF570" s="8"/>
     </row>
-    <row r="571" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="8"/>
       <c r="B571" s="8"/>
       <c r="C571" s="8"/>
@@ -21694,7 +21697,7 @@
       <c r="AE571" s="8"/>
       <c r="AF571" s="8"/>
     </row>
-    <row r="572" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="8"/>
       <c r="B572" s="8"/>
       <c r="C572" s="8"/>
@@ -21728,7 +21731,7 @@
       <c r="AE572" s="8"/>
       <c r="AF572" s="8"/>
     </row>
-    <row r="573" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="8"/>
       <c r="B573" s="8"/>
       <c r="C573" s="8"/>
@@ -21762,7 +21765,7 @@
       <c r="AE573" s="8"/>
       <c r="AF573" s="8"/>
     </row>
-    <row r="574" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="8"/>
       <c r="B574" s="8"/>
       <c r="C574" s="8"/>
@@ -21796,7 +21799,7 @@
       <c r="AE574" s="8"/>
       <c r="AF574" s="8"/>
     </row>
-    <row r="575" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="8"/>
       <c r="B575" s="8"/>
       <c r="C575" s="8"/>
@@ -21830,7 +21833,7 @@
       <c r="AE575" s="8"/>
       <c r="AF575" s="8"/>
     </row>
-    <row r="576" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="8"/>
       <c r="B576" s="8"/>
       <c r="C576" s="8"/>
@@ -21864,7 +21867,7 @@
       <c r="AE576" s="8"/>
       <c r="AF576" s="8"/>
     </row>
-    <row r="577" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="8"/>
       <c r="B577" s="8"/>
       <c r="C577" s="8"/>
@@ -21898,7 +21901,7 @@
       <c r="AE577" s="8"/>
       <c r="AF577" s="8"/>
     </row>
-    <row r="578" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="8"/>
       <c r="B578" s="8"/>
       <c r="C578" s="8"/>
@@ -21932,7 +21935,7 @@
       <c r="AE578" s="8"/>
       <c r="AF578" s="8"/>
     </row>
-    <row r="579" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="8"/>
       <c r="B579" s="8"/>
       <c r="C579" s="8"/>
@@ -21966,7 +21969,7 @@
       <c r="AE579" s="8"/>
       <c r="AF579" s="8"/>
     </row>
-    <row r="580" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="8"/>
       <c r="B580" s="8"/>
       <c r="C580" s="8"/>
@@ -22000,7 +22003,7 @@
       <c r="AE580" s="8"/>
       <c r="AF580" s="8"/>
     </row>
-    <row r="581" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="8"/>
       <c r="B581" s="8"/>
       <c r="C581" s="8"/>
@@ -22034,7 +22037,7 @@
       <c r="AE581" s="8"/>
       <c r="AF581" s="8"/>
     </row>
-    <row r="582" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="8"/>
       <c r="B582" s="8"/>
       <c r="C582" s="8"/>
@@ -22068,7 +22071,7 @@
       <c r="AE582" s="8"/>
       <c r="AF582" s="8"/>
     </row>
-    <row r="583" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="8"/>
       <c r="B583" s="8"/>
       <c r="C583" s="8"/>
@@ -22102,7 +22105,7 @@
       <c r="AE583" s="8"/>
       <c r="AF583" s="8"/>
     </row>
-    <row r="584" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="8"/>
       <c r="B584" s="8"/>
       <c r="C584" s="8"/>
@@ -22136,7 +22139,7 @@
       <c r="AE584" s="8"/>
       <c r="AF584" s="8"/>
     </row>
-    <row r="585" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="8"/>
       <c r="B585" s="8"/>
       <c r="C585" s="8"/>
@@ -22170,7 +22173,7 @@
       <c r="AE585" s="8"/>
       <c r="AF585" s="8"/>
     </row>
-    <row r="586" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="8"/>
       <c r="B586" s="8"/>
       <c r="C586" s="8"/>
@@ -22204,7 +22207,7 @@
       <c r="AE586" s="8"/>
       <c r="AF586" s="8"/>
     </row>
-    <row r="587" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="8"/>
       <c r="B587" s="8"/>
       <c r="C587" s="8"/>
@@ -22238,7 +22241,7 @@
       <c r="AE587" s="8"/>
       <c r="AF587" s="8"/>
     </row>
-    <row r="588" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="8"/>
       <c r="B588" s="8"/>
       <c r="C588" s="8"/>
@@ -22272,7 +22275,7 @@
       <c r="AE588" s="8"/>
       <c r="AF588" s="8"/>
     </row>
-    <row r="589" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="8"/>
       <c r="B589" s="8"/>
       <c r="C589" s="8"/>
@@ -22306,7 +22309,7 @@
       <c r="AE589" s="8"/>
       <c r="AF589" s="8"/>
     </row>
-    <row r="590" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="8"/>
       <c r="B590" s="8"/>
       <c r="C590" s="8"/>
@@ -22340,7 +22343,7 @@
       <c r="AE590" s="8"/>
       <c r="AF590" s="8"/>
     </row>
-    <row r="591" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="8"/>
       <c r="B591" s="8"/>
       <c r="C591" s="8"/>
@@ -22374,7 +22377,7 @@
       <c r="AE591" s="8"/>
       <c r="AF591" s="8"/>
     </row>
-    <row r="592" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="8"/>
       <c r="B592" s="8"/>
       <c r="C592" s="8"/>
@@ -22408,7 +22411,7 @@
       <c r="AE592" s="8"/>
       <c r="AF592" s="8"/>
     </row>
-    <row r="593" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="8"/>
       <c r="B593" s="8"/>
       <c r="C593" s="8"/>
@@ -22442,7 +22445,7 @@
       <c r="AE593" s="8"/>
       <c r="AF593" s="8"/>
     </row>
-    <row r="594" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="8"/>
       <c r="B594" s="8"/>
       <c r="C594" s="8"/>
@@ -22476,7 +22479,7 @@
       <c r="AE594" s="8"/>
       <c r="AF594" s="8"/>
     </row>
-    <row r="595" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="8"/>
       <c r="B595" s="8"/>
       <c r="C595" s="8"/>
@@ -22510,7 +22513,7 @@
       <c r="AE595" s="8"/>
       <c r="AF595" s="8"/>
     </row>
-    <row r="596" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="8"/>
       <c r="B596" s="8"/>
       <c r="C596" s="8"/>
@@ -22544,7 +22547,7 @@
       <c r="AE596" s="8"/>
       <c r="AF596" s="8"/>
     </row>
-    <row r="597" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="8"/>
       <c r="B597" s="8"/>
       <c r="C597" s="8"/>
@@ -22578,7 +22581,7 @@
       <c r="AE597" s="8"/>
       <c r="AF597" s="8"/>
     </row>
-    <row r="598" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="8"/>
       <c r="B598" s="8"/>
       <c r="C598" s="8"/>
@@ -22612,7 +22615,7 @@
       <c r="AE598" s="8"/>
       <c r="AF598" s="8"/>
     </row>
-    <row r="599" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="8"/>
       <c r="B599" s="8"/>
       <c r="C599" s="8"/>
@@ -22646,7 +22649,7 @@
       <c r="AE599" s="8"/>
       <c r="AF599" s="8"/>
     </row>
-    <row r="600" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="8"/>
       <c r="B600" s="8"/>
       <c r="C600" s="8"/>
@@ -22680,7 +22683,7 @@
       <c r="AE600" s="8"/>
       <c r="AF600" s="8"/>
     </row>
-    <row r="601" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="8"/>
       <c r="B601" s="8"/>
       <c r="C601" s="8"/>
@@ -22714,7 +22717,7 @@
       <c r="AE601" s="8"/>
       <c r="AF601" s="8"/>
     </row>
-    <row r="602" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="8"/>
       <c r="B602" s="8"/>
       <c r="C602" s="8"/>
@@ -22748,7 +22751,7 @@
       <c r="AE602" s="8"/>
       <c r="AF602" s="8"/>
     </row>
-    <row r="603" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="8"/>
       <c r="B603" s="8"/>
       <c r="C603" s="8"/>
@@ -22782,7 +22785,7 @@
       <c r="AE603" s="8"/>
       <c r="AF603" s="8"/>
     </row>
-    <row r="604" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="8"/>
       <c r="B604" s="8"/>
       <c r="C604" s="8"/>
@@ -22816,7 +22819,7 @@
       <c r="AE604" s="8"/>
       <c r="AF604" s="8"/>
     </row>
-    <row r="605" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="8"/>
       <c r="B605" s="8"/>
       <c r="C605" s="8"/>
@@ -22850,7 +22853,7 @@
       <c r="AE605" s="8"/>
       <c r="AF605" s="8"/>
     </row>
-    <row r="606" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="8"/>
       <c r="B606" s="8"/>
       <c r="C606" s="8"/>
@@ -22884,7 +22887,7 @@
       <c r="AE606" s="8"/>
       <c r="AF606" s="8"/>
     </row>
-    <row r="607" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="8"/>
       <c r="B607" s="8"/>
       <c r="C607" s="8"/>
@@ -22918,7 +22921,7 @@
       <c r="AE607" s="8"/>
       <c r="AF607" s="8"/>
     </row>
-    <row r="608" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="8"/>
       <c r="B608" s="8"/>
       <c r="C608" s="8"/>
@@ -22952,7 +22955,7 @@
       <c r="AE608" s="8"/>
       <c r="AF608" s="8"/>
     </row>
-    <row r="609" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="8"/>
       <c r="B609" s="8"/>
       <c r="C609" s="8"/>
@@ -22986,7 +22989,7 @@
       <c r="AE609" s="8"/>
       <c r="AF609" s="8"/>
     </row>
-    <row r="610" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="8"/>
       <c r="B610" s="8"/>
       <c r="C610" s="8"/>
@@ -23020,7 +23023,7 @@
       <c r="AE610" s="8"/>
       <c r="AF610" s="8"/>
     </row>
-    <row r="611" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="8"/>
       <c r="B611" s="8"/>
       <c r="C611" s="8"/>
@@ -23054,7 +23057,7 @@
       <c r="AE611" s="8"/>
       <c r="AF611" s="8"/>
     </row>
-    <row r="612" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="8"/>
       <c r="B612" s="8"/>
       <c r="C612" s="8"/>
@@ -23088,7 +23091,7 @@
       <c r="AE612" s="8"/>
       <c r="AF612" s="8"/>
     </row>
-    <row r="613" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="8"/>
       <c r="B613" s="8"/>
       <c r="C613" s="8"/>
@@ -23122,7 +23125,7 @@
       <c r="AE613" s="8"/>
       <c r="AF613" s="8"/>
     </row>
-    <row r="614" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="8"/>
       <c r="B614" s="8"/>
       <c r="C614" s="8"/>
@@ -23156,7 +23159,7 @@
       <c r="AE614" s="8"/>
       <c r="AF614" s="8"/>
     </row>
-    <row r="615" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="8"/>
       <c r="B615" s="8"/>
       <c r="C615" s="8"/>
@@ -23190,7 +23193,7 @@
       <c r="AE615" s="8"/>
       <c r="AF615" s="8"/>
     </row>
-    <row r="616" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="8"/>
       <c r="B616" s="8"/>
       <c r="C616" s="8"/>
@@ -23224,7 +23227,7 @@
       <c r="AE616" s="8"/>
       <c r="AF616" s="8"/>
     </row>
-    <row r="617" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="8"/>
       <c r="B617" s="8"/>
       <c r="C617" s="8"/>
@@ -23258,7 +23261,7 @@
       <c r="AE617" s="8"/>
       <c r="AF617" s="8"/>
     </row>
-    <row r="618" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="8"/>
       <c r="B618" s="8"/>
       <c r="C618" s="8"/>
@@ -23292,7 +23295,7 @@
       <c r="AE618" s="8"/>
       <c r="AF618" s="8"/>
     </row>
-    <row r="619" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="8"/>
       <c r="B619" s="8"/>
       <c r="C619" s="8"/>
@@ -23326,7 +23329,7 @@
       <c r="AE619" s="8"/>
       <c r="AF619" s="8"/>
     </row>
-    <row r="620" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="8"/>
       <c r="B620" s="8"/>
       <c r="C620" s="8"/>
@@ -23360,7 +23363,7 @@
       <c r="AE620" s="8"/>
       <c r="AF620" s="8"/>
     </row>
-    <row r="621" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="8"/>
       <c r="B621" s="8"/>
       <c r="C621" s="8"/>
@@ -23394,7 +23397,7 @@
       <c r="AE621" s="8"/>
       <c r="AF621" s="8"/>
     </row>
-    <row r="622" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="8"/>
       <c r="B622" s="8"/>
       <c r="C622" s="8"/>
@@ -23428,7 +23431,7 @@
       <c r="AE622" s="8"/>
       <c r="AF622" s="8"/>
     </row>
-    <row r="623" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="8"/>
       <c r="B623" s="8"/>
       <c r="C623" s="8"/>
@@ -23462,7 +23465,7 @@
       <c r="AE623" s="8"/>
       <c r="AF623" s="8"/>
     </row>
-    <row r="624" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="8"/>
       <c r="B624" s="8"/>
       <c r="C624" s="8"/>
@@ -23496,7 +23499,7 @@
       <c r="AE624" s="8"/>
       <c r="AF624" s="8"/>
     </row>
-    <row r="625" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="8"/>
       <c r="B625" s="8"/>
       <c r="C625" s="8"/>
@@ -23530,7 +23533,7 @@
       <c r="AE625" s="8"/>
       <c r="AF625" s="8"/>
     </row>
-    <row r="626" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="8"/>
       <c r="B626" s="8"/>
       <c r="C626" s="8"/>
@@ -23564,7 +23567,7 @@
       <c r="AE626" s="8"/>
       <c r="AF626" s="8"/>
     </row>
-    <row r="627" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="8"/>
       <c r="B627" s="8"/>
       <c r="C627" s="8"/>
@@ -23598,7 +23601,7 @@
       <c r="AE627" s="8"/>
       <c r="AF627" s="8"/>
     </row>
-    <row r="628" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="8"/>
       <c r="B628" s="8"/>
       <c r="C628" s="8"/>
@@ -23632,7 +23635,7 @@
       <c r="AE628" s="8"/>
       <c r="AF628" s="8"/>
     </row>
-    <row r="629" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="8"/>
       <c r="B629" s="8"/>
       <c r="C629" s="8"/>
@@ -23666,7 +23669,7 @@
       <c r="AE629" s="8"/>
       <c r="AF629" s="8"/>
     </row>
-    <row r="630" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="8"/>
       <c r="B630" s="8"/>
       <c r="C630" s="8"/>
@@ -23700,7 +23703,7 @@
       <c r="AE630" s="8"/>
       <c r="AF630" s="8"/>
     </row>
-    <row r="631" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="8"/>
       <c r="B631" s="8"/>
       <c r="C631" s="8"/>
@@ -23734,7 +23737,7 @@
       <c r="AE631" s="8"/>
       <c r="AF631" s="8"/>
     </row>
-    <row r="632" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="8"/>
       <c r="B632" s="8"/>
       <c r="C632" s="8"/>
@@ -23768,7 +23771,7 @@
       <c r="AE632" s="8"/>
       <c r="AF632" s="8"/>
     </row>
-    <row r="633" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="8"/>
       <c r="B633" s="8"/>
       <c r="C633" s="8"/>
@@ -23802,7 +23805,7 @@
       <c r="AE633" s="8"/>
       <c r="AF633" s="8"/>
     </row>
-    <row r="634" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="8"/>
       <c r="B634" s="8"/>
       <c r="C634" s="8"/>
@@ -23836,7 +23839,7 @@
       <c r="AE634" s="8"/>
       <c r="AF634" s="8"/>
     </row>
-    <row r="635" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="8"/>
       <c r="B635" s="8"/>
       <c r="C635" s="8"/>
@@ -23870,7 +23873,7 @@
       <c r="AE635" s="8"/>
       <c r="AF635" s="8"/>
     </row>
-    <row r="636" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="8"/>
       <c r="B636" s="8"/>
       <c r="C636" s="8"/>
@@ -23904,7 +23907,7 @@
       <c r="AE636" s="8"/>
       <c r="AF636" s="8"/>
     </row>
-    <row r="637" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="8"/>
       <c r="B637" s="8"/>
       <c r="C637" s="8"/>
@@ -23938,7 +23941,7 @@
       <c r="AE637" s="8"/>
       <c r="AF637" s="8"/>
     </row>
-    <row r="638" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="8"/>
       <c r="B638" s="8"/>
       <c r="C638" s="8"/>
@@ -23972,7 +23975,7 @@
       <c r="AE638" s="8"/>
       <c r="AF638" s="8"/>
     </row>
-    <row r="639" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="8"/>
       <c r="B639" s="8"/>
       <c r="C639" s="8"/>
@@ -24006,7 +24009,7 @@
       <c r="AE639" s="8"/>
       <c r="AF639" s="8"/>
     </row>
-    <row r="640" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="8"/>
       <c r="B640" s="8"/>
       <c r="C640" s="8"/>
@@ -24040,7 +24043,7 @@
       <c r="AE640" s="8"/>
       <c r="AF640" s="8"/>
     </row>
-    <row r="641" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="8"/>
       <c r="B641" s="8"/>
       <c r="C641" s="8"/>
@@ -24074,7 +24077,7 @@
       <c r="AE641" s="8"/>
       <c r="AF641" s="8"/>
     </row>
-    <row r="642" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="8"/>
       <c r="B642" s="8"/>
       <c r="C642" s="8"/>
@@ -24108,7 +24111,7 @@
       <c r="AE642" s="8"/>
       <c r="AF642" s="8"/>
     </row>
-    <row r="643" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="8"/>
       <c r="B643" s="8"/>
       <c r="C643" s="8"/>
@@ -24142,7 +24145,7 @@
       <c r="AE643" s="8"/>
       <c r="AF643" s="8"/>
     </row>
-    <row r="644" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="8"/>
       <c r="B644" s="8"/>
       <c r="C644" s="8"/>
@@ -24176,7 +24179,7 @@
       <c r="AE644" s="8"/>
       <c r="AF644" s="8"/>
     </row>
-    <row r="645" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="8"/>
       <c r="B645" s="8"/>
       <c r="C645" s="8"/>
@@ -24210,7 +24213,7 @@
       <c r="AE645" s="8"/>
       <c r="AF645" s="8"/>
     </row>
-    <row r="646" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="8"/>
       <c r="B646" s="8"/>
       <c r="C646" s="8"/>
@@ -24244,7 +24247,7 @@
       <c r="AE646" s="8"/>
       <c r="AF646" s="8"/>
     </row>
-    <row r="647" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="8"/>
       <c r="B647" s="8"/>
       <c r="C647" s="8"/>
@@ -24278,7 +24281,7 @@
       <c r="AE647" s="8"/>
       <c r="AF647" s="8"/>
     </row>
-    <row r="648" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="8"/>
       <c r="B648" s="8"/>
       <c r="C648" s="8"/>
@@ -24312,7 +24315,7 @@
       <c r="AE648" s="8"/>
       <c r="AF648" s="8"/>
     </row>
-    <row r="649" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="8"/>
       <c r="B649" s="8"/>
       <c r="C649" s="8"/>
@@ -24346,7 +24349,7 @@
       <c r="AE649" s="8"/>
       <c r="AF649" s="8"/>
     </row>
-    <row r="650" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="8"/>
       <c r="B650" s="8"/>
       <c r="C650" s="8"/>
@@ -24380,7 +24383,7 @@
       <c r="AE650" s="8"/>
       <c r="AF650" s="8"/>
     </row>
-    <row r="651" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="8"/>
       <c r="B651" s="8"/>
       <c r="C651" s="8"/>
@@ -24414,7 +24417,7 @@
       <c r="AE651" s="8"/>
       <c r="AF651" s="8"/>
     </row>
-    <row r="652" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="8"/>
       <c r="B652" s="8"/>
       <c r="C652" s="8"/>
@@ -24448,7 +24451,7 @@
       <c r="AE652" s="8"/>
       <c r="AF652" s="8"/>
     </row>
-    <row r="653" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="8"/>
       <c r="B653" s="8"/>
       <c r="C653" s="8"/>
@@ -24482,7 +24485,7 @@
       <c r="AE653" s="8"/>
       <c r="AF653" s="8"/>
     </row>
-    <row r="654" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="8"/>
       <c r="B654" s="8"/>
       <c r="C654" s="8"/>
@@ -24516,7 +24519,7 @@
       <c r="AE654" s="8"/>
       <c r="AF654" s="8"/>
     </row>
-    <row r="655" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="8"/>
       <c r="B655" s="8"/>
       <c r="C655" s="8"/>
@@ -24550,7 +24553,7 @@
       <c r="AE655" s="8"/>
       <c r="AF655" s="8"/>
     </row>
-    <row r="656" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="8"/>
       <c r="B656" s="8"/>
       <c r="C656" s="8"/>
@@ -24584,7 +24587,7 @@
       <c r="AE656" s="8"/>
       <c r="AF656" s="8"/>
     </row>
-    <row r="657" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="8"/>
       <c r="B657" s="8"/>
       <c r="C657" s="8"/>
@@ -24618,7 +24621,7 @@
       <c r="AE657" s="8"/>
       <c r="AF657" s="8"/>
     </row>
-    <row r="658" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="8"/>
       <c r="B658" s="8"/>
       <c r="C658" s="8"/>
@@ -24652,7 +24655,7 @@
       <c r="AE658" s="8"/>
       <c r="AF658" s="8"/>
     </row>
-    <row r="659" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="8"/>
       <c r="B659" s="8"/>
       <c r="C659" s="8"/>
@@ -24686,7 +24689,7 @@
       <c r="AE659" s="8"/>
       <c r="AF659" s="8"/>
     </row>
-    <row r="660" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="8"/>
       <c r="B660" s="8"/>
       <c r="C660" s="8"/>
@@ -24720,7 +24723,7 @@
       <c r="AE660" s="8"/>
       <c r="AF660" s="8"/>
     </row>
-    <row r="661" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="8"/>
       <c r="B661" s="8"/>
       <c r="C661" s="8"/>
@@ -24754,7 +24757,7 @@
       <c r="AE661" s="8"/>
       <c r="AF661" s="8"/>
     </row>
-    <row r="662" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="8"/>
       <c r="B662" s="8"/>
       <c r="C662" s="8"/>
@@ -24788,7 +24791,7 @@
       <c r="AE662" s="8"/>
       <c r="AF662" s="8"/>
     </row>
-    <row r="663" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="8"/>
       <c r="B663" s="8"/>
       <c r="C663" s="8"/>
@@ -24822,7 +24825,7 @@
       <c r="AE663" s="8"/>
       <c r="AF663" s="8"/>
     </row>
-    <row r="664" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="8"/>
       <c r="B664" s="8"/>
       <c r="C664" s="8"/>
@@ -24856,7 +24859,7 @@
       <c r="AE664" s="8"/>
       <c r="AF664" s="8"/>
     </row>
-    <row r="665" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="8"/>
       <c r="B665" s="8"/>
       <c r="C665" s="8"/>
@@ -24890,7 +24893,7 @@
       <c r="AE665" s="8"/>
       <c r="AF665" s="8"/>
     </row>
-    <row r="666" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="8"/>
       <c r="B666" s="8"/>
       <c r="C666" s="8"/>
@@ -24924,7 +24927,7 @@
       <c r="AE666" s="8"/>
       <c r="AF666" s="8"/>
     </row>
-    <row r="667" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="8"/>
       <c r="B667" s="8"/>
       <c r="C667" s="8"/>
@@ -24958,7 +24961,7 @@
       <c r="AE667" s="8"/>
       <c r="AF667" s="8"/>
     </row>
-    <row r="668" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="8"/>
       <c r="B668" s="8"/>
       <c r="C668" s="8"/>
@@ -24992,7 +24995,7 @@
       <c r="AE668" s="8"/>
       <c r="AF668" s="8"/>
     </row>
-    <row r="669" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="8"/>
       <c r="B669" s="8"/>
       <c r="C669" s="8"/>
@@ -25026,7 +25029,7 @@
       <c r="AE669" s="8"/>
       <c r="AF669" s="8"/>
     </row>
-    <row r="670" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="8"/>
       <c r="B670" s="8"/>
       <c r="C670" s="8"/>
@@ -25060,7 +25063,7 @@
       <c r="AE670" s="8"/>
       <c r="AF670" s="8"/>
     </row>
-    <row r="671" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="8"/>
       <c r="B671" s="8"/>
       <c r="C671" s="8"/>
@@ -25094,7 +25097,7 @@
       <c r="AE671" s="8"/>
       <c r="AF671" s="8"/>
     </row>
-    <row r="672" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="8"/>
       <c r="B672" s="8"/>
       <c r="C672" s="8"/>
@@ -25128,7 +25131,7 @@
       <c r="AE672" s="8"/>
       <c r="AF672" s="8"/>
     </row>
-    <row r="673" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="8"/>
       <c r="B673" s="8"/>
       <c r="C673" s="8"/>
@@ -25162,7 +25165,7 @@
       <c r="AE673" s="8"/>
       <c r="AF673" s="8"/>
     </row>
-    <row r="674" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="8"/>
       <c r="B674" s="8"/>
       <c r="C674" s="8"/>
@@ -25196,7 +25199,7 @@
       <c r="AE674" s="8"/>
       <c r="AF674" s="8"/>
     </row>
-    <row r="675" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="8"/>
       <c r="B675" s="8"/>
       <c r="C675" s="8"/>
@@ -25230,7 +25233,7 @@
       <c r="AE675" s="8"/>
       <c r="AF675" s="8"/>
     </row>
-    <row r="676" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="8"/>
       <c r="B676" s="8"/>
       <c r="C676" s="8"/>
@@ -25264,7 +25267,7 @@
       <c r="AE676" s="8"/>
       <c r="AF676" s="8"/>
     </row>
-    <row r="677" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="8"/>
       <c r="B677" s="8"/>
       <c r="C677" s="8"/>
@@ -25298,7 +25301,7 @@
       <c r="AE677" s="8"/>
       <c r="AF677" s="8"/>
     </row>
-    <row r="678" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="8"/>
       <c r="B678" s="8"/>
       <c r="C678" s="8"/>
@@ -25332,7 +25335,7 @@
       <c r="AE678" s="8"/>
       <c r="AF678" s="8"/>
     </row>
-    <row r="679" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="8"/>
       <c r="B679" s="8"/>
       <c r="C679" s="8"/>
@@ -25366,7 +25369,7 @@
       <c r="AE679" s="8"/>
       <c r="AF679" s="8"/>
     </row>
-    <row r="680" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="8"/>
       <c r="B680" s="8"/>
       <c r="C680" s="8"/>
@@ -25400,7 +25403,7 @@
       <c r="AE680" s="8"/>
       <c r="AF680" s="8"/>
     </row>
-    <row r="681" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="8"/>
       <c r="B681" s="8"/>
       <c r="C681" s="8"/>
@@ -25434,7 +25437,7 @@
       <c r="AE681" s="8"/>
       <c r="AF681" s="8"/>
     </row>
-    <row r="682" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="8"/>
       <c r="B682" s="8"/>
       <c r="C682" s="8"/>
@@ -25468,7 +25471,7 @@
       <c r="AE682" s="8"/>
       <c r="AF682" s="8"/>
     </row>
-    <row r="683" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="8"/>
       <c r="B683" s="8"/>
       <c r="C683" s="8"/>
@@ -25502,7 +25505,7 @@
       <c r="AE683" s="8"/>
       <c r="AF683" s="8"/>
     </row>
-    <row r="684" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="8"/>
       <c r="B684" s="8"/>
       <c r="C684" s="8"/>
@@ -25536,7 +25539,7 @@
       <c r="AE684" s="8"/>
       <c r="AF684" s="8"/>
     </row>
-    <row r="685" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="8"/>
       <c r="B685" s="8"/>
       <c r="C685" s="8"/>
@@ -25570,7 +25573,7 @@
       <c r="AE685" s="8"/>
       <c r="AF685" s="8"/>
     </row>
-    <row r="686" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="8"/>
       <c r="B686" s="8"/>
       <c r="C686" s="8"/>
@@ -25604,7 +25607,7 @@
       <c r="AE686" s="8"/>
       <c r="AF686" s="8"/>
     </row>
-    <row r="687" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="8"/>
       <c r="B687" s="8"/>
       <c r="C687" s="8"/>
@@ -25638,7 +25641,7 @@
       <c r="AE687" s="8"/>
       <c r="AF687" s="8"/>
     </row>
-    <row r="688" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="8"/>
       <c r="B688" s="8"/>
       <c r="C688" s="8"/>
@@ -25672,7 +25675,7 @@
       <c r="AE688" s="8"/>
       <c r="AF688" s="8"/>
     </row>
-    <row r="689" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="8"/>
       <c r="B689" s="8"/>
       <c r="C689" s="8"/>
@@ -25706,7 +25709,7 @@
       <c r="AE689" s="8"/>
       <c r="AF689" s="8"/>
     </row>
-    <row r="690" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="8"/>
       <c r="B690" s="8"/>
       <c r="C690" s="8"/>
@@ -25740,7 +25743,7 @@
       <c r="AE690" s="8"/>
       <c r="AF690" s="8"/>
     </row>
-    <row r="691" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="8"/>
       <c r="B691" s="8"/>
       <c r="C691" s="8"/>
@@ -25774,7 +25777,7 @@
       <c r="AE691" s="8"/>
       <c r="AF691" s="8"/>
     </row>
-    <row r="692" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="8"/>
       <c r="B692" s="8"/>
       <c r="C692" s="8"/>
@@ -25808,7 +25811,7 @@
       <c r="AE692" s="8"/>
       <c r="AF692" s="8"/>
     </row>
-    <row r="693" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="8"/>
       <c r="B693" s="8"/>
       <c r="C693" s="8"/>
@@ -25842,7 +25845,7 @@
       <c r="AE693" s="8"/>
       <c r="AF693" s="8"/>
     </row>
-    <row r="694" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="8"/>
       <c r="B694" s="8"/>
       <c r="C694" s="8"/>
@@ -25876,7 +25879,7 @@
       <c r="AE694" s="8"/>
       <c r="AF694" s="8"/>
     </row>
-    <row r="695" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="8"/>
       <c r="B695" s="8"/>
       <c r="C695" s="8"/>
@@ -25910,7 +25913,7 @@
       <c r="AE695" s="8"/>
       <c r="AF695" s="8"/>
     </row>
-    <row r="696" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="8"/>
       <c r="B696" s="8"/>
       <c r="C696" s="8"/>
@@ -25944,7 +25947,7 @@
       <c r="AE696" s="8"/>
       <c r="AF696" s="8"/>
     </row>
-    <row r="697" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="8"/>
       <c r="B697" s="8"/>
       <c r="C697" s="8"/>
@@ -25978,7 +25981,7 @@
       <c r="AE697" s="8"/>
       <c r="AF697" s="8"/>
     </row>
-    <row r="698" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="8"/>
       <c r="B698" s="8"/>
       <c r="C698" s="8"/>
@@ -26012,7 +26015,7 @@
       <c r="AE698" s="8"/>
       <c r="AF698" s="8"/>
     </row>
-    <row r="699" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="8"/>
       <c r="B699" s="8"/>
       <c r="C699" s="8"/>
@@ -26046,7 +26049,7 @@
       <c r="AE699" s="8"/>
       <c r="AF699" s="8"/>
     </row>
-    <row r="700" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="8"/>
       <c r="B700" s="8"/>
       <c r="C700" s="8"/>
@@ -26080,7 +26083,7 @@
       <c r="AE700" s="8"/>
       <c r="AF700" s="8"/>
     </row>
-    <row r="701" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="8"/>
       <c r="B701" s="8"/>
       <c r="C701" s="8"/>
@@ -26114,7 +26117,7 @@
       <c r="AE701" s="8"/>
       <c r="AF701" s="8"/>
     </row>
-    <row r="702" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="8"/>
       <c r="B702" s="8"/>
       <c r="C702" s="8"/>
@@ -26148,7 +26151,7 @@
       <c r="AE702" s="8"/>
       <c r="AF702" s="8"/>
     </row>
-    <row r="703" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="8"/>
       <c r="B703" s="8"/>
       <c r="C703" s="8"/>
@@ -26182,7 +26185,7 @@
       <c r="AE703" s="8"/>
       <c r="AF703" s="8"/>
     </row>
-    <row r="704" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="8"/>
       <c r="B704" s="8"/>
       <c r="C704" s="8"/>
@@ -26216,7 +26219,7 @@
       <c r="AE704" s="8"/>
       <c r="AF704" s="8"/>
     </row>
-    <row r="705" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="8"/>
       <c r="B705" s="8"/>
       <c r="C705" s="8"/>
@@ -26250,7 +26253,7 @@
       <c r="AE705" s="8"/>
       <c r="AF705" s="8"/>
     </row>
-    <row r="706" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="8"/>
       <c r="B706" s="8"/>
       <c r="C706" s="8"/>
@@ -26284,7 +26287,7 @@
       <c r="AE706" s="8"/>
       <c r="AF706" s="8"/>
     </row>
-    <row r="707" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="8"/>
       <c r="B707" s="8"/>
       <c r="C707" s="8"/>
@@ -26318,7 +26321,7 @@
       <c r="AE707" s="8"/>
       <c r="AF707" s="8"/>
     </row>
-    <row r="708" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="8"/>
       <c r="B708" s="8"/>
       <c r="C708" s="8"/>
@@ -26352,7 +26355,7 @@
       <c r="AE708" s="8"/>
       <c r="AF708" s="8"/>
     </row>
-    <row r="709" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="8"/>
       <c r="B709" s="8"/>
       <c r="C709" s="8"/>
@@ -26386,7 +26389,7 @@
       <c r="AE709" s="8"/>
       <c r="AF709" s="8"/>
     </row>
-    <row r="710" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="8"/>
       <c r="B710" s="8"/>
       <c r="C710" s="8"/>
@@ -26420,7 +26423,7 @@
       <c r="AE710" s="8"/>
       <c r="AF710" s="8"/>
     </row>
-    <row r="711" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="8"/>
       <c r="B711" s="8"/>
       <c r="C711" s="8"/>
@@ -26454,7 +26457,7 @@
       <c r="AE711" s="8"/>
       <c r="AF711" s="8"/>
     </row>
-    <row r="712" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="8"/>
       <c r="B712" s="8"/>
       <c r="C712" s="8"/>
@@ -26488,7 +26491,7 @@
       <c r="AE712" s="8"/>
       <c r="AF712" s="8"/>
     </row>
-    <row r="713" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="8"/>
       <c r="B713" s="8"/>
       <c r="C713" s="8"/>
@@ -26522,7 +26525,7 @@
       <c r="AE713" s="8"/>
       <c r="AF713" s="8"/>
     </row>
-    <row r="714" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="8"/>
       <c r="B714" s="8"/>
       <c r="C714" s="8"/>
@@ -26556,7 +26559,7 @@
       <c r="AE714" s="8"/>
       <c r="AF714" s="8"/>
     </row>
-    <row r="715" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="8"/>
       <c r="B715" s="8"/>
       <c r="C715" s="8"/>
@@ -26590,7 +26593,7 @@
       <c r="AE715" s="8"/>
       <c r="AF715" s="8"/>
     </row>
-    <row r="716" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="8"/>
       <c r="B716" s="8"/>
       <c r="C716" s="8"/>
@@ -26624,7 +26627,7 @@
       <c r="AE716" s="8"/>
       <c r="AF716" s="8"/>
     </row>
-    <row r="717" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="8"/>
       <c r="B717" s="8"/>
       <c r="C717" s="8"/>
@@ -26658,7 +26661,7 @@
       <c r="AE717" s="8"/>
       <c r="AF717" s="8"/>
     </row>
-    <row r="718" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="8"/>
       <c r="B718" s="8"/>
       <c r="C718" s="8"/>
@@ -26692,7 +26695,7 @@
       <c r="AE718" s="8"/>
       <c r="AF718" s="8"/>
     </row>
-    <row r="719" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="8"/>
       <c r="B719" s="8"/>
       <c r="C719" s="8"/>
@@ -26726,7 +26729,7 @@
       <c r="AE719" s="8"/>
       <c r="AF719" s="8"/>
     </row>
-    <row r="720" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="8"/>
       <c r="B720" s="8"/>
       <c r="C720" s="8"/>
@@ -26760,7 +26763,7 @@
       <c r="AE720" s="8"/>
       <c r="AF720" s="8"/>
     </row>
-    <row r="721" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="8"/>
       <c r="B721" s="8"/>
       <c r="C721" s="8"/>
@@ -26794,7 +26797,7 @@
       <c r="AE721" s="8"/>
       <c r="AF721" s="8"/>
     </row>
-    <row r="722" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="8"/>
       <c r="B722" s="8"/>
       <c r="C722" s="8"/>
@@ -26828,7 +26831,7 @@
       <c r="AE722" s="8"/>
       <c r="AF722" s="8"/>
     </row>
-    <row r="723" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="8"/>
       <c r="B723" s="8"/>
       <c r="C723" s="8"/>
@@ -26862,7 +26865,7 @@
       <c r="AE723" s="8"/>
       <c r="AF723" s="8"/>
     </row>
-    <row r="724" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="8"/>
       <c r="B724" s="8"/>
       <c r="C724" s="8"/>
@@ -26896,7 +26899,7 @@
       <c r="AE724" s="8"/>
       <c r="AF724" s="8"/>
     </row>
-    <row r="725" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="8"/>
       <c r="B725" s="8"/>
       <c r="C725" s="8"/>
@@ -26930,7 +26933,7 @@
       <c r="AE725" s="8"/>
       <c r="AF725" s="8"/>
     </row>
-    <row r="726" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="8"/>
       <c r="B726" s="8"/>
       <c r="C726" s="8"/>
@@ -26964,7 +26967,7 @@
       <c r="AE726" s="8"/>
       <c r="AF726" s="8"/>
     </row>
-    <row r="727" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="8"/>
       <c r="B727" s="8"/>
       <c r="C727" s="8"/>
@@ -26998,7 +27001,7 @@
       <c r="AE727" s="8"/>
       <c r="AF727" s="8"/>
     </row>
-    <row r="728" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="8"/>
       <c r="B728" s="8"/>
       <c r="C728" s="8"/>
@@ -27032,7 +27035,7 @@
       <c r="AE728" s="8"/>
       <c r="AF728" s="8"/>
     </row>
-    <row r="729" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="8"/>
       <c r="B729" s="8"/>
       <c r="C729" s="8"/>
@@ -27066,7 +27069,7 @@
       <c r="AE729" s="8"/>
       <c r="AF729" s="8"/>
     </row>
-    <row r="730" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="8"/>
       <c r="B730" s="8"/>
       <c r="C730" s="8"/>
@@ -27100,7 +27103,7 @@
       <c r="AE730" s="8"/>
       <c r="AF730" s="8"/>
     </row>
-    <row r="731" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="8"/>
       <c r="B731" s="8"/>
       <c r="C731" s="8"/>
@@ -27134,7 +27137,7 @@
       <c r="AE731" s="8"/>
       <c r="AF731" s="8"/>
     </row>
-    <row r="732" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="8"/>
       <c r="B732" s="8"/>
       <c r="C732" s="8"/>
@@ -27168,7 +27171,7 @@
       <c r="AE732" s="8"/>
       <c r="AF732" s="8"/>
     </row>
-    <row r="733" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="8"/>
       <c r="B733" s="8"/>
       <c r="C733" s="8"/>
@@ -27202,7 +27205,7 @@
       <c r="AE733" s="8"/>
       <c r="AF733" s="8"/>
     </row>
-    <row r="734" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="8"/>
       <c r="B734" s="8"/>
       <c r="C734" s="8"/>
@@ -27236,7 +27239,7 @@
       <c r="AE734" s="8"/>
       <c r="AF734" s="8"/>
     </row>
-    <row r="735" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="8"/>
       <c r="B735" s="8"/>
       <c r="C735" s="8"/>
@@ -27270,7 +27273,7 @@
       <c r="AE735" s="8"/>
       <c r="AF735" s="8"/>
     </row>
-    <row r="736" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="8"/>
       <c r="B736" s="8"/>
       <c r="C736" s="8"/>
@@ -27304,7 +27307,7 @@
       <c r="AE736" s="8"/>
       <c r="AF736" s="8"/>
     </row>
-    <row r="737" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="8"/>
       <c r="B737" s="8"/>
       <c r="C737" s="8"/>
@@ -27338,7 +27341,7 @@
       <c r="AE737" s="8"/>
       <c r="AF737" s="8"/>
     </row>
-    <row r="738" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="8"/>
       <c r="B738" s="8"/>
       <c r="C738" s="8"/>
@@ -27372,7 +27375,7 @@
       <c r="AE738" s="8"/>
       <c r="AF738" s="8"/>
     </row>
-    <row r="739" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="8"/>
       <c r="B739" s="8"/>
       <c r="C739" s="8"/>
@@ -27406,7 +27409,7 @@
       <c r="AE739" s="8"/>
       <c r="AF739" s="8"/>
     </row>
-    <row r="740" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="8"/>
       <c r="B740" s="8"/>
       <c r="C740" s="8"/>
@@ -27440,7 +27443,7 @@
       <c r="AE740" s="8"/>
       <c r="AF740" s="8"/>
     </row>
-    <row r="741" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="8"/>
       <c r="B741" s="8"/>
       <c r="C741" s="8"/>
@@ -27474,7 +27477,7 @@
       <c r="AE741" s="8"/>
       <c r="AF741" s="8"/>
     </row>
-    <row r="742" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="8"/>
       <c r="B742" s="8"/>
       <c r="C742" s="8"/>
@@ -27508,7 +27511,7 @@
       <c r="AE742" s="8"/>
       <c r="AF742" s="8"/>
     </row>
-    <row r="743" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="8"/>
       <c r="B743" s="8"/>
       <c r="C743" s="8"/>
@@ -27542,7 +27545,7 @@
       <c r="AE743" s="8"/>
       <c r="AF743" s="8"/>
     </row>
-    <row r="744" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="8"/>
       <c r="B744" s="8"/>
       <c r="C744" s="8"/>
@@ -27576,7 +27579,7 @@
       <c r="AE744" s="8"/>
       <c r="AF744" s="8"/>
     </row>
-    <row r="745" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="8"/>
       <c r="B745" s="8"/>
       <c r="C745" s="8"/>
@@ -27610,7 +27613,7 @@
       <c r="AE745" s="8"/>
       <c r="AF745" s="8"/>
     </row>
-    <row r="746" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="8"/>
       <c r="B746" s="8"/>
       <c r="C746" s="8"/>
@@ -27644,7 +27647,7 @@
       <c r="AE746" s="8"/>
       <c r="AF746" s="8"/>
     </row>
-    <row r="747" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="8"/>
       <c r="B747" s="8"/>
       <c r="C747" s="8"/>
@@ -27678,7 +27681,7 @@
       <c r="AE747" s="8"/>
       <c r="AF747" s="8"/>
     </row>
-    <row r="748" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="8"/>
       <c r="B748" s="8"/>
       <c r="C748" s="8"/>
@@ -27712,7 +27715,7 @@
       <c r="AE748" s="8"/>
       <c r="AF748" s="8"/>
     </row>
-    <row r="749" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="8"/>
       <c r="B749" s="8"/>
       <c r="C749" s="8"/>
@@ -27746,7 +27749,7 @@
       <c r="AE749" s="8"/>
       <c r="AF749" s="8"/>
     </row>
-    <row r="750" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="8"/>
       <c r="B750" s="8"/>
       <c r="C750" s="8"/>
@@ -27780,7 +27783,7 @@
       <c r="AE750" s="8"/>
       <c r="AF750" s="8"/>
     </row>
-    <row r="751" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="8"/>
       <c r="B751" s="8"/>
       <c r="C751" s="8"/>
@@ -27814,7 +27817,7 @@
       <c r="AE751" s="8"/>
       <c r="AF751" s="8"/>
     </row>
-    <row r="752" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="8"/>
       <c r="B752" s="8"/>
       <c r="C752" s="8"/>
@@ -27848,7 +27851,7 @@
       <c r="AE752" s="8"/>
       <c r="AF752" s="8"/>
     </row>
-    <row r="753" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="8"/>
       <c r="B753" s="8"/>
       <c r="C753" s="8"/>
@@ -27882,7 +27885,7 @@
       <c r="AE753" s="8"/>
       <c r="AF753" s="8"/>
     </row>
-    <row r="754" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="8"/>
       <c r="B754" s="8"/>
       <c r="C754" s="8"/>
@@ -27916,7 +27919,7 @@
       <c r="AE754" s="8"/>
       <c r="AF754" s="8"/>
     </row>
-    <row r="755" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="8"/>
       <c r="B755" s="8"/>
       <c r="C755" s="8"/>
@@ -27950,7 +27953,7 @@
       <c r="AE755" s="8"/>
       <c r="AF755" s="8"/>
     </row>
-    <row r="756" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="8"/>
       <c r="B756" s="8"/>
       <c r="C756" s="8"/>
@@ -27984,7 +27987,7 @@
       <c r="AE756" s="8"/>
       <c r="AF756" s="8"/>
     </row>
-    <row r="757" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="8"/>
       <c r="B757" s="8"/>
       <c r="C757" s="8"/>
@@ -28018,7 +28021,7 @@
       <c r="AE757" s="8"/>
       <c r="AF757" s="8"/>
     </row>
-    <row r="758" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="8"/>
       <c r="B758" s="8"/>
       <c r="C758" s="8"/>
@@ -28052,7 +28055,7 @@
       <c r="AE758" s="8"/>
       <c r="AF758" s="8"/>
     </row>
-    <row r="759" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="8"/>
       <c r="B759" s="8"/>
       <c r="C759" s="8"/>
@@ -28086,7 +28089,7 @@
       <c r="AE759" s="8"/>
       <c r="AF759" s="8"/>
     </row>
-    <row r="760" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="8"/>
       <c r="B760" s="8"/>
       <c r="C760" s="8"/>
@@ -28120,7 +28123,7 @@
       <c r="AE760" s="8"/>
       <c r="AF760" s="8"/>
     </row>
-    <row r="761" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="8"/>
       <c r="B761" s="8"/>
       <c r="C761" s="8"/>
@@ -28154,7 +28157,7 @@
       <c r="AE761" s="8"/>
       <c r="AF761" s="8"/>
     </row>
-    <row r="762" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="8"/>
       <c r="B762" s="8"/>
       <c r="C762" s="8"/>
@@ -28188,7 +28191,7 @@
       <c r="AE762" s="8"/>
       <c r="AF762" s="8"/>
     </row>
-    <row r="763" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="8"/>
       <c r="B763" s="8"/>
       <c r="C763" s="8"/>
@@ -28222,7 +28225,7 @@
       <c r="AE763" s="8"/>
       <c r="AF763" s="8"/>
     </row>
-    <row r="764" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="8"/>
       <c r="B764" s="8"/>
       <c r="C764" s="8"/>
@@ -28256,7 +28259,7 @@
       <c r="AE764" s="8"/>
       <c r="AF764" s="8"/>
     </row>
-    <row r="765" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="8"/>
       <c r="B765" s="8"/>
       <c r="C765" s="8"/>
@@ -28290,7 +28293,7 @@
       <c r="AE765" s="8"/>
       <c r="AF765" s="8"/>
     </row>
-    <row r="766" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="8"/>
       <c r="B766" s="8"/>
       <c r="C766" s="8"/>
@@ -28324,7 +28327,7 @@
       <c r="AE766" s="8"/>
       <c r="AF766" s="8"/>
     </row>
-    <row r="767" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="8"/>
       <c r="B767" s="8"/>
       <c r="C767" s="8"/>
@@ -28358,7 +28361,7 @@
       <c r="AE767" s="8"/>
       <c r="AF767" s="8"/>
     </row>
-    <row r="768" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="8"/>
       <c r="B768" s="8"/>
       <c r="C768" s="8"/>
@@ -28392,7 +28395,7 @@
       <c r="AE768" s="8"/>
       <c r="AF768" s="8"/>
     </row>
-    <row r="769" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="8"/>
       <c r="B769" s="8"/>
       <c r="C769" s="8"/>
@@ -28426,7 +28429,7 @@
       <c r="AE769" s="8"/>
       <c r="AF769" s="8"/>
     </row>
-    <row r="770" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="8"/>
       <c r="B770" s="8"/>
       <c r="C770" s="8"/>
@@ -28460,7 +28463,7 @@
       <c r="AE770" s="8"/>
       <c r="AF770" s="8"/>
     </row>
-    <row r="771" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="8"/>
       <c r="B771" s="8"/>
       <c r="C771" s="8"/>
@@ -28494,7 +28497,7 @@
       <c r="AE771" s="8"/>
       <c r="AF771" s="8"/>
     </row>
-    <row r="772" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="8"/>
       <c r="B772" s="8"/>
       <c r="C772" s="8"/>
@@ -28528,7 +28531,7 @@
       <c r="AE772" s="8"/>
       <c r="AF772" s="8"/>
     </row>
-    <row r="773" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="8"/>
       <c r="B773" s="8"/>
       <c r="C773" s="8"/>
@@ -28562,7 +28565,7 @@
       <c r="AE773" s="8"/>
       <c r="AF773" s="8"/>
     </row>
-    <row r="774" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="8"/>
       <c r="B774" s="8"/>
       <c r="C774" s="8"/>
@@ -28596,7 +28599,7 @@
       <c r="AE774" s="8"/>
       <c r="AF774" s="8"/>
     </row>
-    <row r="775" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="8"/>
       <c r="B775" s="8"/>
       <c r="C775" s="8"/>
@@ -28630,7 +28633,7 @@
       <c r="AE775" s="8"/>
       <c r="AF775" s="8"/>
     </row>
-    <row r="776" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="8"/>
       <c r="B776" s="8"/>
       <c r="C776" s="8"/>
@@ -28664,7 +28667,7 @@
       <c r="AE776" s="8"/>
       <c r="AF776" s="8"/>
     </row>
-    <row r="777" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="8"/>
       <c r="B777" s="8"/>
       <c r="C777" s="8"/>
@@ -28698,7 +28701,7 @@
       <c r="AE777" s="8"/>
       <c r="AF777" s="8"/>
     </row>
-    <row r="778" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="8"/>
       <c r="B778" s="8"/>
       <c r="C778" s="8"/>
@@ -28732,7 +28735,7 @@
       <c r="AE778" s="8"/>
       <c r="AF778" s="8"/>
     </row>
-    <row r="779" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="8"/>
       <c r="B779" s="8"/>
       <c r="C779" s="8"/>
@@ -28766,7 +28769,7 @@
       <c r="AE779" s="8"/>
       <c r="AF779" s="8"/>
     </row>
-    <row r="780" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="8"/>
       <c r="B780" s="8"/>
       <c r="C780" s="8"/>
@@ -28800,7 +28803,7 @@
       <c r="AE780" s="8"/>
       <c r="AF780" s="8"/>
     </row>
-    <row r="781" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="8"/>
       <c r="B781" s="8"/>
       <c r="C781" s="8"/>
@@ -28834,7 +28837,7 @@
       <c r="AE781" s="8"/>
       <c r="AF781" s="8"/>
     </row>
-    <row r="782" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="8"/>
       <c r="B782" s="8"/>
       <c r="C782" s="8"/>
@@ -28868,7 +28871,7 @@
       <c r="AE782" s="8"/>
       <c r="AF782" s="8"/>
     </row>
-    <row r="783" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="8"/>
       <c r="B783" s="8"/>
       <c r="C783" s="8"/>
@@ -28902,7 +28905,7 @@
       <c r="AE783" s="8"/>
       <c r="AF783" s="8"/>
     </row>
-    <row r="784" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="8"/>
       <c r="B784" s="8"/>
       <c r="C784" s="8"/>
@@ -28936,7 +28939,7 @@
       <c r="AE784" s="8"/>
       <c r="AF784" s="8"/>
     </row>
-    <row r="785" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="8"/>
       <c r="B785" s="8"/>
       <c r="C785" s="8"/>
@@ -28970,7 +28973,7 @@
       <c r="AE785" s="8"/>
       <c r="AF785" s="8"/>
     </row>
-    <row r="786" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="8"/>
       <c r="B786" s="8"/>
       <c r="C786" s="8"/>
@@ -29004,7 +29007,7 @@
       <c r="AE786" s="8"/>
       <c r="AF786" s="8"/>
     </row>
-    <row r="787" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="8"/>
       <c r="B787" s="8"/>
       <c r="C787" s="8"/>
@@ -29038,7 +29041,7 @@
       <c r="AE787" s="8"/>
       <c r="AF787" s="8"/>
     </row>
-    <row r="788" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="8"/>
       <c r="B788" s="8"/>
       <c r="C788" s="8"/>
@@ -29072,7 +29075,7 @@
       <c r="AE788" s="8"/>
       <c r="AF788" s="8"/>
     </row>
-    <row r="789" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="8"/>
       <c r="B789" s="8"/>
       <c r="C789" s="8"/>
@@ -29106,7 +29109,7 @@
       <c r="AE789" s="8"/>
       <c r="AF789" s="8"/>
     </row>
-    <row r="790" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="8"/>
       <c r="B790" s="8"/>
       <c r="C790" s="8"/>
@@ -29140,7 +29143,7 @@
       <c r="AE790" s="8"/>
       <c r="AF790" s="8"/>
     </row>
-    <row r="791" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="8"/>
       <c r="B791" s="8"/>
       <c r="C791" s="8"/>
@@ -29174,7 +29177,7 @@
       <c r="AE791" s="8"/>
       <c r="AF791" s="8"/>
     </row>
-    <row r="792" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="8"/>
       <c r="B792" s="8"/>
       <c r="C792" s="8"/>
@@ -29208,7 +29211,7 @@
       <c r="AE792" s="8"/>
       <c r="AF792" s="8"/>
     </row>
-    <row r="793" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="8"/>
       <c r="B793" s="8"/>
       <c r="C793" s="8"/>
@@ -29242,7 +29245,7 @@
       <c r="AE793" s="8"/>
       <c r="AF793" s="8"/>
     </row>
-    <row r="794" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="8"/>
       <c r="B794" s="8"/>
       <c r="C794" s="8"/>
@@ -29276,7 +29279,7 @@
       <c r="AE794" s="8"/>
       <c r="AF794" s="8"/>
     </row>
-    <row r="795" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="8"/>
       <c r="B795" s="8"/>
       <c r="C795" s="8"/>
@@ -29310,7 +29313,7 @@
       <c r="AE795" s="8"/>
       <c r="AF795" s="8"/>
     </row>
-    <row r="796" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="8"/>
       <c r="B796" s="8"/>
       <c r="C796" s="8"/>
@@ -29344,7 +29347,7 @@
       <c r="AE796" s="8"/>
       <c r="AF796" s="8"/>
     </row>
-    <row r="797" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="8"/>
       <c r="B797" s="8"/>
       <c r="C797" s="8"/>
@@ -29378,7 +29381,7 @@
       <c r="AE797" s="8"/>
       <c r="AF797" s="8"/>
     </row>
-    <row r="798" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="8"/>
       <c r="B798" s="8"/>
       <c r="C798" s="8"/>
@@ -29412,7 +29415,7 @@
       <c r="AE798" s="8"/>
       <c r="AF798" s="8"/>
     </row>
-    <row r="799" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="8"/>
       <c r="B799" s="8"/>
       <c r="C799" s="8"/>
@@ -29446,7 +29449,7 @@
       <c r="AE799" s="8"/>
       <c r="AF799" s="8"/>
     </row>
-    <row r="800" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="8"/>
       <c r="B800" s="8"/>
       <c r="C800" s="8"/>
@@ -29480,7 +29483,7 @@
       <c r="AE800" s="8"/>
       <c r="AF800" s="8"/>
     </row>
-    <row r="801" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="8"/>
       <c r="B801" s="8"/>
       <c r="C801" s="8"/>
@@ -29514,7 +29517,7 @@
       <c r="AE801" s="8"/>
       <c r="AF801" s="8"/>
     </row>
-    <row r="802" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="8"/>
       <c r="B802" s="8"/>
       <c r="C802" s="8"/>
@@ -29548,7 +29551,7 @@
       <c r="AE802" s="8"/>
       <c r="AF802" s="8"/>
     </row>
-    <row r="803" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="8"/>
       <c r="B803" s="8"/>
       <c r="C803" s="8"/>
@@ -29582,7 +29585,7 @@
       <c r="AE803" s="8"/>
       <c r="AF803" s="8"/>
     </row>
-    <row r="804" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="8"/>
       <c r="B804" s="8"/>
       <c r="C804" s="8"/>
@@ -29616,7 +29619,7 @@
       <c r="AE804" s="8"/>
       <c r="AF804" s="8"/>
     </row>
-    <row r="805" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="8"/>
       <c r="B805" s="8"/>
       <c r="C805" s="8"/>
@@ -29650,7 +29653,7 @@
       <c r="AE805" s="8"/>
       <c r="AF805" s="8"/>
     </row>
-    <row r="806" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="8"/>
       <c r="B806" s="8"/>
       <c r="C806" s="8"/>
@@ -29684,7 +29687,7 @@
       <c r="AE806" s="8"/>
       <c r="AF806" s="8"/>
     </row>
-    <row r="807" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="8"/>
       <c r="B807" s="8"/>
       <c r="C807" s="8"/>
@@ -29718,7 +29721,7 @@
       <c r="AE807" s="8"/>
       <c r="AF807" s="8"/>
     </row>
-    <row r="808" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="8"/>
       <c r="B808" s="8"/>
       <c r="C808" s="8"/>
@@ -29752,7 +29755,7 @@
       <c r="AE808" s="8"/>
       <c r="AF808" s="8"/>
     </row>
-    <row r="809" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="8"/>
       <c r="B809" s="8"/>
       <c r="C809" s="8"/>
@@ -29786,7 +29789,7 @@
       <c r="AE809" s="8"/>
       <c r="AF809" s="8"/>
     </row>
-    <row r="810" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="8"/>
       <c r="B810" s="8"/>
       <c r="C810" s="8"/>
@@ -29820,7 +29823,7 @@
       <c r="AE810" s="8"/>
       <c r="AF810" s="8"/>
     </row>
-    <row r="811" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="8"/>
       <c r="B811" s="8"/>
       <c r="C811" s="8"/>
@@ -29854,7 +29857,7 @@
       <c r="AE811" s="8"/>
       <c r="AF811" s="8"/>
     </row>
-    <row r="812" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="8"/>
       <c r="B812" s="8"/>
       <c r="C812" s="8"/>
@@ -29888,7 +29891,7 @@
       <c r="AE812" s="8"/>
       <c r="AF812" s="8"/>
     </row>
-    <row r="813" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="8"/>
       <c r="B813" s="8"/>
       <c r="C813" s="8"/>
@@ -29922,7 +29925,7 @@
       <c r="AE813" s="8"/>
       <c r="AF813" s="8"/>
     </row>
-    <row r="814" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="8"/>
       <c r="B814" s="8"/>
       <c r="C814" s="8"/>
@@ -29956,7 +29959,7 @@
       <c r="AE814" s="8"/>
       <c r="AF814" s="8"/>
     </row>
-    <row r="815" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="8"/>
       <c r="B815" s="8"/>
       <c r="C815" s="8"/>
@@ -29990,7 +29993,7 @@
       <c r="AE815" s="8"/>
       <c r="AF815" s="8"/>
     </row>
-    <row r="816" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="8"/>
       <c r="B816" s="8"/>
       <c r="C816" s="8"/>
@@ -30024,7 +30027,7 @@
       <c r="AE816" s="8"/>
       <c r="AF816" s="8"/>
     </row>
-    <row r="817" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="8"/>
       <c r="B817" s="8"/>
       <c r="C817" s="8"/>
@@ -30058,7 +30061,7 @@
       <c r="AE817" s="8"/>
       <c r="AF817" s="8"/>
     </row>
-    <row r="818" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="8"/>
       <c r="B818" s="8"/>
       <c r="C818" s="8"/>
@@ -30092,7 +30095,7 @@
       <c r="AE818" s="8"/>
       <c r="AF818" s="8"/>
     </row>
-    <row r="819" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="8"/>
       <c r="B819" s="8"/>
       <c r="C819" s="8"/>
@@ -30126,7 +30129,7 @@
       <c r="AE819" s="8"/>
       <c r="AF819" s="8"/>
     </row>
-    <row r="820" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="8"/>
       <c r="B820" s="8"/>
       <c r="C820" s="8"/>
@@ -30160,7 +30163,7 @@
       <c r="AE820" s="8"/>
       <c r="AF820" s="8"/>
     </row>
-    <row r="821" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="8"/>
       <c r="B821" s="8"/>
       <c r="C821" s="8"/>
@@ -30194,7 +30197,7 @@
       <c r="AE821" s="8"/>
       <c r="AF821" s="8"/>
     </row>
-    <row r="822" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="8"/>
       <c r="B822" s="8"/>
       <c r="C822" s="8"/>
@@ -30228,7 +30231,7 @@
       <c r="AE822" s="8"/>
       <c r="AF822" s="8"/>
     </row>
-    <row r="823" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="8"/>
       <c r="B823" s="8"/>
       <c r="C823" s="8"/>
@@ -30262,7 +30265,7 @@
       <c r="AE823" s="8"/>
       <c r="AF823" s="8"/>
     </row>
-    <row r="824" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="8"/>
       <c r="B824" s="8"/>
       <c r="C824" s="8"/>
@@ -30296,7 +30299,7 @@
       <c r="AE824" s="8"/>
       <c r="AF824" s="8"/>
     </row>
-    <row r="825" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="8"/>
       <c r="B825" s="8"/>
       <c r="C825" s="8"/>
@@ -30330,7 +30333,7 @@
       <c r="AE825" s="8"/>
       <c r="AF825" s="8"/>
     </row>
-    <row r="826" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="8"/>
       <c r="B826" s="8"/>
       <c r="C826" s="8"/>
@@ -30364,7 +30367,7 @@
       <c r="AE826" s="8"/>
       <c r="AF826" s="8"/>
     </row>
-    <row r="827" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="8"/>
       <c r="B827" s="8"/>
       <c r="C827" s="8"/>
@@ -30398,7 +30401,7 @@
       <c r="AE827" s="8"/>
       <c r="AF827" s="8"/>
     </row>
-    <row r="828" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="8"/>
       <c r="B828" s="8"/>
       <c r="C828" s="8"/>
@@ -30432,7 +30435,7 @@
       <c r="AE828" s="8"/>
       <c r="AF828" s="8"/>
     </row>
-    <row r="829" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="8"/>
       <c r="B829" s="8"/>
       <c r="C829" s="8"/>
@@ -30466,7 +30469,7 @@
       <c r="AE829" s="8"/>
       <c r="AF829" s="8"/>
     </row>
-    <row r="830" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="8"/>
       <c r="B830" s="8"/>
       <c r="C830" s="8"/>
@@ -30500,7 +30503,7 @@
       <c r="AE830" s="8"/>
       <c r="AF830" s="8"/>
     </row>
-    <row r="831" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="8"/>
       <c r="B831" s="8"/>
       <c r="C831" s="8"/>
@@ -30534,7 +30537,7 @@
       <c r="AE831" s="8"/>
       <c r="AF831" s="8"/>
     </row>
-    <row r="832" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="8"/>
       <c r="B832" s="8"/>
       <c r="C832" s="8"/>
@@ -30568,7 +30571,7 @@
       <c r="AE832" s="8"/>
       <c r="AF832" s="8"/>
     </row>
-    <row r="833" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="8"/>
       <c r="B833" s="8"/>
       <c r="C833" s="8"/>
@@ -30602,7 +30605,7 @@
       <c r="AE833" s="8"/>
       <c r="AF833" s="8"/>
     </row>
-    <row r="834" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="8"/>
       <c r="B834" s="8"/>
       <c r="C834" s="8"/>
@@ -30636,7 +30639,7 @@
       <c r="AE834" s="8"/>
       <c r="AF834" s="8"/>
     </row>
-    <row r="835" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="8"/>
       <c r="B835" s="8"/>
       <c r="C835" s="8"/>
@@ -30670,7 +30673,7 @@
       <c r="AE835" s="8"/>
       <c r="AF835" s="8"/>
     </row>
-    <row r="836" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="8"/>
       <c r="B836" s="8"/>
       <c r="C836" s="8"/>
@@ -30704,7 +30707,7 @@
       <c r="AE836" s="8"/>
       <c r="AF836" s="8"/>
     </row>
-    <row r="837" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="8"/>
       <c r="B837" s="8"/>
       <c r="C837" s="8"/>
@@ -30738,7 +30741,7 @@
       <c r="AE837" s="8"/>
       <c r="AF837" s="8"/>
     </row>
-    <row r="838" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="8"/>
       <c r="B838" s="8"/>
       <c r="C838" s="8"/>
@@ -30772,7 +30775,7 @@
       <c r="AE838" s="8"/>
       <c r="AF838" s="8"/>
     </row>
-    <row r="839" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="8"/>
       <c r="B839" s="8"/>
       <c r="C839" s="8"/>
@@ -30806,7 +30809,7 @@
       <c r="AE839" s="8"/>
       <c r="AF839" s="8"/>
     </row>
-    <row r="840" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="8"/>
       <c r="B840" s="8"/>
       <c r="C840" s="8"/>
@@ -30840,7 +30843,7 @@
       <c r="AE840" s="8"/>
       <c r="AF840" s="8"/>
     </row>
-    <row r="841" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="8"/>
       <c r="B841" s="8"/>
       <c r="C841" s="8"/>
@@ -30874,7 +30877,7 @@
       <c r="AE841" s="8"/>
       <c r="AF841" s="8"/>
     </row>
-    <row r="842" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="8"/>
       <c r="B842" s="8"/>
       <c r="C842" s="8"/>
@@ -30908,7 +30911,7 @@
       <c r="AE842" s="8"/>
       <c r="AF842" s="8"/>
     </row>
-    <row r="843" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="8"/>
       <c r="B843" s="8"/>
       <c r="C843" s="8"/>
@@ -30942,7 +30945,7 @@
       <c r="AE843" s="8"/>
       <c r="AF843" s="8"/>
     </row>
-    <row r="844" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="8"/>
       <c r="B844" s="8"/>
       <c r="C844" s="8"/>
@@ -30976,7 +30979,7 @@
       <c r="AE844" s="8"/>
       <c r="AF844" s="8"/>
     </row>
-    <row r="845" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="8"/>
       <c r="B845" s="8"/>
       <c r="C845" s="8"/>
@@ -31010,7 +31013,7 @@
       <c r="AE845" s="8"/>
       <c r="AF845" s="8"/>
     </row>
-    <row r="846" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="8"/>
       <c r="B846" s="8"/>
       <c r="C846" s="8"/>
@@ -31044,7 +31047,7 @@
       <c r="AE846" s="8"/>
       <c r="AF846" s="8"/>
     </row>
-    <row r="847" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="8"/>
       <c r="B847" s="8"/>
       <c r="C847" s="8"/>
@@ -31078,7 +31081,7 @@
       <c r="AE847" s="8"/>
       <c r="AF847" s="8"/>
     </row>
-    <row r="848" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="8"/>
       <c r="B848" s="8"/>
       <c r="C848" s="8"/>
@@ -31112,7 +31115,7 @@
       <c r="AE848" s="8"/>
       <c r="AF848" s="8"/>
     </row>
-    <row r="849" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="8"/>
       <c r="B849" s="8"/>
       <c r="C849" s="8"/>
@@ -31146,7 +31149,7 @@
       <c r="AE849" s="8"/>
       <c r="AF849" s="8"/>
     </row>
-    <row r="850" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="8"/>
       <c r="B850" s="8"/>
       <c r="C850" s="8"/>
@@ -31180,7 +31183,7 @@
       <c r="AE850" s="8"/>
       <c r="AF850" s="8"/>
     </row>
-    <row r="851" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="8"/>
       <c r="B851" s="8"/>
       <c r="C851" s="8"/>
@@ -31214,7 +31217,7 @@
       <c r="AE851" s="8"/>
       <c r="AF851" s="8"/>
     </row>
-    <row r="852" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="8"/>
       <c r="B852" s="8"/>
       <c r="C852" s="8"/>
@@ -31248,7 +31251,7 @@
       <c r="AE852" s="8"/>
       <c r="AF852" s="8"/>
     </row>
-    <row r="853" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="8"/>
       <c r="B853" s="8"/>
       <c r="C853" s="8"/>
@@ -31282,7 +31285,7 @@
       <c r="AE853" s="8"/>
       <c r="AF853" s="8"/>
     </row>
-    <row r="854" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="8"/>
       <c r="B854" s="8"/>
       <c r="C854" s="8"/>
@@ -31316,7 +31319,7 @@
       <c r="AE854" s="8"/>
       <c r="AF854" s="8"/>
     </row>
-    <row r="855" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="8"/>
       <c r="B855" s="8"/>
       <c r="C855" s="8"/>
@@ -31350,7 +31353,7 @@
       <c r="AE855" s="8"/>
       <c r="AF855" s="8"/>
     </row>
-    <row r="856" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="8"/>
       <c r="B856" s="8"/>
       <c r="C856" s="8"/>
@@ -31384,7 +31387,7 @@
       <c r="AE856" s="8"/>
       <c r="AF856" s="8"/>
     </row>
-    <row r="857" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="8"/>
       <c r="B857" s="8"/>
       <c r="C857" s="8"/>
@@ -31418,7 +31421,7 @@
       <c r="AE857" s="8"/>
       <c r="AF857" s="8"/>
     </row>
-    <row r="858" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="8"/>
       <c r="B858" s="8"/>
       <c r="C858" s="8"/>
@@ -31452,7 +31455,7 @@
       <c r="AE858" s="8"/>
       <c r="AF858" s="8"/>
     </row>
-    <row r="859" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="8"/>
       <c r="B859" s="8"/>
       <c r="C859" s="8"/>
@@ -31486,7 +31489,7 @@
       <c r="AE859" s="8"/>
       <c r="AF859" s="8"/>
     </row>
-    <row r="860" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="8"/>
       <c r="B860" s="8"/>
       <c r="C860" s="8"/>
@@ -31520,7 +31523,7 @@
       <c r="AE860" s="8"/>
       <c r="AF860" s="8"/>
     </row>
-    <row r="861" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="8"/>
       <c r="B861" s="8"/>
       <c r="C861" s="8"/>
@@ -31554,7 +31557,7 @@
       <c r="AE861" s="8"/>
       <c r="AF861" s="8"/>
     </row>
-    <row r="862" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="8"/>
       <c r="B862" s="8"/>
       <c r="C862" s="8"/>
@@ -31588,7 +31591,7 @@
       <c r="AE862" s="8"/>
       <c r="AF862" s="8"/>
     </row>
-    <row r="863" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="8"/>
       <c r="B863" s="8"/>
       <c r="C863" s="8"/>
@@ -31622,7 +31625,7 @@
       <c r="AE863" s="8"/>
       <c r="AF863" s="8"/>
     </row>
-    <row r="864" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="8"/>
       <c r="B864" s="8"/>
       <c r="C864" s="8"/>
@@ -31656,7 +31659,7 @@
       <c r="AE864" s="8"/>
       <c r="AF864" s="8"/>
     </row>
-    <row r="865" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="8"/>
       <c r="B865" s="8"/>
       <c r="C865" s="8"/>
@@ -31690,7 +31693,7 @@
       <c r="AE865" s="8"/>
       <c r="AF865" s="8"/>
     </row>
-    <row r="866" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="8"/>
       <c r="B866" s="8"/>
       <c r="C866" s="8"/>
@@ -31724,7 +31727,7 @@
       <c r="AE866" s="8"/>
       <c r="AF866" s="8"/>
     </row>
-    <row r="867" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="8"/>
       <c r="B867" s="8"/>
       <c r="C867" s="8"/>
@@ -31758,7 +31761,7 @@
       <c r="AE867" s="8"/>
       <c r="AF867" s="8"/>
     </row>
-    <row r="868" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="8"/>
       <c r="B868" s="8"/>
       <c r="C868" s="8"/>
@@ -31792,7 +31795,7 @@
       <c r="AE868" s="8"/>
       <c r="AF868" s="8"/>
     </row>
-    <row r="869" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="8"/>
       <c r="B869" s="8"/>
       <c r="C869" s="8"/>
@@ -31826,7 +31829,7 @@
       <c r="AE869" s="8"/>
       <c r="AF869" s="8"/>
     </row>
-    <row r="870" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="8"/>
       <c r="B870" s="8"/>
       <c r="C870" s="8"/>
@@ -31860,7 +31863,7 @@
       <c r="AE870" s="8"/>
       <c r="AF870" s="8"/>
     </row>
-    <row r="871" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="8"/>
       <c r="B871" s="8"/>
       <c r="C871" s="8"/>
@@ -31894,7 +31897,7 @@
       <c r="AE871" s="8"/>
       <c r="AF871" s="8"/>
     </row>
-    <row r="872" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="8"/>
       <c r="B872" s="8"/>
       <c r="C872" s="8"/>
@@ -31928,7 +31931,7 @@
       <c r="AE872" s="8"/>
       <c r="AF872" s="8"/>
     </row>
-    <row r="873" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="8"/>
       <c r="B873" s="8"/>
       <c r="C873" s="8"/>
@@ -31962,7 +31965,7 @@
       <c r="AE873" s="8"/>
       <c r="AF873" s="8"/>
     </row>
-    <row r="874" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="8"/>
       <c r="B874" s="8"/>
       <c r="C874" s="8"/>
@@ -31996,7 +31999,7 @@
       <c r="AE874" s="8"/>
       <c r="AF874" s="8"/>
     </row>
-    <row r="875" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="8"/>
       <c r="B875" s="8"/>
       <c r="C875" s="8"/>
@@ -32030,7 +32033,7 @@
       <c r="AE875" s="8"/>
       <c r="AF875" s="8"/>
     </row>
-    <row r="876" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="8"/>
       <c r="B876" s="8"/>
       <c r="C876" s="8"/>
@@ -32064,7 +32067,7 @@
       <c r="AE876" s="8"/>
       <c r="AF876" s="8"/>
     </row>
-    <row r="877" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="8"/>
       <c r="B877" s="8"/>
       <c r="C877" s="8"/>
@@ -32098,7 +32101,7 @@
       <c r="AE877" s="8"/>
       <c r="AF877" s="8"/>
     </row>
-    <row r="878" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="8"/>
       <c r="B878" s="8"/>
       <c r="C878" s="8"/>
@@ -32132,7 +32135,7 @@
       <c r="AE878" s="8"/>
       <c r="AF878" s="8"/>
     </row>
-    <row r="879" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="8"/>
       <c r="B879" s="8"/>
       <c r="C879" s="8"/>
@@ -32166,7 +32169,7 @@
       <c r="AE879" s="8"/>
       <c r="AF879" s="8"/>
     </row>
-    <row r="880" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="8"/>
       <c r="B880" s="8"/>
       <c r="C880" s="8"/>
@@ -32200,7 +32203,7 @@
       <c r="AE880" s="8"/>
       <c r="AF880" s="8"/>
     </row>
-    <row r="881" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="8"/>
       <c r="B881" s="8"/>
       <c r="C881" s="8"/>
@@ -32234,7 +32237,7 @@
       <c r="AE881" s="8"/>
       <c r="AF881" s="8"/>
     </row>
-    <row r="882" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="8"/>
       <c r="B882" s="8"/>
       <c r="C882" s="8"/>
@@ -32268,7 +32271,7 @@
       <c r="AE882" s="8"/>
       <c r="AF882" s="8"/>
     </row>
-    <row r="883" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="8"/>
       <c r="B883" s="8"/>
       <c r="C883" s="8"/>
@@ -32302,7 +32305,7 @@
       <c r="AE883" s="8"/>
       <c r="AF883" s="8"/>
     </row>
-    <row r="884" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="8"/>
       <c r="B884" s="8"/>
       <c r="C884" s="8"/>
@@ -32336,7 +32339,7 @@
       <c r="AE884" s="8"/>
       <c r="AF884" s="8"/>
     </row>
-    <row r="885" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="8"/>
       <c r="B885" s="8"/>
       <c r="C885" s="8"/>
@@ -32370,7 +32373,7 @@
       <c r="AE885" s="8"/>
       <c r="AF885" s="8"/>
     </row>
-    <row r="886" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="8"/>
       <c r="B886" s="8"/>
       <c r="C886" s="8"/>
@@ -32404,7 +32407,7 @@
       <c r="AE886" s="8"/>
       <c r="AF886" s="8"/>
     </row>
-    <row r="887" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="8"/>
       <c r="B887" s="8"/>
       <c r="C887" s="8"/>
@@ -32438,7 +32441,7 @@
       <c r="AE887" s="8"/>
       <c r="AF887" s="8"/>
     </row>
-    <row r="888" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="8"/>
       <c r="B888" s="8"/>
       <c r="C888" s="8"/>
@@ -32472,7 +32475,7 @@
       <c r="AE888" s="8"/>
       <c r="AF888" s="8"/>
     </row>
-    <row r="889" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="8"/>
       <c r="B889" s="8"/>
       <c r="C889" s="8"/>
@@ -32506,7 +32509,7 @@
       <c r="AE889" s="8"/>
       <c r="AF889" s="8"/>
     </row>
-    <row r="890" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="8"/>
       <c r="B890" s="8"/>
       <c r="C890" s="8"/>
@@ -32540,7 +32543,7 @@
       <c r="AE890" s="8"/>
       <c r="AF890" s="8"/>
     </row>
-    <row r="891" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="8"/>
       <c r="B891" s="8"/>
       <c r="C891" s="8"/>
@@ -32574,7 +32577,7 @@
       <c r="AE891" s="8"/>
       <c r="AF891" s="8"/>
     </row>
-    <row r="892" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="8"/>
       <c r="B892" s="8"/>
       <c r="C892" s="8"/>
@@ -32608,7 +32611,7 @@
       <c r="AE892" s="8"/>
       <c r="AF892" s="8"/>
     </row>
-    <row r="893" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="8"/>
       <c r="B893" s="8"/>
       <c r="C893" s="8"/>
@@ -32642,7 +32645,7 @@
       <c r="AE893" s="8"/>
       <c r="AF893" s="8"/>
     </row>
-    <row r="894" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="8"/>
       <c r="B894" s="8"/>
       <c r="C894" s="8"/>
@@ -32676,7 +32679,7 @@
       <c r="AE894" s="8"/>
       <c r="AF894" s="8"/>
     </row>
-    <row r="895" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="8"/>
       <c r="B895" s="8"/>
       <c r="C895" s="8"/>
@@ -32710,7 +32713,7 @@
       <c r="AE895" s="8"/>
       <c r="AF895" s="8"/>
     </row>
-    <row r="896" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="8"/>
       <c r="B896" s="8"/>
       <c r="C896" s="8"/>
@@ -32744,7 +32747,7 @@
       <c r="AE896" s="8"/>
       <c r="AF896" s="8"/>
     </row>
-    <row r="897" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="8"/>
       <c r="B897" s="8"/>
       <c r="C897" s="8"/>
@@ -32778,7 +32781,7 @@
       <c r="AE897" s="8"/>
       <c r="AF897" s="8"/>
     </row>
-    <row r="898" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="8"/>
       <c r="B898" s="8"/>
       <c r="C898" s="8"/>
@@ -32812,7 +32815,7 @@
       <c r="AE898" s="8"/>
       <c r="AF898" s="8"/>
     </row>
-    <row r="899" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="8"/>
       <c r="B899" s="8"/>
       <c r="C899" s="8"/>
@@ -32846,7 +32849,7 @@
       <c r="AE899" s="8"/>
       <c r="AF899" s="8"/>
     </row>
-    <row r="900" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="8"/>
       <c r="B900" s="8"/>
       <c r="C900" s="8"/>
@@ -32880,7 +32883,7 @@
       <c r="AE900" s="8"/>
       <c r="AF900" s="8"/>
     </row>
-    <row r="901" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="8"/>
       <c r="B901" s="8"/>
       <c r="C901" s="8"/>
@@ -32914,7 +32917,7 @@
       <c r="AE901" s="8"/>
       <c r="AF901" s="8"/>
     </row>
-    <row r="902" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="8"/>
       <c r="B902" s="8"/>
       <c r="C902" s="8"/>
@@ -32948,7 +32951,7 @@
       <c r="AE902" s="8"/>
       <c r="AF902" s="8"/>
     </row>
-    <row r="903" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="8"/>
       <c r="B903" s="8"/>
       <c r="C903" s="8"/>
@@ -32982,7 +32985,7 @@
       <c r="AE903" s="8"/>
       <c r="AF903" s="8"/>
     </row>
-    <row r="904" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="8"/>
       <c r="B904" s="8"/>
       <c r="C904" s="8"/>
@@ -33016,7 +33019,7 @@
       <c r="AE904" s="8"/>
       <c r="AF904" s="8"/>
     </row>
-    <row r="905" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="8"/>
       <c r="B905" s="8"/>
       <c r="C905" s="8"/>
@@ -33050,7 +33053,7 @@
       <c r="AE905" s="8"/>
       <c r="AF905" s="8"/>
     </row>
-    <row r="906" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="8"/>
       <c r="B906" s="8"/>
       <c r="C906" s="8"/>
@@ -33084,7 +33087,7 @@
       <c r="AE906" s="8"/>
       <c r="AF906" s="8"/>
     </row>
-    <row r="907" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="8"/>
       <c r="B907" s="8"/>
       <c r="C907" s="8"/>
@@ -33118,7 +33121,7 @@
       <c r="AE907" s="8"/>
       <c r="AF907" s="8"/>
     </row>
-    <row r="908" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="8"/>
       <c r="B908" s="8"/>
       <c r="C908" s="8"/>
@@ -33152,7 +33155,7 @@
       <c r="AE908" s="8"/>
       <c r="AF908" s="8"/>
     </row>
-    <row r="909" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="8"/>
       <c r="B909" s="8"/>
       <c r="C909" s="8"/>
@@ -33186,7 +33189,7 @@
       <c r="AE909" s="8"/>
       <c r="AF909" s="8"/>
     </row>
-    <row r="910" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="8"/>
       <c r="B910" s="8"/>
       <c r="C910" s="8"/>
@@ -33220,7 +33223,7 @@
       <c r="AE910" s="8"/>
       <c r="AF910" s="8"/>
     </row>
-    <row r="911" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="8"/>
       <c r="B911" s="8"/>
       <c r="C911" s="8"/>
@@ -33254,7 +33257,7 @@
       <c r="AE911" s="8"/>
       <c r="AF911" s="8"/>
     </row>
-    <row r="912" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="8"/>
       <c r="B912" s="8"/>
       <c r="C912" s="8"/>
@@ -33288,7 +33291,7 @@
       <c r="AE912" s="8"/>
       <c r="AF912" s="8"/>
     </row>
-    <row r="913" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="8"/>
       <c r="B913" s="8"/>
       <c r="C913" s="8"/>
@@ -33322,7 +33325,7 @@
       <c r="AE913" s="8"/>
       <c r="AF913" s="8"/>
     </row>
-    <row r="914" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="8"/>
       <c r="B914" s="8"/>
       <c r="C914" s="8"/>
@@ -33356,7 +33359,7 @@
       <c r="AE914" s="8"/>
       <c r="AF914" s="8"/>
     </row>
-    <row r="915" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="8"/>
       <c r="B915" s="8"/>
       <c r="C915" s="8"/>
@@ -33390,7 +33393,7 @@
       <c r="AE915" s="8"/>
       <c r="AF915" s="8"/>
     </row>
-    <row r="916" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="8"/>
       <c r="B916" s="8"/>
       <c r="C916" s="8"/>
@@ -33424,7 +33427,7 @@
       <c r="AE916" s="8"/>
       <c r="AF916" s="8"/>
     </row>
-    <row r="917" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="8"/>
       <c r="B917" s="8"/>
       <c r="C917" s="8"/>
@@ -33458,7 +33461,7 @@
       <c r="AE917" s="8"/>
       <c r="AF917" s="8"/>
     </row>
-    <row r="918" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="8"/>
       <c r="B918" s="8"/>
       <c r="C918" s="8"/>
@@ -33492,7 +33495,7 @@
       <c r="AE918" s="8"/>
       <c r="AF918" s="8"/>
     </row>
-    <row r="919" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="8"/>
       <c r="B919" s="8"/>
       <c r="C919" s="8"/>
@@ -33526,7 +33529,7 @@
       <c r="AE919" s="8"/>
       <c r="AF919" s="8"/>
     </row>
-    <row r="920" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="8"/>
       <c r="B920" s="8"/>
       <c r="C920" s="8"/>
@@ -33560,7 +33563,7 @@
       <c r="AE920" s="8"/>
       <c r="AF920" s="8"/>
     </row>
-    <row r="921" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="8"/>
       <c r="B921" s="8"/>
       <c r="C921" s="8"/>
@@ -33594,7 +33597,7 @@
       <c r="AE921" s="8"/>
       <c r="AF921" s="8"/>
     </row>
-    <row r="922" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="8"/>
       <c r="B922" s="8"/>
       <c r="C922" s="8"/>
@@ -33628,7 +33631,7 @@
       <c r="AE922" s="8"/>
       <c r="AF922" s="8"/>
     </row>
-    <row r="923" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="8"/>
       <c r="B923" s="8"/>
       <c r="C923" s="8"/>
@@ -33662,7 +33665,7 @@
       <c r="AE923" s="8"/>
       <c r="AF923" s="8"/>
     </row>
-    <row r="924" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="8"/>
       <c r="B924" s="8"/>
       <c r="C924" s="8"/>
@@ -33696,7 +33699,7 @@
       <c r="AE924" s="8"/>
       <c r="AF924" s="8"/>
     </row>
-    <row r="925" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="8"/>
       <c r="B925" s="8"/>
       <c r="C925" s="8"/>
@@ -33730,7 +33733,7 @@
       <c r="AE925" s="8"/>
       <c r="AF925" s="8"/>
     </row>
-    <row r="926" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="8"/>
       <c r="B926" s="8"/>
       <c r="C926" s="8"/>
@@ -33764,7 +33767,7 @@
       <c r="AE926" s="8"/>
       <c r="AF926" s="8"/>
     </row>
-    <row r="927" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="8"/>
       <c r="B927" s="8"/>
       <c r="C927" s="8"/>
@@ -33798,7 +33801,7 @@
       <c r="AE927" s="8"/>
       <c r="AF927" s="8"/>
     </row>
-    <row r="928" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="8"/>
       <c r="B928" s="8"/>
       <c r="C928" s="8"/>
@@ -33832,7 +33835,7 @@
       <c r="AE928" s="8"/>
       <c r="AF928" s="8"/>
     </row>
-    <row r="929" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="8"/>
       <c r="B929" s="8"/>
       <c r="C929" s="8"/>
@@ -33866,7 +33869,7 @@
       <c r="AE929" s="8"/>
       <c r="AF929" s="8"/>
     </row>
-    <row r="930" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="8"/>
       <c r="B930" s="8"/>
       <c r="C930" s="8"/>
@@ -33900,7 +33903,7 @@
       <c r="AE930" s="8"/>
       <c r="AF930" s="8"/>
     </row>
-    <row r="931" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="8"/>
       <c r="B931" s="8"/>
       <c r="C931" s="8"/>
@@ -33934,7 +33937,7 @@
       <c r="AE931" s="8"/>
       <c r="AF931" s="8"/>
     </row>
-    <row r="932" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="8"/>
       <c r="B932" s="8"/>
       <c r="C932" s="8"/>
@@ -33968,7 +33971,7 @@
       <c r="AE932" s="8"/>
       <c r="AF932" s="8"/>
     </row>
-    <row r="933" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="8"/>
       <c r="B933" s="8"/>
       <c r="C933" s="8"/>
@@ -34002,7 +34005,7 @@
       <c r="AE933" s="8"/>
       <c r="AF933" s="8"/>
     </row>
-    <row r="934" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="8"/>
       <c r="B934" s="8"/>
       <c r="C934" s="8"/>
@@ -34036,7 +34039,7 @@
       <c r="AE934" s="8"/>
       <c r="AF934" s="8"/>
     </row>
-    <row r="935" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="8"/>
       <c r="B935" s="8"/>
       <c r="C935" s="8"/>
@@ -34070,7 +34073,7 @@
       <c r="AE935" s="8"/>
       <c r="AF935" s="8"/>
     </row>
-    <row r="936" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="8"/>
       <c r="B936" s="8"/>
       <c r="C936" s="8"/>
@@ -34104,7 +34107,7 @@
       <c r="AE936" s="8"/>
       <c r="AF936" s="8"/>
     </row>
-    <row r="937" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="8"/>
       <c r="B937" s="8"/>
       <c r="C937" s="8"/>
@@ -34138,7 +34141,7 @@
       <c r="AE937" s="8"/>
       <c r="AF937" s="8"/>
     </row>
-    <row r="938" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="8"/>
       <c r="B938" s="8"/>
       <c r="C938" s="8"/>
@@ -34172,7 +34175,7 @@
       <c r="AE938" s="8"/>
       <c r="AF938" s="8"/>
     </row>
-    <row r="939" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="8"/>
       <c r="B939" s="8"/>
       <c r="C939" s="8"/>
@@ -34206,7 +34209,7 @@
       <c r="AE939" s="8"/>
       <c r="AF939" s="8"/>
     </row>
-    <row r="940" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="8"/>
       <c r="B940" s="8"/>
       <c r="C940" s="8"/>
@@ -34240,7 +34243,7 @@
       <c r="AE940" s="8"/>
       <c r="AF940" s="8"/>
     </row>
-    <row r="941" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="8"/>
       <c r="B941" s="8"/>
       <c r="C941" s="8"/>
@@ -34274,7 +34277,7 @@
       <c r="AE941" s="8"/>
       <c r="AF941" s="8"/>
     </row>
-    <row r="942" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="8"/>
       <c r="B942" s="8"/>
       <c r="C942" s="8"/>
@@ -34308,7 +34311,7 @@
       <c r="AE942" s="8"/>
       <c r="AF942" s="8"/>
     </row>
-    <row r="943" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="8"/>
       <c r="B943" s="8"/>
       <c r="C943" s="8"/>
@@ -34342,7 +34345,7 @@
       <c r="AE943" s="8"/>
       <c r="AF943" s="8"/>
     </row>
-    <row r="944" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="8"/>
       <c r="B944" s="8"/>
       <c r="C944" s="8"/>
@@ -34376,7 +34379,7 @@
       <c r="AE944" s="8"/>
       <c r="AF944" s="8"/>
     </row>
-    <row r="945" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="8"/>
       <c r="B945" s="8"/>
       <c r="C945" s="8"/>
@@ -34410,7 +34413,7 @@
       <c r="AE945" s="8"/>
       <c r="AF945" s="8"/>
     </row>
-    <row r="946" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="8"/>
       <c r="B946" s="8"/>
       <c r="C946" s="8"/>
@@ -34444,7 +34447,7 @@
       <c r="AE946" s="8"/>
       <c r="AF946" s="8"/>
     </row>
-    <row r="947" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="8"/>
       <c r="B947" s="8"/>
       <c r="C947" s="8"/>
@@ -34478,7 +34481,7 @@
       <c r="AE947" s="8"/>
       <c r="AF947" s="8"/>
     </row>
-    <row r="948" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="8"/>
       <c r="B948" s="8"/>
       <c r="C948" s="8"/>
@@ -34512,7 +34515,7 @@
       <c r="AE948" s="8"/>
       <c r="AF948" s="8"/>
     </row>
-    <row r="949" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="8"/>
       <c r="B949" s="8"/>
       <c r="C949" s="8"/>
@@ -34546,7 +34549,7 @@
       <c r="AE949" s="8"/>
       <c r="AF949" s="8"/>
     </row>
-    <row r="950" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A950" s="8"/>
       <c r="B950" s="8"/>
       <c r="C950" s="8"/>
@@ -34580,7 +34583,7 @@
       <c r="AE950" s="8"/>
       <c r="AF950" s="8"/>
     </row>
-    <row r="951" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="8"/>
       <c r="B951" s="8"/>
       <c r="C951" s="8"/>
@@ -34614,7 +34617,7 @@
       <c r="AE951" s="8"/>
       <c r="AF951" s="8"/>
     </row>
-    <row r="952" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="8"/>
       <c r="B952" s="8"/>
       <c r="C952" s="8"/>
@@ -34648,7 +34651,7 @@
       <c r="AE952" s="8"/>
       <c r="AF952" s="8"/>
     </row>
-    <row r="953" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="8"/>
       <c r="B953" s="8"/>
       <c r="C953" s="8"/>
@@ -34682,7 +34685,7 @@
       <c r="AE953" s="8"/>
       <c r="AF953" s="8"/>
     </row>
-    <row r="954" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="8"/>
       <c r="B954" s="8"/>
       <c r="C954" s="8"/>
@@ -34716,7 +34719,7 @@
       <c r="AE954" s="8"/>
       <c r="AF954" s="8"/>
     </row>
-    <row r="955" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="8"/>
       <c r="B955" s="8"/>
       <c r="C955" s="8"/>
@@ -34750,7 +34753,7 @@
       <c r="AE955" s="8"/>
       <c r="AF955" s="8"/>
     </row>
-    <row r="956" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="8"/>
       <c r="B956" s="8"/>
       <c r="C956" s="8"/>
@@ -34784,7 +34787,7 @@
       <c r="AE956" s="8"/>
       <c r="AF956" s="8"/>
     </row>
-    <row r="957" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="8"/>
       <c r="B957" s="8"/>
       <c r="C957" s="8"/>
@@ -34818,7 +34821,7 @@
       <c r="AE957" s="8"/>
       <c r="AF957" s="8"/>
     </row>
-    <row r="958" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="8"/>
       <c r="B958" s="8"/>
       <c r="C958" s="8"/>
@@ -34852,7 +34855,7 @@
       <c r="AE958" s="8"/>
       <c r="AF958" s="8"/>
     </row>
-    <row r="959" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A959" s="8"/>
       <c r="B959" s="8"/>
       <c r="C959" s="8"/>
@@ -34886,7 +34889,7 @@
       <c r="AE959" s="8"/>
       <c r="AF959" s="8"/>
     </row>
-    <row r="960" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="8"/>
       <c r="B960" s="8"/>
       <c r="C960" s="8"/>
@@ -34920,7 +34923,7 @@
       <c r="AE960" s="8"/>
       <c r="AF960" s="8"/>
     </row>
-    <row r="961" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="8"/>
       <c r="B961" s="8"/>
       <c r="C961" s="8"/>
@@ -34954,7 +34957,7 @@
       <c r="AE961" s="8"/>
       <c r="AF961" s="8"/>
     </row>
-    <row r="962" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="8"/>
       <c r="B962" s="8"/>
       <c r="C962" s="8"/>
@@ -34988,7 +34991,7 @@
       <c r="AE962" s="8"/>
       <c r="AF962" s="8"/>
     </row>
-    <row r="963" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="8"/>
       <c r="B963" s="8"/>
       <c r="C963" s="8"/>
@@ -35022,7 +35025,7 @@
       <c r="AE963" s="8"/>
       <c r="AF963" s="8"/>
     </row>
-    <row r="964" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="8"/>
       <c r="B964" s="8"/>
       <c r="C964" s="8"/>
@@ -35056,7 +35059,7 @@
       <c r="AE964" s="8"/>
       <c r="AF964" s="8"/>
     </row>
-    <row r="965" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="8"/>
       <c r="B965" s="8"/>
       <c r="C965" s="8"/>
@@ -35090,7 +35093,7 @@
       <c r="AE965" s="8"/>
       <c r="AF965" s="8"/>
     </row>
-    <row r="966" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A966" s="8"/>
       <c r="B966" s="8"/>
       <c r="C966" s="8"/>
@@ -35124,7 +35127,7 @@
       <c r="AE966" s="8"/>
       <c r="AF966" s="8"/>
     </row>
-    <row r="967" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="8"/>
       <c r="B967" s="8"/>
       <c r="C967" s="8"/>
@@ -35158,7 +35161,7 @@
       <c r="AE967" s="8"/>
       <c r="AF967" s="8"/>
     </row>
-    <row r="968" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="8"/>
       <c r="B968" s="8"/>
       <c r="C968" s="8"/>
@@ -35192,7 +35195,7 @@
       <c r="AE968" s="8"/>
       <c r="AF968" s="8"/>
     </row>
-    <row r="969" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="8"/>
       <c r="B969" s="8"/>
       <c r="C969" s="8"/>
@@ -35226,7 +35229,7 @@
       <c r="AE969" s="8"/>
       <c r="AF969" s="8"/>
     </row>
-    <row r="970" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="8"/>
       <c r="B970" s="8"/>
       <c r="C970" s="8"/>
@@ -35260,7 +35263,7 @@
       <c r="AE970" s="8"/>
       <c r="AF970" s="8"/>
     </row>
-    <row r="971" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="8"/>
       <c r="B971" s="8"/>
       <c r="C971" s="8"/>
@@ -35294,7 +35297,7 @@
       <c r="AE971" s="8"/>
       <c r="AF971" s="8"/>
     </row>
-    <row r="972" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="8"/>
       <c r="B972" s="8"/>
       <c r="C972" s="8"/>
@@ -35328,7 +35331,7 @@
       <c r="AE972" s="8"/>
       <c r="AF972" s="8"/>
     </row>
-    <row r="973" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="8"/>
       <c r="B973" s="8"/>
       <c r="C973" s="8"/>
@@ -35362,7 +35365,7 @@
       <c r="AE973" s="8"/>
       <c r="AF973" s="8"/>
     </row>
-    <row r="974" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="8"/>
       <c r="B974" s="8"/>
       <c r="C974" s="8"/>
@@ -35396,7 +35399,7 @@
       <c r="AE974" s="8"/>
       <c r="AF974" s="8"/>
     </row>
-    <row r="975" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="8"/>
       <c r="B975" s="8"/>
       <c r="C975" s="8"/>
@@ -35430,7 +35433,7 @@
       <c r="AE975" s="8"/>
       <c r="AF975" s="8"/>
     </row>
-    <row r="976" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="8"/>
       <c r="B976" s="8"/>
       <c r="C976" s="8"/>
@@ -35464,7 +35467,7 @@
       <c r="AE976" s="8"/>
       <c r="AF976" s="8"/>
     </row>
-    <row r="977" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="8"/>
       <c r="B977" s="8"/>
       <c r="C977" s="8"/>
@@ -35498,7 +35501,7 @@
       <c r="AE977" s="8"/>
       <c r="AF977" s="8"/>
     </row>
-    <row r="978" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="8"/>
       <c r="B978" s="8"/>
       <c r="C978" s="8"/>
@@ -35532,7 +35535,7 @@
       <c r="AE978" s="8"/>
       <c r="AF978" s="8"/>
     </row>
-    <row r="979" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="8"/>
       <c r="B979" s="8"/>
       <c r="C979" s="8"/>
@@ -35566,7 +35569,7 @@
       <c r="AE979" s="8"/>
       <c r="AF979" s="8"/>
     </row>
-    <row r="980" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="8"/>
       <c r="B980" s="8"/>
       <c r="C980" s="8"/>
@@ -35600,7 +35603,7 @@
       <c r="AE980" s="8"/>
       <c r="AF980" s="8"/>
     </row>
-    <row r="981" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A981" s="8"/>
       <c r="B981" s="8"/>
       <c r="C981" s="8"/>
@@ -35634,7 +35637,7 @@
       <c r="AE981" s="8"/>
       <c r="AF981" s="8"/>
     </row>
-    <row r="982" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A982" s="8"/>
       <c r="B982" s="8"/>
       <c r="C982" s="8"/>
@@ -35668,7 +35671,7 @@
       <c r="AE982" s="8"/>
       <c r="AF982" s="8"/>
     </row>
-    <row r="983" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A983" s="8"/>
       <c r="B983" s="8"/>
       <c r="C983" s="8"/>
@@ -35702,7 +35705,7 @@
       <c r="AE983" s="8"/>
       <c r="AF983" s="8"/>
     </row>
-    <row r="984" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A984" s="8"/>
       <c r="B984" s="8"/>
       <c r="C984" s="8"/>
@@ -35736,7 +35739,7 @@
       <c r="AE984" s="8"/>
       <c r="AF984" s="8"/>
     </row>
-    <row r="985" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A985" s="8"/>
       <c r="B985" s="8"/>
       <c r="C985" s="8"/>
@@ -35770,7 +35773,7 @@
       <c r="AE985" s="8"/>
       <c r="AF985" s="8"/>
     </row>
-    <row r="986" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A986" s="8"/>
       <c r="B986" s="8"/>
       <c r="C986" s="8"/>
@@ -35804,7 +35807,7 @@
       <c r="AE986" s="8"/>
       <c r="AF986" s="8"/>
     </row>
-    <row r="987" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A987" s="8"/>
       <c r="B987" s="8"/>
       <c r="C987" s="8"/>
@@ -35838,7 +35841,7 @@
       <c r="AE987" s="8"/>
       <c r="AF987" s="8"/>
     </row>
-    <row r="988" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A988" s="8"/>
       <c r="B988" s="8"/>
       <c r="C988" s="8"/>
@@ -35872,7 +35875,7 @@
       <c r="AE988" s="8"/>
       <c r="AF988" s="8"/>
     </row>
-    <row r="989" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A989" s="8"/>
       <c r="B989" s="8"/>
       <c r="C989" s="8"/>
@@ -35906,7 +35909,7 @@
       <c r="AE989" s="8"/>
       <c r="AF989" s="8"/>
     </row>
-    <row r="990" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A990" s="8"/>
       <c r="B990" s="8"/>
       <c r="C990" s="8"/>
@@ -35940,7 +35943,7 @@
       <c r="AE990" s="8"/>
       <c r="AF990" s="8"/>
     </row>
-    <row r="991" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A991" s="8"/>
       <c r="B991" s="8"/>
       <c r="C991" s="8"/>
@@ -35974,7 +35977,7 @@
       <c r="AE991" s="8"/>
       <c r="AF991" s="8"/>
     </row>
-    <row r="992" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A992" s="8"/>
       <c r="B992" s="8"/>
       <c r="C992" s="8"/>
@@ -36008,7 +36011,7 @@
       <c r="AE992" s="8"/>
       <c r="AF992" s="8"/>
     </row>
-    <row r="993" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A993" s="8"/>
       <c r="B993" s="8"/>
       <c r="C993" s="8"/>
@@ -36042,7 +36045,7 @@
       <c r="AE993" s="8"/>
       <c r="AF993" s="8"/>
     </row>
-    <row r="994" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A994" s="8"/>
       <c r="B994" s="8"/>
       <c r="C994" s="8"/>
@@ -36076,7 +36079,7 @@
       <c r="AE994" s="8"/>
       <c r="AF994" s="8"/>
     </row>
-    <row r="995" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A995" s="8"/>
       <c r="B995" s="8"/>
       <c r="C995" s="8"/>
@@ -36110,7 +36113,7 @@
       <c r="AE995" s="8"/>
       <c r="AF995" s="8"/>
     </row>
-    <row r="996" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A996" s="8"/>
       <c r="B996" s="8"/>
       <c r="C996" s="8"/>
@@ -36144,7 +36147,7 @@
       <c r="AE996" s="8"/>
       <c r="AF996" s="8"/>
     </row>
-    <row r="997" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A997" s="8"/>
       <c r="B997" s="8"/>
       <c r="C997" s="8"/>
@@ -36178,7 +36181,7 @@
       <c r="AE997" s="8"/>
       <c r="AF997" s="8"/>
     </row>
-    <row r="998" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A998" s="8"/>
       <c r="B998" s="8"/>
       <c r="C998" s="8"/>
@@ -36212,7 +36215,7 @@
       <c r="AE998" s="8"/>
       <c r="AF998" s="8"/>
     </row>
-    <row r="999" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A999" s="8"/>
       <c r="B999" s="8"/>
       <c r="C999" s="8"/>
@@ -36246,7 +36249,7 @@
       <c r="AE999" s="8"/>
       <c r="AF999" s="8"/>
     </row>
-    <row r="1000" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="8"/>
       <c r="B1000" s="8"/>
       <c r="C1000" s="8"/>

--- a/BOJ_roadmap.xlsx
+++ b/BOJ_roadmap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Algorithm_study\Algorithm_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6477B9C2-B5FC-4346-815D-40EE0B5D2B17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED3A27B-FBC8-4DBC-931F-44BA83914BD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="1920" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,7 +122,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +138,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -633,6 +639,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,7 +862,7 @@
   <dimension ref="A1:AF1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="L124" sqref="L124"/>
+      <selection activeCell="L131" sqref="L131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6121,7 +6130,7 @@
       <c r="I131" s="23"/>
       <c r="J131" s="23"/>
       <c r="K131" s="24"/>
-      <c r="L131" s="22"/>
+      <c r="L131" s="37"/>
       <c r="M131" s="23"/>
       <c r="N131" s="23"/>
       <c r="O131" s="23"/>

--- a/BOJ_roadmap.xlsx
+++ b/BOJ_roadmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Algorithm_study\Algorithm_study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED3A27B-FBC8-4DBC-931F-44BA83914BD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6206C792-17ED-4A5F-88E3-62829D7C1247}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="1920" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30330" yWindow="4710" windowWidth="18105" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1차BOJ" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +144,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -642,6 +654,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -861,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="L131" sqref="L131"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="M97" sqref="M97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2199,7 +2220,7 @@
       <c r="B33" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="39">
         <v>1463</v>
       </c>
       <c r="D33" s="17"/>
@@ -2210,7 +2231,7 @@
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
       <c r="K33" s="24"/>
-      <c r="L33" s="22"/>
+      <c r="L33" s="38"/>
       <c r="M33" s="23"/>
       <c r="N33" s="23"/>
       <c r="O33" s="23"/>
@@ -2239,7 +2260,7 @@
       <c r="B34" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="39">
         <v>11726</v>
       </c>
       <c r="D34" s="17"/>
@@ -4719,7 +4740,7 @@
       <c r="B96" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C96" s="16">
+      <c r="C96" s="39">
         <v>11724</v>
       </c>
       <c r="D96" s="17"/>
@@ -4771,7 +4792,7 @@
       <c r="J97" s="23"/>
       <c r="K97" s="24"/>
       <c r="L97" s="22"/>
-      <c r="M97" s="23"/>
+      <c r="M97" s="40"/>
       <c r="N97" s="23"/>
       <c r="O97" s="23"/>
       <c r="P97" s="23"/>
